--- a/spreadsheet/avd_checklist.pt.xlsx
+++ b/spreadsheet/avd_checklist.pt.xlsx
@@ -3500,7 +3500,7 @@
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Avalie a Azure Shared Image Gallery.</t>
+          <t>Avalie a Azure Compute Gallery.</t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>Se imagens personalizadas forem usadas para implantar VMs de Pool de Host, é importante garantir que esses artefatos estejam disponíveis em todas as regiões, mesmo que em caso de um grande desastre. O serviço Azure Shared Image Gallery pode ser usado para replicar imagens em todas as regiões onde um Host Pool é implantado, com armazenamento redundante e em várias cópias.</t>
+          <t>Se imagens personalizadas forem usadas para implantar VMs de Pool de Host, é importante garantir que esses artefatos estejam disponíveis em todas as regiões, mesmo que em caso de um grande desastre. O serviço Azure Compute Gallery pode ser usado para replicar imagens em todas as regiões onde um Host Pool é implantado, com armazenamento redundante e em várias cópias.</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">

--- a/spreadsheet/avd_checklist.pt.xlsx
+++ b/spreadsheet/avd_checklist.pt.xlsx
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -6621,850 +6621,2418 @@
       <c r="P118" s="26" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1" s="13">
-      <c r="A119" s="22" t="n"/>
-      <c r="B119" s="22" t="n"/>
-      <c r="C119" s="22" t="n"/>
+      <c r="A119" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B119" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C119" s="22" t="inlineStr">
+        <is>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+        </is>
+      </c>
       <c r="D119" s="22" t="n"/>
-      <c r="E119" s="22" t="n"/>
+      <c r="E119" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G119" s="22" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
-      <c r="L119" s="26" t="n"/>
+      <c r="L119" s="26" t="inlineStr">
+        <is>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+        </is>
+      </c>
       <c r="M119" s="26" t="n"/>
       <c r="N119" s="26" t="n"/>
       <c r="O119" s="26" t="n"/>
       <c r="P119" s="26" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1" s="13">
-      <c r="A120" s="22" t="n"/>
-      <c r="B120" s="22" t="n"/>
-      <c r="C120" s="22" t="n"/>
+      <c r="A120" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B120" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C120" s="22" t="inlineStr">
+        <is>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+        </is>
+      </c>
       <c r="D120" s="22" t="n"/>
-      <c r="E120" s="22" t="n"/>
+      <c r="E120" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G120" s="22" t="n"/>
-      <c r="H120" s="16" t="n"/>
+      <c r="H120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
       <c r="I120" s="16" t="n"/>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
-      <c r="L120" s="26" t="n"/>
+      <c r="L120" s="26" t="inlineStr">
+        <is>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+        </is>
+      </c>
       <c r="M120" s="26" t="n"/>
       <c r="N120" s="26" t="n"/>
       <c r="O120" s="26" t="n"/>
       <c r="P120" s="26" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1" s="13">
-      <c r="A121" s="22" t="n"/>
-      <c r="B121" s="22" t="n"/>
-      <c r="C121" s="22" t="n"/>
+      <c r="A121" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B121" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C121" s="22" t="inlineStr">
+        <is>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+        </is>
+      </c>
       <c r="D121" s="22" t="n"/>
-      <c r="E121" s="22" t="n"/>
+      <c r="E121" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="16" t="n"/>
-      <c r="I121" s="16" t="n"/>
+      <c r="H121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
-      <c r="L121" s="26" t="n"/>
+      <c r="L121" s="26" t="inlineStr">
+        <is>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+        </is>
+      </c>
       <c r="M121" s="26" t="n"/>
       <c r="N121" s="26" t="n"/>
       <c r="O121" s="26" t="n"/>
       <c r="P121" s="26" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1" s="13">
-      <c r="A122" s="22" t="n"/>
-      <c r="B122" s="22" t="n"/>
-      <c r="C122" s="22" t="n"/>
+      <c r="A122" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B122" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C122" s="22" t="inlineStr">
+        <is>
+          <t>Is the landing zone documented?</t>
+        </is>
+      </c>
       <c r="D122" s="22" t="n"/>
-      <c r="E122" s="22" t="n"/>
+      <c r="E122" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="n"/>
       <c r="I122" s="16" t="n"/>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
-      <c r="L122" s="26" t="n"/>
+      <c r="L122" s="26" t="inlineStr">
+        <is>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+        </is>
+      </c>
       <c r="M122" s="26" t="n"/>
       <c r="N122" s="26" t="n"/>
       <c r="O122" s="26" t="n"/>
       <c r="P122" s="26" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1" s="13">
-      <c r="A123" s="22" t="n"/>
-      <c r="B123" s="22" t="n"/>
-      <c r="C123" s="22" t="n"/>
+      <c r="A123" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B123" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C123" s="22" t="inlineStr">
+        <is>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+        </is>
+      </c>
       <c r="D123" s="22" t="n"/>
-      <c r="E123" s="22" t="n"/>
+      <c r="E123" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="n"/>
-      <c r="I123" s="16" t="n"/>
+      <c r="H123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
-      <c r="L123" s="26" t="n"/>
+      <c r="L123" s="26" t="inlineStr">
+        <is>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+        </is>
+      </c>
       <c r="M123" s="26" t="n"/>
       <c r="N123" s="26" t="n"/>
       <c r="O123" s="26" t="n"/>
       <c r="P123" s="26" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1" s="13">
-      <c r="A124" s="22" t="n"/>
-      <c r="B124" s="22" t="n"/>
-      <c r="C124" s="22" t="n"/>
+      <c r="A124" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B124" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C124" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+        </is>
+      </c>
       <c r="D124" s="22" t="n"/>
-      <c r="E124" s="22" t="n"/>
+      <c r="E124" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G124" s="22" t="n"/>
-      <c r="H124" s="16" t="n"/>
-      <c r="I124" s="16" t="n"/>
+      <c r="H124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
-      <c r="L124" s="26" t="n"/>
+      <c r="L124" s="26" t="inlineStr">
+        <is>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+        </is>
+      </c>
       <c r="M124" s="26" t="n"/>
       <c r="N124" s="26" t="n"/>
       <c r="O124" s="26" t="n"/>
       <c r="P124" s="26" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1" s="13">
-      <c r="A125" s="22" t="n"/>
-      <c r="B125" s="22" t="n"/>
-      <c r="C125" s="22" t="n"/>
+      <c r="A125" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B125" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C125" s="22" t="inlineStr">
+        <is>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+        </is>
+      </c>
       <c r="D125" s="22" t="n"/>
-      <c r="E125" s="22" t="n"/>
+      <c r="E125" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G125" s="22" t="n"/>
-      <c r="H125" s="16" t="n"/>
-      <c r="I125" s="16" t="n"/>
+      <c r="H125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
-      <c r="L125" s="26" t="n"/>
+      <c r="L125" s="26" t="inlineStr">
+        <is>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+        </is>
+      </c>
       <c r="M125" s="26" t="n"/>
       <c r="N125" s="26" t="n"/>
       <c r="O125" s="26" t="n"/>
       <c r="P125" s="26" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1" s="13">
-      <c r="A126" s="22" t="n"/>
-      <c r="B126" s="22" t="n"/>
-      <c r="C126" s="22" t="n"/>
+      <c r="A126" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B126" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C126" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+        </is>
+      </c>
       <c r="D126" s="22" t="n"/>
-      <c r="E126" s="22" t="n"/>
+      <c r="E126" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G126" s="22" t="n"/>
-      <c r="H126" s="16" t="n"/>
+      <c r="H126" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
-      <c r="L126" s="26" t="n"/>
+      <c r="L126" s="26" t="inlineStr">
+        <is>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+        </is>
+      </c>
       <c r="M126" s="26" t="n"/>
       <c r="N126" s="26" t="n"/>
       <c r="O126" s="26" t="n"/>
       <c r="P126" s="26" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1" s="13">
-      <c r="A127" s="22" t="n"/>
-      <c r="B127" s="22" t="n"/>
-      <c r="C127" s="22" t="n"/>
+      <c r="A127" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B127" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C127" s="22" t="inlineStr">
+        <is>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
+        </is>
+      </c>
       <c r="D127" s="22" t="n"/>
-      <c r="E127" s="22" t="n"/>
+      <c r="E127" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G127" s="22" t="n"/>
-      <c r="H127" s="16" t="n"/>
+      <c r="H127" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
-      <c r="L127" s="26" t="n"/>
+      <c r="L127" s="26" t="inlineStr">
+        <is>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+        </is>
+      </c>
       <c r="M127" s="26" t="n"/>
       <c r="N127" s="26" t="n"/>
       <c r="O127" s="26" t="n"/>
       <c r="P127" s="26" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1" s="13">
-      <c r="A128" s="22" t="n"/>
-      <c r="B128" s="22" t="n"/>
-      <c r="C128" s="22" t="n"/>
+      <c r="A128" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B128" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C128" s="22" t="inlineStr">
+        <is>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+        </is>
+      </c>
       <c r="D128" s="22" t="n"/>
-      <c r="E128" s="22" t="n"/>
+      <c r="E128" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G128" s="22" t="n"/>
-      <c r="H128" s="16" t="n"/>
+      <c r="H128" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
-      <c r="L128" s="26" t="n"/>
+      <c r="L128" s="26" t="inlineStr">
+        <is>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+        </is>
+      </c>
       <c r="M128" s="26" t="n"/>
       <c r="N128" s="26" t="n"/>
       <c r="O128" s="26" t="n"/>
       <c r="P128" s="26" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1" s="13">
-      <c r="A129" s="22" t="n"/>
-      <c r="B129" s="22" t="n"/>
-      <c r="C129" s="22" t="n"/>
+      <c r="A129" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B129" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C129" s="22" t="inlineStr">
+        <is>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+        </is>
+      </c>
       <c r="D129" s="22" t="n"/>
-      <c r="E129" s="22" t="n"/>
+      <c r="E129" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G129" s="22" t="n"/>
-      <c r="H129" s="16" t="n"/>
+      <c r="H129" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
-      <c r="L129" s="26" t="n"/>
+      <c r="L129" s="26" t="inlineStr">
+        <is>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+        </is>
+      </c>
       <c r="M129" s="26" t="n"/>
       <c r="N129" s="26" t="n"/>
       <c r="O129" s="26" t="n"/>
       <c r="P129" s="26" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1" s="13">
-      <c r="A130" s="22" t="n"/>
-      <c r="B130" s="22" t="n"/>
-      <c r="C130" s="22" t="n"/>
+      <c r="A130" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B130" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C130" s="22" t="inlineStr">
+        <is>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+        </is>
+      </c>
       <c r="D130" s="22" t="n"/>
-      <c r="E130" s="22" t="n"/>
+      <c r="E130" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G130" s="22" t="n"/>
-      <c r="H130" s="16" t="n"/>
+      <c r="H130" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+        </is>
+      </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
-      <c r="L130" s="26" t="n"/>
+      <c r="L130" s="26" t="inlineStr">
+        <is>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+        </is>
+      </c>
       <c r="M130" s="26" t="n"/>
       <c r="N130" s="26" t="n"/>
       <c r="O130" s="26" t="n"/>
       <c r="P130" s="26" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1" s="13">
-      <c r="A131" s="22" t="n"/>
-      <c r="B131" s="22" t="n"/>
-      <c r="C131" s="22" t="n"/>
+      <c r="A131" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B131" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C131" s="22" t="inlineStr">
+        <is>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+        </is>
+      </c>
       <c r="D131" s="22" t="n"/>
-      <c r="E131" s="22" t="n"/>
+      <c r="E131" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G131" s="22" t="n"/>
-      <c r="H131" s="16" t="n"/>
+      <c r="H131" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
-      <c r="L131" s="26" t="n"/>
+      <c r="L131" s="26" t="inlineStr">
+        <is>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+        </is>
+      </c>
       <c r="M131" s="26" t="n"/>
       <c r="N131" s="26" t="n"/>
       <c r="O131" s="26" t="n"/>
       <c r="P131" s="26" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1" s="13">
-      <c r="A132" s="22" t="n"/>
-      <c r="B132" s="22" t="n"/>
-      <c r="C132" s="22" t="n"/>
+      <c r="A132" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B132" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C132" s="22" t="inlineStr">
+        <is>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+        </is>
+      </c>
       <c r="D132" s="22" t="n"/>
-      <c r="E132" s="22" t="n"/>
+      <c r="E132" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="n"/>
+      <c r="H132" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
-      <c r="L132" s="26" t="n"/>
+      <c r="L132" s="26" t="inlineStr">
+        <is>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+        </is>
+      </c>
       <c r="M132" s="26" t="n"/>
       <c r="N132" s="26" t="n"/>
       <c r="O132" s="26" t="n"/>
       <c r="P132" s="26" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1" s="13">
-      <c r="A133" s="22" t="n"/>
-      <c r="B133" s="22" t="n"/>
-      <c r="C133" s="22" t="n"/>
+      <c r="A133" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B133" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C133" s="22" t="inlineStr">
+        <is>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+        </is>
+      </c>
       <c r="D133" s="22" t="n"/>
-      <c r="E133" s="22" t="n"/>
+      <c r="E133" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="n"/>
+      <c r="H133" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
-      <c r="L133" s="26" t="n"/>
+      <c r="L133" s="26" t="inlineStr">
+        <is>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+        </is>
+      </c>
       <c r="M133" s="26" t="n"/>
       <c r="N133" s="26" t="n"/>
       <c r="O133" s="26" t="n"/>
       <c r="P133" s="26" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1" s="13">
-      <c r="A134" s="22" t="n"/>
-      <c r="B134" s="22" t="n"/>
-      <c r="C134" s="22" t="n"/>
+      <c r="A134" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B134" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C134" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
+        </is>
+      </c>
       <c r="D134" s="22" t="n"/>
-      <c r="E134" s="22" t="n"/>
+      <c r="E134" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G134" s="22" t="n"/>
-      <c r="H134" s="16" t="n"/>
+      <c r="H134" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+        </is>
+      </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
-      <c r="L134" s="26" t="n"/>
+      <c r="L134" s="26" t="inlineStr">
+        <is>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+        </is>
+      </c>
       <c r="M134" s="26" t="n"/>
       <c r="N134" s="26" t="n"/>
       <c r="O134" s="26" t="n"/>
       <c r="P134" s="26" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1" s="13">
-      <c r="A135" s="22" t="n"/>
-      <c r="B135" s="22" t="n"/>
-      <c r="C135" s="22" t="n"/>
+      <c r="A135" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B135" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C135" s="22" t="inlineStr">
+        <is>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+        </is>
+      </c>
       <c r="D135" s="22" t="n"/>
-      <c r="E135" s="22" t="n"/>
+      <c r="E135" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G135" s="22" t="n"/>
-      <c r="H135" s="16" t="n"/>
+      <c r="H135" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+        </is>
+      </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
-      <c r="L135" s="26" t="n"/>
+      <c r="L135" s="26" t="inlineStr">
+        <is>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+        </is>
+      </c>
       <c r="M135" s="26" t="n"/>
       <c r="N135" s="26" t="n"/>
       <c r="O135" s="26" t="n"/>
       <c r="P135" s="26" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1" s="13">
-      <c r="A136" s="22" t="n"/>
-      <c r="B136" s="22" t="n"/>
-      <c r="C136" s="22" t="n"/>
+      <c r="A136" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B136" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C136" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+        </is>
+      </c>
       <c r="D136" s="22" t="n"/>
-      <c r="E136" s="22" t="n"/>
+      <c r="E136" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G136" s="22" t="n"/>
-      <c r="H136" s="16" t="n"/>
+      <c r="H136" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+        </is>
+      </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
-      <c r="L136" s="26" t="n"/>
+      <c r="L136" s="26" t="inlineStr">
+        <is>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+        </is>
+      </c>
       <c r="M136" s="26" t="n"/>
       <c r="N136" s="26" t="n"/>
       <c r="O136" s="26" t="n"/>
       <c r="P136" s="26" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1" s="13">
-      <c r="A137" s="22" t="n"/>
-      <c r="B137" s="22" t="n"/>
-      <c r="C137" s="22" t="n"/>
+      <c r="A137" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B137" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C137" s="22" t="inlineStr">
+        <is>
+          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+        </is>
+      </c>
       <c r="D137" s="22" t="n"/>
-      <c r="E137" s="22" t="n"/>
+      <c r="E137" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="n"/>
+      <c r="H137" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+        </is>
+      </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
-      <c r="L137" s="26" t="n"/>
+      <c r="L137" s="26" t="inlineStr">
+        <is>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+        </is>
+      </c>
       <c r="M137" s="26" t="n"/>
       <c r="N137" s="26" t="n"/>
       <c r="O137" s="26" t="n"/>
       <c r="P137" s="26" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1" s="13">
-      <c r="A138" s="22" t="n"/>
-      <c r="B138" s="22" t="n"/>
-      <c r="C138" s="22" t="n"/>
+      <c r="A138" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B138" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C138" s="22" t="inlineStr">
+        <is>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+        </is>
+      </c>
       <c r="D138" s="22" t="n"/>
-      <c r="E138" s="22" t="n"/>
+      <c r="E138" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="16" t="n"/>
+      <c r="H138" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+        </is>
+      </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
-      <c r="L138" s="26" t="n"/>
+      <c r="L138" s="26" t="inlineStr">
+        <is>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+        </is>
+      </c>
       <c r="M138" s="26" t="n"/>
       <c r="N138" s="26" t="n"/>
       <c r="O138" s="26" t="n"/>
       <c r="P138" s="26" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1" s="13">
-      <c r="A139" s="22" t="n"/>
-      <c r="B139" s="22" t="n"/>
-      <c r="C139" s="22" t="n"/>
+      <c r="A139" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B139" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C139" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+        </is>
+      </c>
       <c r="D139" s="22" t="n"/>
-      <c r="E139" s="22" t="n"/>
+      <c r="E139" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G139" s="22" t="n"/>
-      <c r="H139" s="16" t="n"/>
+      <c r="H139" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+        </is>
+      </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
-      <c r="L139" s="26" t="n"/>
+      <c r="L139" s="26" t="inlineStr">
+        <is>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+        </is>
+      </c>
       <c r="M139" s="26" t="n"/>
       <c r="N139" s="26" t="n"/>
       <c r="O139" s="26" t="n"/>
       <c r="P139" s="26" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1" s="13">
-      <c r="A140" s="22" t="n"/>
-      <c r="B140" s="22" t="n"/>
-      <c r="C140" s="22" t="n"/>
+      <c r="A140" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B140" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C140" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
+        </is>
+      </c>
       <c r="D140" s="22" t="n"/>
-      <c r="E140" s="22" t="n"/>
+      <c r="E140" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G140" s="22" t="n"/>
-      <c r="H140" s="16" t="n"/>
+      <c r="H140" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
-      <c r="L140" s="26" t="n"/>
+      <c r="L140" s="26" t="inlineStr">
+        <is>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+        </is>
+      </c>
       <c r="M140" s="26" t="n"/>
       <c r="N140" s="26" t="n"/>
       <c r="O140" s="26" t="n"/>
       <c r="P140" s="26" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1" s="13">
-      <c r="A141" s="22" t="n"/>
-      <c r="B141" s="22" t="n"/>
-      <c r="C141" s="22" t="n"/>
+      <c r="A141" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B141" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C141" s="22" t="inlineStr">
+        <is>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+        </is>
+      </c>
       <c r="D141" s="22" t="n"/>
-      <c r="E141" s="22" t="n"/>
+      <c r="E141" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G141" s="22" t="n"/>
-      <c r="H141" s="16" t="n"/>
+      <c r="H141" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
-      <c r="L141" s="26" t="n"/>
+      <c r="L141" s="26" t="inlineStr">
+        <is>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+        </is>
+      </c>
       <c r="M141" s="26" t="n"/>
       <c r="N141" s="26" t="n"/>
       <c r="O141" s="26" t="n"/>
       <c r="P141" s="26" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1" s="13">
-      <c r="A142" s="22" t="n"/>
-      <c r="B142" s="22" t="n"/>
-      <c r="C142" s="22" t="n"/>
+      <c r="A142" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B142" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C142" s="22" t="inlineStr">
+        <is>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+        </is>
+      </c>
       <c r="D142" s="22" t="n"/>
-      <c r="E142" s="22" t="n"/>
+      <c r="E142" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G142" s="22" t="n"/>
-      <c r="H142" s="16" t="n"/>
+      <c r="H142" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
-      <c r="L142" s="26" t="n"/>
+      <c r="L142" s="26" t="inlineStr">
+        <is>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+        </is>
+      </c>
       <c r="M142" s="26" t="n"/>
       <c r="N142" s="26" t="n"/>
       <c r="O142" s="26" t="n"/>
       <c r="P142" s="26" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1" s="13">
-      <c r="A143" s="22" t="n"/>
-      <c r="B143" s="22" t="n"/>
-      <c r="C143" s="22" t="n"/>
+      <c r="A143" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B143" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C143" s="22" t="inlineStr">
+        <is>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+        </is>
+      </c>
       <c r="D143" s="22" t="n"/>
-      <c r="E143" s="22" t="n"/>
+      <c r="E143" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G143" s="22" t="n"/>
-      <c r="H143" s="16" t="n"/>
+      <c r="H143" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
-      <c r="L143" s="26" t="n"/>
+      <c r="L143" s="26" t="inlineStr">
+        <is>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+        </is>
+      </c>
       <c r="M143" s="26" t="n"/>
       <c r="N143" s="26" t="n"/>
       <c r="O143" s="26" t="n"/>
       <c r="P143" s="26" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1" s="13">
-      <c r="A144" s="22" t="n"/>
-      <c r="B144" s="22" t="n"/>
-      <c r="C144" s="22" t="n"/>
+      <c r="A144" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C144" s="22" t="inlineStr">
+        <is>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+        </is>
+      </c>
       <c r="D144" s="22" t="n"/>
-      <c r="E144" s="22" t="n"/>
+      <c r="E144" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G144" s="22" t="n"/>
-      <c r="H144" s="16" t="n"/>
+      <c r="H144" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
-      <c r="L144" s="26" t="n"/>
+      <c r="L144" s="26" t="inlineStr">
+        <is>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+        </is>
+      </c>
       <c r="M144" s="26" t="n"/>
       <c r="N144" s="26" t="n"/>
       <c r="O144" s="26" t="n"/>
       <c r="P144" s="26" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1" s="13">
-      <c r="A145" s="22" t="n"/>
-      <c r="B145" s="22" t="n"/>
-      <c r="C145" s="22" t="n"/>
+      <c r="A145" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C145" s="22" t="inlineStr">
+        <is>
+          <t>Establish an automated process for key and certificate rotation.</t>
+        </is>
+      </c>
       <c r="D145" s="22" t="n"/>
-      <c r="E145" s="22" t="n"/>
+      <c r="E145" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G145" s="22" t="n"/>
-      <c r="H145" s="16" t="n"/>
+      <c r="H145" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
-      <c r="L145" s="26" t="n"/>
+      <c r="L145" s="26" t="inlineStr">
+        <is>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+        </is>
+      </c>
       <c r="M145" s="26" t="n"/>
       <c r="N145" s="26" t="n"/>
       <c r="O145" s="26" t="n"/>
       <c r="P145" s="26" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1" s="13">
-      <c r="A146" s="22" t="n"/>
-      <c r="B146" s="22" t="n"/>
-      <c r="C146" s="22" t="n"/>
+      <c r="A146" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C146" s="22" t="inlineStr">
+        <is>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+        </is>
+      </c>
       <c r="D146" s="22" t="n"/>
-      <c r="E146" s="22" t="n"/>
+      <c r="E146" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G146" s="22" t="n"/>
-      <c r="H146" s="16" t="n"/>
+      <c r="H146" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
-      <c r="L146" s="26" t="n"/>
+      <c r="L146" s="26" t="inlineStr">
+        <is>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+        </is>
+      </c>
       <c r="M146" s="26" t="n"/>
       <c r="N146" s="26" t="n"/>
       <c r="O146" s="26" t="n"/>
       <c r="P146" s="26" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1" s="13">
-      <c r="A147" s="22" t="n"/>
-      <c r="B147" s="22" t="n"/>
-      <c r="C147" s="22" t="n"/>
+      <c r="A147" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C147" s="22" t="inlineStr">
+        <is>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+        </is>
+      </c>
       <c r="D147" s="22" t="n"/>
-      <c r="E147" s="22" t="n"/>
+      <c r="E147" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G147" s="22" t="n"/>
-      <c r="H147" s="16" t="n"/>
+      <c r="H147" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+        </is>
+      </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
-      <c r="L147" s="26" t="n"/>
+      <c r="L147" s="26" t="inlineStr">
+        <is>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+        </is>
+      </c>
       <c r="M147" s="26" t="n"/>
       <c r="N147" s="26" t="n"/>
       <c r="O147" s="26" t="n"/>
       <c r="P147" s="26" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1" s="13">
-      <c r="A148" s="22" t="n"/>
-      <c r="B148" s="22" t="n"/>
-      <c r="C148" s="22" t="n"/>
+      <c r="A148" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C148" s="22" t="inlineStr">
+        <is>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+        </is>
+      </c>
       <c r="D148" s="22" t="n"/>
-      <c r="E148" s="22" t="n"/>
+      <c r="E148" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G148" s="22" t="n"/>
-      <c r="H148" s="16" t="n"/>
+      <c r="H148" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
-      <c r="L148" s="26" t="n"/>
+      <c r="L148" s="26" t="inlineStr">
+        <is>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+        </is>
+      </c>
       <c r="M148" s="26" t="n"/>
       <c r="N148" s="26" t="n"/>
       <c r="O148" s="26" t="n"/>
       <c r="P148" s="26" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1" s="13">
-      <c r="A149" s="22" t="n"/>
-      <c r="B149" s="22" t="n"/>
-      <c r="C149" s="22" t="n"/>
+      <c r="A149" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C149" s="22" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D149" s="22" t="n"/>
-      <c r="E149" s="22" t="n"/>
+      <c r="E149" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G149" s="22" t="n"/>
-      <c r="H149" s="16" t="n"/>
+      <c r="H149" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+        </is>
+      </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
-      <c r="L149" s="26" t="n"/>
+      <c r="L149" s="26" t="inlineStr">
+        <is>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+        </is>
+      </c>
       <c r="M149" s="26" t="n"/>
       <c r="N149" s="26" t="n"/>
       <c r="O149" s="26" t="n"/>
       <c r="P149" s="26" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1" s="13">
-      <c r="A150" s="22" t="n"/>
-      <c r="B150" s="22" t="n"/>
-      <c r="C150" s="22" t="n"/>
+      <c r="A150" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C150" s="22" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D150" s="22" t="n"/>
-      <c r="E150" s="22" t="n"/>
+      <c r="E150" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G150" s="22" t="n"/>
-      <c r="H150" s="16" t="n"/>
+      <c r="H150" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
-      <c r="L150" s="26" t="n"/>
+      <c r="L150" s="26" t="inlineStr">
+        <is>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+        </is>
+      </c>
       <c r="M150" s="26" t="n"/>
       <c r="N150" s="26" t="n"/>
       <c r="O150" s="26" t="n"/>
       <c r="P150" s="26" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1" s="13">
-      <c r="A151" s="22" t="n"/>
-      <c r="B151" s="22" t="n"/>
-      <c r="C151" s="22" t="n"/>
+      <c r="A151" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C151" s="22" t="inlineStr">
+        <is>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+        </is>
+      </c>
       <c r="D151" s="22" t="n"/>
-      <c r="E151" s="22" t="n"/>
+      <c r="E151" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G151" s="22" t="n"/>
-      <c r="H151" s="16" t="n"/>
+      <c r="H151" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
-      <c r="L151" s="26" t="n"/>
+      <c r="L151" s="26" t="inlineStr">
+        <is>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+        </is>
+      </c>
       <c r="M151" s="26" t="n"/>
       <c r="N151" s="26" t="n"/>
       <c r="O151" s="26" t="n"/>
       <c r="P151" s="26" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1" s="13">
-      <c r="A152" s="22" t="n"/>
-      <c r="B152" s="22" t="n"/>
-      <c r="C152" s="22" t="n"/>
+      <c r="A152" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C152" s="22" t="inlineStr">
+        <is>
+          <t>Leverage Azure Policy</t>
+        </is>
+      </c>
       <c r="D152" s="22" t="n"/>
-      <c r="E152" s="22" t="n"/>
+      <c r="E152" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G152" s="22" t="n"/>
-      <c r="H152" s="16" t="n"/>
+      <c r="H152" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
-      <c r="L152" s="26" t="n"/>
+      <c r="L152" s="26" t="inlineStr">
+        <is>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+        </is>
+      </c>
       <c r="M152" s="26" t="n"/>
       <c r="N152" s="26" t="n"/>
       <c r="O152" s="26" t="n"/>
       <c r="P152" s="26" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1" s="13">
-      <c r="A153" s="22" t="n"/>
-      <c r="B153" s="22" t="n"/>
-      <c r="C153" s="22" t="n"/>
+      <c r="A153" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C153" s="22" t="inlineStr">
+        <is>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+        </is>
+      </c>
       <c r="D153" s="22" t="n"/>
-      <c r="E153" s="22" t="n"/>
+      <c r="E153" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G153" s="22" t="n"/>
-      <c r="H153" s="16" t="n"/>
+      <c r="H153" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+        </is>
+      </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
-      <c r="L153" s="26" t="n"/>
+      <c r="L153" s="26" t="inlineStr">
+        <is>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+        </is>
+      </c>
       <c r="M153" s="26" t="n"/>
       <c r="N153" s="26" t="n"/>
       <c r="O153" s="26" t="n"/>
       <c r="P153" s="26" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1" s="13">
-      <c r="A154" s="22" t="n"/>
-      <c r="B154" s="22" t="n"/>
-      <c r="C154" s="22" t="n"/>
+      <c r="A154" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C154" s="22" t="inlineStr">
+        <is>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+        </is>
+      </c>
       <c r="D154" s="22" t="n"/>
-      <c r="E154" s="22" t="n"/>
+      <c r="E154" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G154" s="22" t="n"/>
-      <c r="H154" s="16" t="n"/>
+      <c r="H154" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
-      <c r="L154" s="26" t="n"/>
+      <c r="L154" s="26" t="inlineStr">
+        <is>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+        </is>
+      </c>
       <c r="M154" s="26" t="n"/>
       <c r="N154" s="26" t="n"/>
       <c r="O154" s="26" t="n"/>
       <c r="P154" s="26" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1" s="13">
-      <c r="A155" s="22" t="n"/>
-      <c r="B155" s="22" t="n"/>
-      <c r="C155" s="22" t="n"/>
+      <c r="A155" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C155" s="22" t="inlineStr">
+        <is>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+        </is>
+      </c>
       <c r="D155" s="22" t="n"/>
-      <c r="E155" s="22" t="n"/>
+      <c r="E155" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G155" s="22" t="n"/>
-      <c r="H155" s="16" t="n"/>
+      <c r="H155" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
-      <c r="L155" s="26" t="n"/>
+      <c r="L155" s="26" t="inlineStr">
+        <is>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+        </is>
+      </c>
       <c r="M155" s="26" t="n"/>
       <c r="N155" s="26" t="n"/>
       <c r="O155" s="26" t="n"/>
       <c r="P155" s="26" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1" s="13">
-      <c r="A156" s="22" t="n"/>
-      <c r="B156" s="22" t="n"/>
-      <c r="C156" s="22" t="n"/>
+      <c r="A156" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C156" s="22" t="inlineStr">
+        <is>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+        </is>
+      </c>
       <c r="D156" s="22" t="n"/>
-      <c r="E156" s="22" t="n"/>
+      <c r="E156" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G156" s="22" t="n"/>
-      <c r="H156" s="16" t="n"/>
+      <c r="H156" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
-      <c r="L156" s="26" t="n"/>
+      <c r="L156" s="26" t="inlineStr">
+        <is>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+        </is>
+      </c>
       <c r="M156" s="26" t="n"/>
       <c r="N156" s="26" t="n"/>
       <c r="O156" s="26" t="n"/>
       <c r="P156" s="26" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1" s="13">
-      <c r="A157" s="22" t="n"/>
-      <c r="B157" s="22" t="n"/>
-      <c r="C157" s="22" t="n"/>
+      <c r="A157" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C157" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+        </is>
+      </c>
       <c r="D157" s="22" t="n"/>
-      <c r="E157" s="22" t="n"/>
+      <c r="E157" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G157" s="22" t="n"/>
-      <c r="H157" s="16" t="n"/>
+      <c r="H157" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
-      <c r="L157" s="26" t="n"/>
+      <c r="L157" s="26" t="inlineStr">
+        <is>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
+        </is>
+      </c>
       <c r="M157" s="26" t="n"/>
       <c r="N157" s="26" t="n"/>
       <c r="O157" s="26" t="n"/>
       <c r="P157" s="26" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1" s="13">
-      <c r="A158" s="22" t="n"/>
-      <c r="B158" s="22" t="n"/>
-      <c r="C158" s="22" t="n"/>
+      <c r="A158" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C158" s="22" t="inlineStr">
+        <is>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
+        </is>
+      </c>
       <c r="D158" s="22" t="n"/>
-      <c r="E158" s="22" t="n"/>
+      <c r="E158" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G158" s="22" t="n"/>
-      <c r="H158" s="16" t="n"/>
+      <c r="H158" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
-      <c r="L158" s="26" t="n"/>
+      <c r="L158" s="26" t="inlineStr">
+        <is>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+        </is>
+      </c>
       <c r="M158" s="26" t="n"/>
       <c r="N158" s="26" t="n"/>
       <c r="O158" s="26" t="n"/>
       <c r="P158" s="26" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1" s="13">
-      <c r="A159" s="22" t="n"/>
-      <c r="B159" s="22" t="n"/>
-      <c r="C159" s="22" t="n"/>
+      <c r="A159" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B159" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C159" s="22" t="inlineStr">
+        <is>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
       <c r="D159" s="22" t="n"/>
-      <c r="E159" s="22" t="n"/>
+      <c r="E159" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G159" s="22" t="n"/>
-      <c r="H159" s="16" t="n"/>
+      <c r="H159" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
-      <c r="L159" s="26" t="n"/>
+      <c r="L159" s="26" t="inlineStr">
+        <is>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+        </is>
+      </c>
       <c r="M159" s="26" t="n"/>
       <c r="N159" s="26" t="n"/>
       <c r="O159" s="26" t="n"/>
       <c r="P159" s="26" t="n"/>
     </row>
     <row r="160" ht="16.5" customHeight="1" s="13">
-      <c r="A160" s="22" t="n"/>
-      <c r="B160" s="22" t="n"/>
-      <c r="C160" s="22" t="n"/>
+      <c r="A160" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B160" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C160" s="22" t="inlineStr">
+        <is>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+        </is>
+      </c>
       <c r="D160" s="22" t="n"/>
-      <c r="E160" s="22" t="n"/>
+      <c r="E160" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G160" s="22" t="n"/>
-      <c r="H160" s="16" t="n"/>
+      <c r="H160" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
-      <c r="L160" s="26" t="n"/>
+      <c r="L160" s="26" t="inlineStr">
+        <is>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+        </is>
+      </c>
       <c r="M160" s="26" t="n"/>
       <c r="N160" s="26" t="n"/>
       <c r="O160" s="26" t="n"/>
       <c r="P160" s="26" t="n"/>
     </row>
     <row r="161" ht="16.5" customHeight="1" s="13">
-      <c r="A161" s="22" t="n"/>
-      <c r="B161" s="22" t="n"/>
-      <c r="C161" s="22" t="n"/>
+      <c r="A161" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B161" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C161" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+        </is>
+      </c>
       <c r="D161" s="22" t="n"/>
-      <c r="E161" s="22" t="n"/>
+      <c r="E161" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G161" s="22" t="n"/>
-      <c r="H161" s="16" t="n"/>
+      <c r="H161" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+        </is>
+      </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
-      <c r="L161" s="26" t="n"/>
+      <c r="L161" s="26" t="inlineStr">
+        <is>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+        </is>
+      </c>
       <c r="M161" s="26" t="n"/>
       <c r="N161" s="26" t="n"/>
       <c r="O161" s="26" t="n"/>
       <c r="P161" s="26" t="n"/>
     </row>
     <row r="162" ht="16.5" customHeight="1" s="13">
-      <c r="A162" s="22" t="n"/>
-      <c r="B162" s="22" t="n"/>
-      <c r="C162" s="22" t="n"/>
+      <c r="A162" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B162" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C162" s="22" t="inlineStr">
+        <is>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
       <c r="D162" s="22" t="n"/>
-      <c r="E162" s="22" t="n"/>
+      <c r="E162" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G162" s="22" t="n"/>
-      <c r="H162" s="16" t="n"/>
+      <c r="H162" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+        </is>
+      </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
-      <c r="L162" s="26" t="n"/>
+      <c r="L162" s="26" t="inlineStr">
+        <is>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+        </is>
+      </c>
       <c r="M162" s="26" t="n"/>
       <c r="N162" s="26" t="n"/>
       <c r="O162" s="26" t="n"/>
       <c r="P162" s="26" t="n"/>
     </row>
     <row r="163" ht="16.5" customHeight="1" s="13">
-      <c r="A163" s="22" t="n"/>
-      <c r="B163" s="22" t="n"/>
-      <c r="C163" s="22" t="n"/>
+      <c r="A163" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B163" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C163" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+        </is>
+      </c>
       <c r="D163" s="22" t="n"/>
-      <c r="E163" s="22" t="n"/>
+      <c r="E163" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G163" s="22" t="n"/>
-      <c r="H163" s="16" t="n"/>
+      <c r="H163" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
-      <c r="L163" s="26" t="n"/>
+      <c r="L163" s="26" t="inlineStr">
+        <is>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+        </is>
+      </c>
       <c r="M163" s="26" t="n"/>
       <c r="N163" s="26" t="n"/>
       <c r="O163" s="26" t="n"/>
       <c r="P163" s="26" t="n"/>
     </row>
     <row r="164" ht="16.5" customHeight="1" s="13">
-      <c r="A164" s="22" t="n"/>
-      <c r="B164" s="22" t="n"/>
-      <c r="C164" s="22" t="n"/>
+      <c r="A164" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B164" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C164" s="22" t="inlineStr">
+        <is>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+        </is>
+      </c>
       <c r="D164" s="22" t="n"/>
-      <c r="E164" s="22" t="n"/>
+      <c r="E164" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G164" s="22" t="n"/>
-      <c r="H164" s="16" t="n"/>
+      <c r="H164" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
-      <c r="L164" s="26" t="n"/>
+      <c r="L164" s="26" t="inlineStr">
+        <is>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+        </is>
+      </c>
       <c r="M164" s="26" t="n"/>
       <c r="N164" s="26" t="n"/>
       <c r="O164" s="26" t="n"/>
       <c r="P164" s="26" t="n"/>
     </row>
     <row r="165" ht="16.5" customHeight="1" s="13">
-      <c r="A165" s="22" t="n"/>
-      <c r="B165" s="22" t="n"/>
-      <c r="C165" s="22" t="n"/>
+      <c r="A165" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B165" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C165" s="22" t="inlineStr">
+        <is>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+        </is>
+      </c>
       <c r="D165" s="22" t="n"/>
-      <c r="E165" s="22" t="n"/>
+      <c r="E165" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="16" t="n"/>
+      <c r="H165" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
-      <c r="L165" s="26" t="n"/>
+      <c r="L165" s="26" t="inlineStr">
+        <is>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+        </is>
+      </c>
       <c r="M165" s="26" t="n"/>
       <c r="N165" s="26" t="n"/>
       <c r="O165" s="26" t="n"/>
       <c r="P165" s="26" t="n"/>
     </row>
     <row r="166" ht="16.5" customHeight="1" s="13">
-      <c r="A166" s="22" t="n"/>
-      <c r="B166" s="22" t="n"/>
-      <c r="C166" s="22" t="n"/>
+      <c r="A166" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B166" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C166" s="22" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D166" s="22" t="n"/>
-      <c r="E166" s="22" t="n"/>
+      <c r="E166" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="16" t="n"/>
+      <c r="H166" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
-      <c r="L166" s="26" t="n"/>
+      <c r="L166" s="26" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M166" s="26" t="n"/>
       <c r="N166" s="26" t="n"/>
       <c r="O166" s="26" t="n"/>
       <c r="P166" s="26" t="n"/>
     </row>
     <row r="167" ht="16.5" customHeight="1" s="13">
-      <c r="A167" s="22" t="n"/>
-      <c r="B167" s="22" t="n"/>
-      <c r="C167" s="22" t="n"/>
+      <c r="A167" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B167" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C167" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D167" s="22" t="n"/>
-      <c r="E167" s="22" t="n"/>
+      <c r="E167" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="16" t="n"/>
+      <c r="H167" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
-      <c r="L167" s="26" t="n"/>
+      <c r="L167" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M167" s="26" t="n"/>
       <c r="N167" s="26" t="n"/>
       <c r="O167" s="26" t="n"/>
       <c r="P167" s="26" t="n"/>
     </row>
     <row r="168" ht="16.5" customHeight="1" s="13">
-      <c r="A168" s="22" t="n"/>
-      <c r="B168" s="22" t="n"/>
-      <c r="C168" s="22" t="n"/>
+      <c r="A168" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B168" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C168" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D168" s="22" t="n"/>
-      <c r="E168" s="22" t="n"/>
+      <c r="E168" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="16" t="n"/>
+      <c r="H168" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
-      <c r="L168" s="26" t="n"/>
+      <c r="L168" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M168" s="26" t="n"/>
       <c r="N168" s="26" t="n"/>
       <c r="O168" s="26" t="n"/>
       <c r="P168" s="26" t="n"/>
     </row>
     <row r="169" ht="16.5" customHeight="1" s="13">
-      <c r="A169" s="22" t="n"/>
-      <c r="B169" s="22" t="n"/>
-      <c r="C169" s="22" t="n"/>
+      <c r="A169" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B169" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C169" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D169" s="22" t="n"/>
-      <c r="E169" s="22" t="n"/>
+      <c r="E169" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G169" s="22" t="n"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
-      <c r="L169" s="26" t="n"/>
+      <c r="L169" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M169" s="26" t="n"/>
       <c r="N169" s="26" t="n"/>
       <c r="O169" s="26" t="n"/>
       <c r="P169" s="26" t="n"/>
     </row>
     <row r="170" ht="16.5" customHeight="1" s="13">
-      <c r="A170" s="22" t="n"/>
-      <c r="B170" s="22" t="n"/>
-      <c r="C170" s="22" t="n"/>
+      <c r="A170" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B170" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C170" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D170" s="22" t="n"/>
-      <c r="E170" s="22" t="n"/>
+      <c r="E170" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G170" s="22" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
-      <c r="L170" s="26" t="n"/>
+      <c r="L170" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M170" s="26" t="n"/>
       <c r="N170" s="26" t="n"/>
       <c r="O170" s="26" t="n"/>
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
@@ -9522,7 +11090,25 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="7">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/avd_checklist.pt.xlsx
+++ b/spreadsheet/avd_checklist.pt.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Análise de desktop virtual do Azure</t>
+          <t>Azure Virtual Desktop Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,22 +1095,22 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Determine em que as piscinas de host avd da região do Azure/do Azure serão implantadas</t>
+          <t>Determinar o SLA de alta disponibilidade esperado para aplicativos/desktops publicados por meio do AVD</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O AVD é um serviço não regional, os Grupos de Host podem ser criados em qualquer região, o redirecionamento automático do front-end mais próximo acontecerá automaticamente. </t>
+          <t xml:space="preserve">O plano de controle AVD não oferece um contrato de nível de serviço com suporte financeiro. Nós nos esforçamos para obter pelo menos 99,9% de disponibilidade para as URLs de serviço de Área de Trabalho Virtual do Windows. A disponibilidade das máquinas virtuais do host de sessão em sua assinatura é coberta pelo SLA de Máquinas Virtuais. Recursos/serviços dependentes e disponibilidade de infraestrutura também devem ser considerados para satisfazer adequadamente os requisitos globais de alta disponibilidade. </t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,22 +1145,22 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Determine se a conectividade híbrida é necessária para se conectar ao ambiente local</t>
+          <t>Avaliar a região de recuperação de desastres geográficos para pools de hosts AVD</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se necessário para se conectar ao ambiente local, avalie a opção de conectividade atual ou planeje a conectividade necessária. </t>
+          <t>O modelo Active-Active' pode ser alcançado com vários pools de hosts em diferentes regiões. Um único Pool de Hosts com VMs de diferentes regiões não é recomendado. Se vários pools para os mesmos usuários forem usados, o problema de como sincronizar/replicar perfis de usuário deverá ser resolvido. O FSLogix Cloud Cache pode ser usado, mas precisa ser cuidadosamente revisado e planejado, ou os clientes podem decidir não sincronizar/replicar. 'Ativo-Passivo' pode ser alcançado usando o Azure Site Recovery (ASR) ou a implantação de Pool sob demanda com mecanismo automatizado.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,27 +1195,27 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Você avaliou a latência entre a localização dos usuários e a infraestrutura avd do Azure?</t>
+          <t>Separe aplicativos críticos em diferentes pools de hosts AVD</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Execute a ferramenta 'Windows Virtual Desktop Experience Estimator' para selecionar a melhor região do Azure para implantar Host Pools. Além da latência de 150m, a experiência do usuário pode não ser a ideal. </t>
+          <t>Antes de abordar o planejamento e o design do BCDR da Área de Trabalho Virtual do Windows, é importante considerar inicialmente quais aplicativos são consumidos por meio do AVD são críticos. Talvez você queira separá-los de aplicativos não críticos e usar um Pool de Hosts separado com uma abordagem e recursos de recuperação de desastres diferentes.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,27 +1245,27 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Determine a localização dos metadados para o serviço AVD</t>
+          <t>Planejar a melhor opção de resiliência para a implantação do Pool de Hosts AVD</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os metadados da loja AVD apenas para executar o serviço em locais geográficos específicos, determinar o que está disponível hoje e se for adequado com base nas necessidades do cliente. </t>
+          <t xml:space="preserve">? Você selecionou o nível de resiliência adequado para suas VMs de Pool de Hosts (Conjunto de Disponibilidade vs. Zonas de Disponibilidade)?? Você está ciente das implicações no SLA de HA e nos limites de escalabilidade que acompanham o AS ou o AZ? Atualmente, você pode implantar 399 VMs por implantação de modelo ARM da Área de Trabalho Virtual do Windows sem Conjuntos de Disponibilidade ou 200 VMs por Conjunto de Disponibilidade.? Você pode aumentar o número de VMs por implantação desativando os Conjuntos de Disponibilidade no modelo ARM ou no registro do pool de hosts do portal do Azure. A implantação do AZ agora é possível, um AZ de cada vez no momento, precisa criar manualmente uma fração de VMs em cada AZ desejada. </t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,27 +1295,27 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Verifique as cotas do Azure e a disponibilidade para tamanhos de VM específicos nas regiões selecionadas</t>
+          <t>Avaliar o requisito para fazer backup de hosts de sessão AVD</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique se há SKUs VM específicos, especialmente se você precisa de GPU ou SKUs de alta especificação e, eventualmente, disponibilidade de arquivos do Azure NetApp, se usado. </t>
+          <t xml:space="preserve">O Backup do Azure também pode ser usado para proteger VMs de Pool de Hosts, essa prática é suportada, mesmo que as VMs de Pool de Hosts devam ser sem monitoração de estado. Essa opção pode ser considerada para Pools de Host Pessoais. </t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1326,7 +1326,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,27 +1345,27 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Dependências</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Verifique a disponibilidade da Zona de Disponibilidade (AZ) na região selecionada</t>
+          <t>Planejar a disponibilidade da Golden Image em várias regiões</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>Consulte a seção BCDR para obter mais detalhes.</t>
+          <t>Se imagens personalizadas forem usadas para implantar VMs do Pool de Hosts do AVD, é importante garantir que esses artefatos estejam disponíveis em todas as regiões, mesmo que em caso de um grande desastre. O serviço Galeria de Computação do Azure pode ser usado para replicar imagens em todas as regiões onde um Pool de Hosts é implantado, com armazenamento redundante e em várias cópias.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1376,7 +1376,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,22 +1395,22 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Dependências</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Avalie quantos usuários se conectarão ao AVD e de quais regiões</t>
+          <t xml:space="preserve">Avalie as dependências de infraestrutura e aplicativos </t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para o planejamento e implantação adequados, é importante fazer o máximo número de usuários e as sessões simultâneas médias. </t>
+          <t>Se os usuários da infraestrutura AVD precisarem de acesso a recursos locais, a alta disponibilidade da infraestrutura de rede necessária para se conectar também é crítica e deve ser considerada. A resiliência da infraestrutura de autenticação precisa ser avaliada e avaliada. Os aspectos do BCDR para aplicativos dependentes e outros recursos precisam ser considerados para garantir a disponibilidade no local de DR secundário.</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1445,22 +1445,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Determine se todos os usuários terão o mesmo conjunto de aplicativos e/ou diferentes configurações do Host Pool e/ou imagens do SISTEMA OPERACIONAL</t>
+          <t>Avaliar quais dados precisam ser protegidos dentro dos contêineres de perfil e do Office</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mutiple Host Pools talvez necessário para suportar diferentes conjuntos de usuários, é recomendável estimar quantos serão necessários. </t>
+          <t xml:space="preserve">Nem todos os dados dentro dos perfis de usuário do FSLogix podem merecer proteção contra desastres. Além disso, se o armazenamento externo for usado, por exemplo, OneDrive ou Servidores/Compartilhamentos de Arquivos, o que resta no perfil FSLogix é mínimo e pode ser perdido em algumas circunstâncias extremas. Em outros casos, os dados dentro do perfil podem ser recriados a partir de outros armazenamentos (por exemplo, a Caixa de Entrada do Outlook no modo em cache). </t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1476,7 +1476,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1495,27 +1495,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Avalie as dependências externas de cada Pool de Host</t>
+          <t>Criar uma estratégia de proteção de backup para contêineres de perfil e do Office</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>As dependências de recursos externos ao pool AVD devem ser avaliadas e revisadas, por exemplo, Active Directory, compartilhamentos externos de arquivos ou outros armazenamentos, serviços e recursos no local, componentes de infraestrutura de rede como VPN e ou Express Route, serviços externos e componentes de terceiros. Para todos esses recursos, a latência do Pool de Host AVD precisa ser avaliada e a conectividade considerada. Além disso, as considerações do BCDR também precisam ser aplicadas a essas dependências.</t>
+          <t>Evitar a perda de dados para dados críticos do usuário é importante, o primeiro passo é avaliar quais dados precisam ser salvos e protegidos. Se estiver usando o OneDrive ou outro armazenamento externo, talvez não seja necessário salvar dados de Perfil de usuário e/ou Contêineres do Office. Deve ser considerado um mecanismo adequado para fornecer proteção aos dados críticos do usuário. O serviço de Backup do Azure pode ser usado para proteger os dados de Perfil e Contêineres do Office quando armazenados nas camadas Padrão e Premium do Azure Files. Os Instantâneos e Políticas de Arquivos NetApp do Azure podem ser usados para Arquivos NetApp do Azure (todas as camadas).</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,22 +1545,22 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Revise o sistema operacional usado do cliente e o tipo de cliente AVD</t>
+          <t>Avaliar os requisitos de replicação e resiliência do armazenamento de contêiner de perfil para fins de BCDR</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Revise as limitações de cada cliente e compare várias opções quando possível.</t>
+          <t>No AVD, vários mecanismos e estratégias de replicação podem ser usados para dados do usuário que residem em contêineres FSLogix:? Padrão de Perfil #1: Mecanismos nativos de replicação de armazenamento do Azure, por exemplo, replicação GRS do Azure Files Standard, Replicação entre Regiões de Arquivos NetApp do Azure ou Sincronização de Arquivos do Azure para servidores de arquivos baseados em VM? É recomendável usar o ZRS (Armazenamento Replicado de Zona) ou o GRS (Armazenamento Replicado Geo) para Arquivos do Azure.Use Zone Replicated Storage (ZRS) or Geo replicated storage (GRS) for Azure Files é recomendado.? O LRS com resiliência apenas local pode ser usado se nenhuma proteção de zona/região for necessária.? NOTA: O Padrão de Compartilhamento de Arquivos do Azure é LRS/ZRS/GRS, mas com suporte grande de 100 TB habilitado, somente o LRS/ZRS é suportado. ? Padrão de perfil #2: O FSLogix Cloud Cache é criado em mecanismo automático para replicar contêineres entre diferentes (até 4) contas de armazenamento. O Cloud Cache deve ser usado somente quando:? A disponibilidade de dados de perfis de usuário ou contêineres do Office exigida SLA de alta disponibilidade é crítica e precisa ser resiliente a falhas na região.? A opção de armazenamento selecionada não é capaz de atender aos requisitos de BCDR. Por exemplo, com a camada Premium do Compartilhamento de Arquivos do Azure ou o Padrão de Compartilhamento de Arquivos do Azure com Suporte a Arquivos Grandes habilitado, o GRS não está disponível.? Quando a replicação entre armazenamentos diferentes é necessária.? Padrão de perfil #3: Configure apenas a recuperação de desastres geográficos para dados de aplicativos e não para contêineres de dados/perfis de usuários: armazene dados importantes de aplicativos em armazenamentos separados, como o OneDrive ou outro armazenamento externo com seu próprio mecanismo de DR interno.</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,27 +1595,27 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Verifique os requisitos de licenciamento</t>
+          <t>Revise a estratégia de DR do Azure NetApp Files</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Os clientes que estão devidamente licenciados para executar cargas de trabalho do Windows Virtual Desktop são elegíveis para aplicar uma licença do Windows em suas máquinas virtuais de host de sessão e executá-las sem pagar por outra licença.</t>
+          <t>Geo Disaster Recovery: O Azure NetApp Files é essencialmente LRS (armazenamento replicado localmente), então você precisa arquitetar algo mais se quiser replicação entre regiões. A recomendação para várias regiões no momento é o NetApp Cloud Sync, replicando para outra região do Azure (e NetApp Volume). Backup: Os backups são tratados por instantâneos, mas não são automáticos, precisam ser agendados usando políticas. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Há um limite máximo de instantâneos (255) por volume, conforme documentado aqui: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1645,27 +1645,27 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Execute um PoC para testar a experiência do usuário de ponta a ponta para verificar o impacto causado pela latência da rede</t>
+          <t>Revise a estratégia de DR do Azure Files</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dependendo das localizações do usuário e da implantação da região AVD, os usuários podem ter uma experiência não ideal, por isso é importante testar o mais rápido possível em um pequeno ambiente PoC. </t>
+          <t>Recuperação de desastres geográficos: o GRS para Arquivos do Azure só está disponível com SKU padrão e sem suporte a compartilhamento grande, não sendo adequado na maioria dos cenários de clientes. Se a replicação geográfica for necessária, ao usar o Azure File Share Premium, a replicação com o FSLogix Cloud Cache deve ser avaliada ou a resiliência somente da Zona de Disponibilidade (AZ) 'na região' deve ser considerada. Backup: o Backup do Azure dá suporte total ao Compartilhamento de Arquivos do Azure em todas as SKUs e é a solução recomendada para proteger os Contêineres de Perfil. Se estiver usando o OneDrive ou outro armazenamento externo, talvez não seja necessário salvar dados de Perfil de usuário e/ou Contêineres do Office.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1695,27 +1695,27 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine se os usuários acessarão o AVD usando desktops completos e/ou aplicativos remotos </t>
+          <t>Determinar como os aplicativos serão implantados nos pools de hosts do AVD</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine se os usuários serão oferecidos desktops completos e/ou grupos de aplicativos remotos. </t>
+          <t>Os aplicativos podem ser pré-instalados na(s) imagem(ns) dourada(s), podem ser anexados usando o recurso MSIX &amp; AppAttach ou distribuindo para hosts após a implantação do pool usando métodos tradicionais de distribuição de SW.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1726,7 +1726,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,27 +1745,27 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Todos os usuários terão as mesmas configurações de RDP? </t>
+          <t>Estimar o número de imagens douradas que serão necessárias</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>As configurações de RDP atualmente só podem ser configuradas no nível do pool host, não por usuário/grupo.</t>
+          <t>Eles usarão mascaramento de aplicativos fslogix, que se prestariam a uma única imagem, ou várias imagens com diferentes aplicativos embutidos: o que é necessário mais de uma imagem para ser usada?</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,22 +1795,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Avalie o RDP ShortPath para clientes conectados a partir de redes internas gerenciadas</t>
+          <t>Determine qual(is) imagem(ns) do sistema operacional você usará para a implantação do Pool de Hosts</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>RdP Shortpath para redes gerenciadas é um recurso do Azure Virtual Desktop que estabelece um transporte direto baseado em UDP entre o cliente de desktop remoto e o host Session. A remoção do relé extra reduz o tempo de ida e volta, o que melhora a experiência do usuário com aplicativos sensíveis à latência e métodos de entrada. Para suportar o RDP Shortpath, o cliente do Azure Virtual Desktop precisa de uma linha de visão direta para o host da sessão, e deve estar executando o Windows 10 ou o Windows 7 e ter o cliente do Windows Desktop instalado.</t>
+          <t>Determine qual sistema operacional convidado será usado para implantar cada Pool de Hosts: Windows 10 versus Windows Server, Marketplace versus Imagens personalizadas</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1826,7 +1826,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,27 +1845,27 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Determine o tipo de pool host a ser usado</t>
+          <t>Se uma imagem personalizada for usada, determine se há um processo de compilação automatizado?</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Compartilhado/Pooled ou Dedicado/Pessoal</t>
+          <t xml:space="preserve">Se não houver nada, considere usar o Construtor de Imagens do Azure para automatizar o processo de compilação. </t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1876,7 +1876,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46e-a5b8-6ad88844ce3b2</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1895,27 +1895,27 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Para o tipo de pool de host pessoal, decida sobre o tipo de atribuição</t>
+          <t>Se uma imagem personalizada for usada, existe um plano para organizar e gerenciar o ciclo de vida de suas imagens?</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Confirme que a diferença entre atribuição automática e direta é bem compreendida e a opção selecionada é apropriada para o cenário em questão.</t>
+          <t>Avalie a Galeria de Computação do Azure.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1926,7 +1926,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1945,22 +1945,22 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Para o tipo pool pooled host pool, decida sobre o método de balanceamento de carga</t>
+          <t>Se a imagem personalizada for usada, verifique as práticas recomendadas para AVD sobre como criar uma imagem mestra</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique quais usar e opções disponíveis, esteja ciente de que, se o autoscalamento for usado, ele define-o como primeiro. </t>
+          <t xml:space="preserve">Existem algumas práticas recomendadas conhecidas e recomendações para a personalização da imagem dourada, certifique-se de verificar o artigo referenciado. </t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1976,7 +1976,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1995,27 +1995,27 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estime o número de diferentes pools de host para implantar </t>
+          <t>Avaliar o uso do Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Com base em seus critérios de seleção, quantos Pools de Hospedagem você precisaria? Você deve considerar ter vários se:? Várias imagens do SISTEMA OPERACIONAL? Várias regiões? HW diferente necessário? Tipo de pool de host diferente (compartilhado vs. pessoal)? Diferentes requisitos de usuário e SLA (Principais usuários, Executivos, Office Worker vs. Developers, etc.)? Diferentes configurações rdp (aplicadas no nível do Host Pool), veja https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número necessário de VMs no pool de host excedendo capacidades máximas</t>
+          <t xml:space="preserve">Este conjunto de ferramentas foi criado para aplicar automaticamente a configuração referenciada no white paper 'Otimizando o Windows 10, versão 2004 para uma função de VDI (Virtual Desktop Infrastructure)': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. O uso da ferramenta e/ou otimizações mencionadas no white-paper devem ser considerados. </t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2026,7 +2026,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2045,27 +2045,27 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Execute o teste de desempenho da carga de trabalho para determinar o melhor Azure VM SKU e tamanho a usar (determine o número de hosts por pool)</t>
+          <t>Planejar/avaliar a estratégia de gerenciamento de configuração do AVD Session Host</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Use o link fornecido para definir um ponto de partida para a decisão do SKU e, em seguida, valide usando um teste de desempenho. Certifique-se de que um mínimo de 4 núcleos para produção seja selecionado por Host de Sessão (multi-sessão)</t>
+          <t>Determine se uma ferramenta de gerenciamento de configuração já está em vigor para gerenciar a configuração da VM do Pool de Hosts após a implantação inicial, por exemplo, SCCM, MEM/Intune, GPO, soluções de 3rd-party.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2076,14 +2076,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2094,27 +2094,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Verifique os limites de escalabilidade do AVD para o ambiente</t>
+          <t>Determine se o Microsoft OneDrive fará parte da implantação do AVD</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">É fundamental verificar a capa da AVD e os limites relatados no artigo referenciado. </t>
+          <t>Revise o artigo fornecido e verifique se os recursos do OneDrive 'Redirecionamento de Pasta Conhecida' e 'Arquivos sob Demanda' devem ser considerados e, eventualmente, adotados.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2125,14 +2125,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2143,22 +2143,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Determine se os hosts de sessão exigirão GPU</t>
+          <t>Determine se o Microsoft Teams fará parte da implantação do AVD</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os Grupos host com GPU exigem configuração especial, por favor, certifique-se de revisar o artigo referenciado. </t>
+          <t>Certifique-se de revisar este artigo e usar a versão mais recente, revisar e avaliar as exclusões do Teams para reduzir o tamanho do perfil.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2174,14 +2174,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2192,27 +2192,27 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Recomendado para usar SKUs VM capazes de aproveitar o recurso de rede acelerada no Azure.</t>
+          <t xml:space="preserve">Não use a mesma conta/compartilhamento de armazenamento que os contêineres de perfil/Office </t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sempre que possível, recomenda-se aproveitar as SKUs VM com o recurso Accelerated Networking. Hoje, o sistema operacional Windows Server é suportado (veja lista no artigo), no futuro Windows Client OS talvez também incluído. </t>
+          <t xml:space="preserve">É altamente recomendável usar contas/compartilhamentos de armazenamento separados para armazenar pacotes MSIX. Se necessário, o armazenamento pode ser dimensionado de forma independente e não ser afetado por atividades de E/S de perfil. O Azure oferece várias opções de armazenamento que podem ser usadas para anexação de aplicativo MISX. Recomendamos o uso do Azure Files ou do Azure NetApp Files, pois essas opções oferecem o melhor valor entre custo e sobrecarga de gerenciamento. </t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2223,14 +2223,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,22 +2241,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Um inquilino do Azure Active Directory deve estar disponível com pelo menos uma assinatura vinculada</t>
+          <t>Analisar as considerações de desempenho para o MSIX</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Uma assinatura do Azure deve ser parental para o mesmo inquilino do Azure AD, que contém uma rede virtual que contém ou está conectada à instância do Windows Server Active Directory ou do Azure AD DS.</t>
+          <t>No artigo referenciado, relatamos poucas, mas importantes considerações de desempenho para o uso de MSIX no contexto da AVD, certifique-se de revisar cuidadosamente.</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2272,14 +2272,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2290,27 +2290,27 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Um diretório ativo do Windows Server está em sincronia com o Diretório Ativo do Azure</t>
+          <t>Verifique as permissões de host de sessão adequadas para o compartilhamento MSIX</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Você pode configurá-lo usando o Azure AD Connect (para organizações híbridas) ou os Serviços de Domínio Azure (para organizações híbridas ou em nuvem).</t>
+          <t>A anexação de aplicativo MSIX requer permissões somente leitura para acessar o compartilhamento de arquivos. Se você estiver armazenando seus aplicativos MSIX nos Arquivos do Azure, para seus hosts de sessão, precisará atribuir a todas as VMs de host de sessão permissões RBAC (controle de acesso baseado em função) de conta de armazenamento e NTFS (Sistema de Arquivos de Nova Tecnologia) no compartilhamento.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2321,7 +2321,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2340,22 +2340,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Verifique os requisitos da Conta do Usuário para se conectar à área virtual do Windows</t>
+          <t>Pacotes MSIX para aplicativos 3rd-party</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>(1) O usuário deve ser originado do mesmo Active Directory conectado ao Azure AD. O Windows Virtual Desktop não suporta contas B2B ou MSA. (2) O UPN que você usa para assinar o Windows Virtual Desktop deve existir no domínio Active Directory ao que o VM está aderido.</t>
+          <t>O fornecedor de software de 3ª parte deve fornecer um pacote MSY, não é recomendável que o cliente tente o procedimento de conversão sem o suporte adequado do proprietário do aplicativo.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2371,7 +2371,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2390,27 +2390,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Verifique os requisitos de VM para hosts de sessão AVD que serão criados</t>
+          <t>Desabilitar a atualização automática para pacotes MSIX</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>Os VMs devem ser de domínio padrão ou híbridos unidos por AD. Máquinas virtuais não podem ser aderidas ao Azure AD.</t>
+          <t>A anexação de aplicativo MSIX não oferece suporte à atualização automática para aplicativos MSIX e, em seguida, deve ser desabilitada.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2421,7 +2421,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2440,27 +2440,27 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antes de usar os Azure Active Directory Domain Services (AAD-DS) para AVD, certifique-se de rever as limitações. </t>
+          <t>Revisar o suporte a sistemas operacionais</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Compare os serviços de domínio do Active Directory auto-gerenciados, o Azure Active Directory e o gerenciado Azure Active Directory Domain Services</t>
+          <t>Para aproveitar o MSIX &amp; App Attach, a imagem do sistema operacional convidado para o pool de hosts AVD deve ser Windows 10 Enterprise ou Windows 10 Enterprise Multi-session, versão 2004 ou posterior.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2471,7 +2471,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2490,22 +2490,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Host da Sessão</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Crie pelo menos dois DCs (Active Directory Domain Controllers, controladores de domínio ativos) no ambiente Azure VNET perto do POOL DE HOST AVD</t>
+          <t>Avaliar o uso da VM Gen2 para implantação do Pool de Hosts</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os DCs de AD no Azure são recomendados para reduzir a latência para os usuários que fazem login em hosts de sessão AVD e, eventualmente, para arquivos do Azure NetApp e integração de AD. ADC precisa ser capaz de falar com DCs para TODOS os domínios infantis. Como alternativa, a conectividade no local deve ser usada para atingir DCs AD. </t>
+          <t>Depois de selecionada a SKU da VM que será usada para a implantação do Pool de Hosts, recomenda-se usar o tipo Gen2 da SKU para maior segurança e recursos aprimorados.</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2529,7 +2529,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2540,27 +2540,27 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Crie um OU específico no Diretório Ativo para cada Pool host</t>
+          <t>Determinar o tipo de Pool de Hosts a ser usado</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomendado para criar um OU separado por Host Pool sob uma hierarquia de OU separada. Estes OUs conterão contas de máquinas de hosts de sessão AVD. </t>
+          <t>Compartilhado/Agrupado ou Dedicado/Pessoal</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,22 +2590,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Revise o GPO de domínio que será aplicado ao OU e impactando as funcionalidades VM do Host Pool</t>
+          <t>Para o tipo de Pool de Hosts Pessoais, decida sobre o tipo de atribuição</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revise cuidadosamente e, eventualmente, bloqueie/filtre a herança de GPOs para as OUs que contêm pools de host AVD. </t>
+          <t>Confirme se a diferença entre atribuição automática e direta é bem compreendida e que a opção selecionada é apropriada para o cenário em questão.</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2621,7 +2621,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2629,7 +2629,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2640,22 +2640,22 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Crie uma conta de usuário dedicada com apenas permissões para se juntar ao VM ao domínio</t>
+          <t>Para o tipo Pool de Hosts em Pool, decida sobre o método de balanceamento de carga</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomendado ter uma conta dedicada específica com permissões específicas, e sem a limitação padrão 10 se junta. </t>
+          <t xml:space="preserve">Verifique qual deles usar e as opções disponíveis, esteja ciente de que, se o dimensionamento automático for usado, ele o definirá como amplitude primeiro. </t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -2671,7 +2671,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2679,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2690,27 +2690,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Crie um grupo de usuários de domínio para cada conjunto de usuários que terá acesso a cada Grupo de Aplicativos do Pool host (DAG ou RAG)</t>
+          <t xml:space="preserve">Estimar o número de pools de hosts diferentes a serem implantados </t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evite conceder acesso por usuário, em vez disso, use grupos de AD e replique-os usando ADC no Azure AD. </t>
+          <t>Com base em seus critérios de seleção, quantos Pools de Hosts você precisaria? Você deve considerar ter vários se:? Várias imagens do sistema operacional? Várias regiões? Diferente HW necessário? Tipo diferente de Pool de Hosts (compartilhado versus pessoal)? Diferentes requisitos de usuário e SLA (Principais usuários, Executivos, Office Worker vs. Desenvolvedores, etc.)? Diferentes configurações de RDP (aplicadas no nível do Pool de Hosts), consulte https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número necessário de VMs no pool de hosts que excede os recursos máximos</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2721,7 +2721,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2729,7 +2729,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2740,27 +2740,27 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Revise sua política de expiração de senha da organização para contas usadas pela integração do Azure Files AD</t>
+          <t>Execute o teste de desempenho da carga de trabalho para determinar a melhor SKU e o tamanho da VM do Azure a serem usados (determine o número de hosts por pool)</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Como parte do procedimento para integrar o Azure File Share e o Active Directory authenticaton, uma conta AD para representar a conta de armazenamento (compartilhamento de arquivos) será criada. Você pode optar por se registrar como uma conta de computador ou conta de logon de serviço, consulte FAQ para obter detalhes. Para contas de computador, há uma idade de validade de senha padrão definida em A em 30 dias. Da mesma forma, a conta de logon do serviço pode ter uma idade de validade de senha padrão definida no domínio AD ou unidade organizacional (OU). Para ambos os tipos de conta, recomendamos que você verifique a idade de validade da senha configurada em seu ambiente de AD e planeje atualizar a senha da identidade da sua conta de armazenamento da conta AD antes da idade máxima da senha. Você pode considerar a criação de uma nova Unidade Organizacional (OU) AD em AD e desativar a política de expiração de senha em contas de computador ou contas de logon de serviço de acordo.</t>
+          <t>Use o link fornecido para definir um ponto de partida para a decisão de SKU e, em seguida, valide usando um teste de desempenho. Certifique-se de que um mínimo de 4 núcleos para Produção seja selecionado por Host da Sessão (várias sessões)</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2771,7 +2771,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2779,7 +2779,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a33</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2790,27 +2790,27 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Revise a arquitetura híbrida de conectividade para ambiente local</t>
+          <t>Verificar os limites de escalabilidade do AVD para o ambiente</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>Que tipo de conectividade híbrida? Rota expressa, VPN, NVA?</t>
+          <t xml:space="preserve">É fundamental verificar a capacidade e os limites da AVD relatados no artigo referenciado. </t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2821,7 +2821,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2829,7 +2829,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2840,22 +2840,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Avalie quais recursos os usuários precisarão acessar desde os Pools de Host DO AVD até os locais</t>
+          <t>Determine se os hosts de sessão exigirão GPU</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avalie os requisitos de largura de banda, garanta que a largura de banda VPN/ER seja suficiente e a latência tolerável. </t>
+          <t xml:space="preserve">Pools de hosts com GPU exigem configuração especial, por favor, certifique-se de rever o artigo referenciado. </t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2871,7 +2871,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2879,7 +2879,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2890,27 +2890,27 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Revise a topologia de rede da zona de pouso para o serviço AVD</t>
+          <t>Recomendado o uso de SKUs de VM capazes de aproveitar o recurso de Rede Acelerada no Azure.</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Revise ou recomende um novo onde colocar piscinas de host AVD com base no CAF (vWAN vs. Hub &amp; Spoke)</t>
+          <t xml:space="preserve">Sempre que possível, recomenda-se aproveitar as SKUs de VM com o recurso de Rede Acelerada. Hoje pnly Windows Server OS são suportados (veja a lista no artigo), no futuro Windows Client OS também pode incluído. </t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2921,7 +2921,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2929,7 +2929,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2940,22 +2940,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Avalie a colocação de VNET e sub-rede para vários pools host</t>
+          <t>Avalie quantos usuários se conectarão ao AVD e de quais regiões</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que cada sub-rede terá espaço suficiente para dimensionar o POOL DE HOST AVD. Para diferentes pools host, recomenda-se usar sub-redes separadas, se possível. </t>
+          <t xml:space="preserve">Para um planejamento e implantação adequados, é importante avaliar o número máximo de usuários e a média de sessões simultâneas. </t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2971,14 +2971,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2989,22 +2989,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet para hosts AVD? </t>
+          <t>Determine se todos os usuários terão o mesmo conjunto de aplicativos e/ou diferentes configurações do Pool de Hosts e/ou imagens do sistema operacional</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>Várias opções estão disponíveis. Você pode usar o Azure Firewall ou NVA Firewall, NSG e/ou Proxy. O NSG não é capaz de ativar/desativar por URL, apenas portas e protocolos. O proxy deve ser usado apenas como configuração explícita no navegador do usuário. Detalhes sobre o uso do Azure Firewall Premium com AVD estão aqui no https://aka.ms/AVDfirewall e aqui https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Certifique-se de revisar a lista completa de requisitos para acesso aos URLs AVD.</t>
+          <t xml:space="preserve">Mutiple Host Pools talvez necessário para suportar diferentes conjuntos de usuários, recomenda-se estimar quantos serão necessários. </t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3020,7 +3020,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3039,27 +3039,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet apenas para usuários em hosts AVD? </t>
+          <t>Avaliar dependências externas para cada Pool de Hosts</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere o uso do Azure Defender Endpoint para controlar a navegação da Web do usuário, consulte a seção Segurança para obter mais detalhes. </t>
+          <t>As dependências de recursos externos ao pool AVD devem ser avaliadas e revisadas, por exemplo, Active Directory, compartilhamentos de arquivos externos ou outro armazenamento, serviços e recursos locais, componentes de infraestrutura de rede como VPN e ou Rota Expressa, serviços externos e componentes de terceiros. Para todos esses recursos, a latência do Pool de Hosts AVD precisa ser avaliada e a conectividade considerada. Além disso, as considerações de BCDR também precisam ser aplicadas a essas dependências.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3070,7 +3070,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3078,7 +3078,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3089,27 +3089,27 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Revise udr para sub-rede do Pool de HostS AVD</t>
+          <t>Revise o sistema operacional do cliente usado e o tipo de cliente AVD</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O UDR personalizado pode ser aplicado à sub-rede DO Pool de Hostd AVD, por exemplo, para redirecionar para o Azure Firewall ou NVA. Neste caso, recomenda-se revisar cuidadosamente para garantir que o caminho ideal para o tráfego de saída para o avião de controle AVD seja usado. As tags de serviço agora podem ser usadas com UDR, então o tráfego de avião de gerenciamento AVD pode ser facilmente listado. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
+          <t>Revise as limitações de cada cliente e compare várias opções quando possível.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3120,14 +3120,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3138,27 +3138,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os pontos finais do plano de controle AVD estejam acessíveis</t>
+          <t>Verificar os requisitos de licenciamento</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>Os URLs necessários para acesso ao avião de controle AVD por hosts de sessão estão documentados aqui: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Uma ferramenta de verificação está disponível para verificar a conectividade dos hosts da sessão: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
+          <t>Os clientes devidamente licenciados para executar cargas de trabalho da Área de Trabalho Virtual do Windows estão qualificados para aplicar uma licença do Windows às máquinas virtuais do host da sessão e executá-las sem pagar por outra licença.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3169,14 +3169,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3187,27 +3187,27 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Verifique a largura de banda da rede necessária para cada usuário e no total para o VM SKU</t>
+          <t>Execute um PoC para testar a experiência do usuário de ponta a ponta para verificar o impacto causado pela latência da rede</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomenda-se avaliar e revisar os requisitos de largura de banda de rede para os usuários, com base no tipo de carga de trabalho específica. O artigo referenciado fornece estimativas e recomendações gerais, mas são necessárias medidas específicas para o dimensionamento adequado. </t>
+          <t xml:space="preserve">Dependendo dos locais do usuário e da implantação da região AVD, os usuários podem ter uma experiência não ideal, portanto, é importante testar o mais rápido possível em um ambiente PoC pequeno. </t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3218,7 +3218,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3226,7 +3226,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3237,27 +3237,27 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Host de sessão</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso do Gen2 VM para implantação do Host Pool</t>
+          <t xml:space="preserve">Determine se os usuários acessarão o AVD usando desktops completos e/ou aplicativos remotos </t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>Uma vez selecionado o VM SKU que será usado para a implantação do Host Pool, recomenda-se usar o tipo Gen2 do SKU para maior segurança e recursos aprimorados.</t>
+          <t xml:space="preserve">Determine se os usuários receberão áreas de trabalho completas e/ou Grupos de Aplicativos Remotos. </t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3268,7 +3268,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3276,7 +3276,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3287,27 +3287,27 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Determine como os aplicativos serão implantados em piscinas de host AVD</t>
+          <t xml:space="preserve">Todos os usuários terão as mesmas configurações de RDP? </t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>Os aplicativos podem ser pré-instalados na imagem/s dourados, podem ser anexados usando o recurso MSIX &amp; AppAttach ou distribuindo para hosts após a implantação do pool usando métodos tradicionais de distribuição SW.</t>
+          <t>No momento, as configurações de RDP só podem ser definidas no nível do pool de hosts, não por usuário/grupo.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3318,7 +3318,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3326,7 +3326,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3337,22 +3337,22 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Estime o número de imagens douradas que serão necessárias</t>
+          <t>Avaliar o RDP ShortPath para clientes que se conectam a partir de redes internas gerenciadas</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>Será que eles usarão mascaramento de aplicativos fslogix que se prestam a uma única imagem, ou multi-imagens com diferentes aplicativos assados: o que está exigindo mais de uma imagem para ser usado?</t>
+          <t>O Shortpath RDP para redes gerenciadas é um recurso da Área de Trabalho Virtual do Azure que estabelece um transporte direto baseado em UDP entre o Cliente de Área de Trabalho Remota e o host da Sessão. A remoção do relé extra reduz o tempo de ida e volta, o que melhora a experiência do usuário com aplicativos sensíveis à latência e métodos de entrada. Para dar suporte ao RDP Shortpath, o cliente da Área de Trabalho Virtual do Azure precisa de uma linha de visão direta para o host da sessão e deve estar executando o Windows 10 ou o Windows 7 e ter o cliente da Área de Trabalho do Windows instalado.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
@@ -3368,14 +3368,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3386,27 +3386,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Determine qual imagem/s do SISTEMA OPERACIONAL você usará para a implantação do Host Pool</t>
+          <t>Determine em qual região do Azure os Pools de Host AVD serão implantados.</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>Determine qual sistema operacional convidado será usado para implantar cada Pool de Host: Windows 10 vs. Windows Server, Marketplace vs. Imagens personalizadas</t>
+          <t>O AVD é um serviço não regional, os Pools de Hosts podem ser criados em qualquer região, o redirecionamento automático do front-end mais próximo acontecerá automaticamente.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3417,7 +3417,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3425,7 +3425,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3436,27 +3436,27 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Se uma imagem personalizada for usada, determine se há um processo de compilação automatizado?</t>
+          <t>Determinar se a conectividade híbrida é necessária para se conectar ao ambiente local</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se nada existir, considere usar o Azure Image Builder para automatizar o processo de compilação. </t>
+          <t xml:space="preserve">Se necessário para se conectar ao ambiente local, avalie a opção de conectividade atual ou planeje a conectividade necessária. </t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3467,14 +3467,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3485,27 +3485,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Se uma imagem personalizada for usada, existe um plano para organizar e gerenciar o ciclo de vida de suas imagens?</t>
+          <t>Você avaliou a latência entre o local dos usuários e a infraestrutura do AVD do Azure?</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Avalie a Azure Compute Gallery.</t>
+          <t xml:space="preserve">Execute a ferramenta 'Estimador da Experiência Desktop Virtual do Windows' para selecionar a melhor região do Azure para implantar Pools de Hosts. Além da latência de 150ms, a experiência do usuário pode não ser a ideal. </t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3516,14 +3516,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3534,22 +3534,22 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Se a imagem personalizada for usada, verifique as práticas recomendadas para AVD sobre como construir imagem mestre</t>
+          <t>Determinar o local dos metadados do serviço AVD</t>
         </is>
       </c>
       <c r="D57" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existem algumas práticas e recomendações conhecidas para a personalização de imagem dourada, não deixe de conferir o artigo referenciado. </t>
+          <t xml:space="preserve">O AVD armazena metadados apenas para executar o serviço em localizações geográficas específicas, determinar o que está disponível hoje e se for adequado com base nos requisitos do cliente. </t>
         </is>
       </c>
       <c r="E57" s="22" t="inlineStr">
@@ -3565,14 +3565,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3583,27 +3583,27 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso da Ferramenta de Otimização virtual-desktop</t>
+          <t>Verificar as cotas e a disponibilidade do Azure para tamanhos específicos de VM nas regiões selecionadas</t>
         </is>
       </c>
       <c r="D58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Este conjunto de ferramentas foi criado para aplicar automaticamente a configuração referenciada no white paper 'Otimizando o Windows 10, versão 2004 para uma função VDI (Virtual Desktop Infrastructure, infraestrutura de desktop virtual)": https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Deve-se considerar o uso da ferramenta e/ou otimizações mencionadas no white-paper. </t>
+          <t xml:space="preserve">Verifique se há SKUs de VM específicas, especialmente se você precisar de SKUs de GPU ou de alta especificação e, eventualmente, disponibilidade do Azure NetApp Files, se usado. </t>
         </is>
       </c>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3614,14 +3614,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3632,27 +3632,27 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Planejar/avaliar a estratégia de gerenciamento de configuração do host de sessão AVD</t>
+          <t>Verificar a disponibilidade da zona de disponibilidade (AZ) na região selecionada</t>
         </is>
       </c>
       <c r="D59" s="22" t="inlineStr">
         <is>
-          <t>Determine se uma ferramenta de gerenciamento de configuração já está no local para gerenciar a configuração do Host Pool VM após a implantação inicial, por exemplo SCCM, MEM/Intune, GPO, soluções de terceiros.</t>
+          <t>Consulte a seção BCDR para obter mais detalhes.</t>
         </is>
       </c>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3663,14 +3663,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b4b</t>
+          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3681,22 +3681,22 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Determine se o Microsoft OneDrive fará parte da implantação do AVD</t>
+          <t>Criar pelo menos dois controladores de domínio (DCs) do Active Directory no ambiente VNET do Azure próximo ao Pool de Hosts AVD</t>
         </is>
       </c>
       <c r="D60" s="22" t="inlineStr">
         <is>
-          <t>Revise o artigo fornecido e verifique os recursos 'Redirecionamento de pastas conhecidas' e 'Arquivos OnDemand' OneDrive devem ser considerados e eventualmente adotados.</t>
+          <t xml:space="preserve">Os DCs do AD no Azure são recomendados para reduzir a latência para usuários que fazem logon em hosts de sessão do AVD e, eventualmente, para Arquivos NetApp do Azure e integração com o AD. O ADC precisa ser capaz de falar com DCs para TODOS os domínios filho. Como alternativa, a conectividade local deve ser usada para alcançar os DCs do AD. </t>
         </is>
       </c>
       <c r="E60" s="22" t="inlineStr">
@@ -3712,14 +3712,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3730,27 +3730,27 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Determine se as equipes da Microsoft farão parte da implantação do AVD</t>
+          <t>Criar uma UO específica no Active Directory para cada Pool de Hosts</t>
         </is>
       </c>
       <c r="D61" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de revisar este artigo e usar a versão mais recente, revisar e avaliar as exclusões das equipes para reduzir o tamanho do perfil.</t>
+          <t xml:space="preserve">Recomendado para criar uma UO separada por Pool de Hosts em uma hierarquia de UO separada. Essas UOs conterão contas de máquina de hosts de sessão AVD. </t>
         </is>
       </c>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3761,14 +3761,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3779,27 +3779,27 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Não use a mesma conta de armazenamento/compartilhamento que os contêineres Profile/Office </t>
+          <t>Revise o GPO de domínio que será aplicado à UO e afetará as funcionalidades da VM do Pool de Hosts</t>
         </is>
       </c>
       <c r="D62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">É altamente recomendável usar contas/ações de armazenamento separadas para armazenar pacotes MSIX. Se necessário, o armazenamento pode ser ampliado independentemente e não ser impactado pelas atividades de I/O do perfil. O Azure oferece várias opções de armazenamento que podem ser usadas para anexar o aplicativo MISX. Recomendamos o uso de Arquivos Azure ou Arquivos Azure NetApp, pois essas opções oferecem o melhor valor entre custo e sobrecarga de gerenciamento. </t>
+          <t xml:space="preserve">Revise cuidadosamente e, eventualmente, bloqueie/filtre a herança de GPOs para as UOs que contêm Pools de Host AVD. </t>
         </is>
       </c>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3810,14 +3810,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3828,27 +3828,27 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Revisar considerações de desempenho para MSIX</t>
+          <t>Criar uma conta de usuário dedicada com apenas permissões para ingressar a VM no domínio</t>
         </is>
       </c>
       <c r="D63" s="22" t="inlineStr">
         <is>
-          <t>No artigo referenciado, relatamos poucas considerações de desempenho importantes para o uso do MSIX no contexto AVD, certifique-se de revisar cuidadosamente.</t>
+          <t xml:space="preserve">Recomendado ter uma conta dedicada específica com permissões específicas e sem a limitação padrão de 10 ingressos. </t>
         </is>
       </c>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3859,7 +3859,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3867,7 +3867,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3878,22 +3878,22 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Verifique as permissões adequadas do host de sessão para compartilhar o MSIX</t>
+          <t>Criar um grupo de usuários de domínio para cada conjunto de usuários que receberão acesso a cada Grupo de Aplicativos de Pool de Hosts (DAG ou RAG)</t>
         </is>
       </c>
       <c r="D64" s="22" t="inlineStr">
         <is>
-          <t>A anexação do aplicativo MSIX requer permissões somente leitura para acessar o compartilhamento do arquivo. Se você estiver armazenando seus aplicativos MSIX em Arquivos Azure e, em seguida, para os hosts de sessão, você precisará atribuir todos os VMs de host de sessão, tanto o controle de acesso baseado em função da conta de armazenamento (RBAC) quanto o NTFS (New Technology File System) no share.</t>
+          <t xml:space="preserve">Evite conceder acesso por usuário, em vez disso, use grupos do AD e replique-os usando o ADC no Azure AD. </t>
         </is>
       </c>
       <c r="E64" s="22" t="inlineStr">
@@ -3909,7 +3909,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3917,7 +3917,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3928,27 +3928,27 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Pacotes MSIX para aplicações de terceiros</t>
+          <t>Revisar a política de expiração de senha da sua organização para contas usadas pela integração do AD do Azure Files</t>
         </is>
       </c>
       <c r="D65" s="22" t="inlineStr">
         <is>
-          <t>O fornecedor de software de terceiros deve fornecer um pacote MSIX, não é recomendado para o cliente tentar o procedimento de conversão sem o suporte adequado do proprietário do aplicativo.</t>
+          <t>Como parte do procedimento para integrar o Compartilhamento de Arquivos do Azure e o autenticaton do Active Directory, uma conta do AD para representar a conta de armazenamento (compartilhamento de arquivos) será criada. Você pode optar por se registrar como uma conta de computador ou conta de logon de serviço, consulte Perguntas frequentes para obter detalhes. Para contas de computador, há uma idade de expiração de senha padrão definida no AD em 30 dias. Da mesma forma, a conta de logon de serviço pode ter uma idade de expiração de senha padrão definida no domínio do AD ou na Unidade Organizacional (UO). Para ambos os tipos de conta, recomendamos que você verifique a idade de expiração da senha configurada em seu ambiente do AD e planeje atualizar a senha da identidade da conta de armazenamento da conta do AD antes da idade máxima da senha. Você pode considerar a criação de uma nova Unidade Organizacional (UO) do AD no AD e desabilitar a diretiva de expiração de senha em contas de computador ou contas de logon de serviço de acordo.</t>
         </is>
       </c>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3959,7 +3959,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3978,27 +3978,27 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Desativar a atualização automática para pacotes MSIX</t>
+          <t>Um locatário do Active Directory do Azure deve estar disponível com pelo menos uma assinatura vinculada</t>
         </is>
       </c>
       <c r="D66" s="22" t="inlineStr">
         <is>
-          <t>O anexo do aplicativo MSIX não suporta atualização automática para aplicativos MSIX e, em seguida, deve ser desativado.</t>
+          <t>Uma assinatura do Azure deve ser parente para o mesmo locatário do Azure AD, que contém uma rede virtual que contém ou está conectada ao Active Directory do Windows Server ou à instância do Azure AD DS.</t>
         </is>
       </c>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4009,14 +4009,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -4027,27 +4027,27 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Revisar o suporte a sistemas operacionais</t>
+          <t>Uma floresta/domínio do Active Directory do Windows Server está sincronizado com o Active Directory do Azure</t>
         </is>
       </c>
       <c r="D67" s="22" t="inlineStr">
         <is>
-          <t>Para aproveitar o MSIX &amp; App Attach, a imagem do SISTEMA OPERACIONAL convidado para o pool AVD Host deve ser o Windows 10 Enterprise ou o Windows 10 Enterprise Multi-session, versão 2004 ou posterior.</t>
+          <t>Você pode configurar isso usando o Azure AD Connect (para organizações híbridas) ou os Serviços de Domínio do Azure AD (para organizações híbridas ou de nuvem).</t>
         </is>
       </c>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -4066,7 +4066,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4077,22 +4077,22 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Host de sessão </t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine qual tipo de disco gerenciado será usado para os Hosts de Sessão  </t>
+          <t>Verificar os requisitos da Conta de Usuário para se conectar à Área de Trabalho Virtual do Windows</t>
         </is>
       </c>
       <c r="D68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">HDD padrão, SSD padrão ou SSD Premium, discos efêmeros não são suportados, ultra-discos não recomendados. Recomendado para avaliar premium para disco do SISTEMA se a densidade do usuário não for baixa, e se você vai usar o Cloud Cache. </t>
+          <t>(1) O usuário deve ser originado do mesmo Active Directory que está conectado ao Azure AD. A Área de Trabalho Virtual do Windows não oferece suporte a contas B2B ou MSA. (2) O UPN que você usa para assinar a Área de Trabalho Virtual do Windows deve existir no domínio do Active Directory ao qual a VM está associada.</t>
         </is>
       </c>
       <c r="E68" s="22" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4127,27 +4127,27 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Determine qual solução de backend de armazenamento será usada para o perfil FSLogix e contêineres de escritório</t>
+          <t>Verifique os requisitos de VM para hosts de sessão AVD que serão criados</t>
         </is>
       </c>
       <c r="D69" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquivos Azure NetApp, Arquivos Azure, Servidor de Arquivos baseado em VM. Servidor de arquivos não recomendado. Azure Files Premium normalmente é um bom ponto de partida. O NetApp só geralmente é necessário para ambientes de grande escala/alto desempenho. </t>
+          <t>As VMs devem ser ingressadas no domínio Padrão ou Híbridas associadas ao AD. As máquinas virtuais não podem ser associadas ao Azure AD.</t>
         </is>
       </c>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4158,7 +4158,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -4166,7 +4166,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4177,22 +4177,22 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Avalie a possibilidade de separar contêineres de perfil de contêineres de escritório</t>
+          <t xml:space="preserve">Antes de usar os Serviços de Domínio Active Directory do Azure (AAD-DS) para AVD, verifique as limitações. </t>
         </is>
       </c>
       <c r="D70" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A recomendação no Windows Virtual Desktop é usar o Contêiner de Perfil sem o Contêiner office, a menos que você esteja planejando cenários específicos de continuidade de negócios e recuperação de desastres (BCDR), conforme descrito na seção de recuperação de desastres abaixo. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+          <t>Comparar os Serviços de Domínio Active Directory autogerenciados, o Active Directory do Azure e os Serviços de Domínio do Active Directory gerenciados</t>
         </is>
       </c>
       <c r="E70" s="22" t="inlineStr">
@@ -4208,7 +4208,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4216,7 +4216,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4227,27 +4227,27 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Verifique os limites de escalabilidade do armazenamento para suportar os requisitos do Host Pool</t>
+          <t>Avaliar o requisito de capacidade de dimensionamento automático do pool de hosts</t>
         </is>
       </c>
       <c r="D71" s="22" t="inlineStr">
         <is>
-          <t>Como ponto de partida para estimar os requisitos de desempenho de armazenamento de contêineres de perfil, recomendamos assumir 10 IOPS por usuário em estado constante e 50 IOPS por usuário durante o login/login.</t>
+          <t xml:space="preserve">A ferramenta de dimensionamento fornece uma opção de automação de baixo custo para clientes que desejam otimizar seus custos de VM de host de sessão. Você pode usar a ferramenta de dimensionamento para agendar VMs para iniciar e parar com base no horário comercial de pico e fora de pico, expandir VMs com base no número de sessões por núcleo de CPU, dimensionar em VMs durante o horário de pico fora de pico, deixando o número mínimo de VMs de host de sessão em execução. Ainda não disponível para o tipo de Pool de Host Pessoal, recomenda-se ter uma configuração separada para cada pool de hosts. </t>
         </is>
       </c>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4258,7 +4258,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4277,27 +4277,27 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Se o armazenamento do NetApp Files for usado, verifique a disponibilidade do serviço de armazenamento em sua região específica.</t>
+          <t>Verifique periodicamente as recomendações do Azure Advisor para AVD</t>
         </is>
       </c>
       <c r="D72" s="22" t="inlineStr">
         <is>
-          <t>Se uma segunda região for necessária para fins de DR, verifique a disponibilidade do NetApp lá também.</t>
+          <t>O Supervisor do Azure analisa suas configurações e telemetria para oferecer recomendações personalizadas para resolver problemas comuns. Com essas recomendações, você pode otimizar seus recursos do Azure para confiabilidade, segurança, excelência operacional, desempenho e custo.</t>
         </is>
       </c>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4308,7 +4308,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4316,7 +4316,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4327,27 +4327,27 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para um desempenho ideal, a solução de armazenamento e o contêiner de perfil FSLogix devem estar no mesmo local do data center.</t>
+          <t>Planejar uma estratégia de gerenciamento de atualização de imagem dourada</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>Evite introduzir latência adicional e custos associados ao tráfego de rede entre regiões, sempre que possível.</t>
+          <t>Prepare uma estratégia para gerenciar atualizações para imagens douradas, por exemplo, para aplicar hotfixes de segurança e/ou atualizar aplicativos instalados dentro da imagem. O Serviço Construtor de Imagens do Azure é uma solução de 1ª parte para automatizar a compilação e a personalização de VMs.Os modelos ARM podem ser usados para criar novos hosts e, em seguida, encerrar os antigos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool A abordagem recomendada é criar um novo pool lado a lado, mais fácil de reverter, não utilizável para pool dedicadoReimplantar e aumentar o número de VMs com o modelo ARM também é uma opção viável. Os clientes também podem querer usar métodos de distribuição de software existentes para atualizar a imagem sem reimplantar, para exame com SCCM ou similar.</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4358,7 +4358,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4366,7 +4366,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4377,22 +4377,22 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Configure as exclusões de antivírus recomendadas para FSLogix (inclui não digitalizar arquivos VHD(x) no connect).</t>
+          <t>Planejar uma estratégia de correção e atualização do Host da Sessão</t>
         </is>
       </c>
       <c r="D74" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de configurar as seguintes exclusões antivírus para discos rígidos virtuais FSLogix Profile Container, conforme documentado no artigo referenciado.</t>
+          <t xml:space="preserve">Os clientes podem ter várias opções:- Microsoft Endpoint Configuration Manager, este artigo explica como configurar o Microsoft Endpoint Configuration Manager para aplicar automaticamente atualizações a um host de Área de Trabalho Virtual do Windows executando o Windows 10 Enterprise com várias sessões: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)-  3ª Parte que dá suporte ao seu sistema operacional.- Gerenciamento de Atualização do Azure (Automação do Azure), atualmente sem suporte para o sistema operacional cliente: recomenda-se que https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt se afaste de uma estratégia de aplicação de patches e mude para uma estratégia de recriação de imagens, se possível. </t>
         </is>
       </c>
       <c r="E74" s="22" t="inlineStr">
@@ -4408,7 +4408,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4416,7 +4416,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4427,27 +4427,27 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Revise as chaves de registro do FSLogix e determine quais aplicar</t>
+          <t>Avaliar o requisito para um ambiente canário de teste AVD</t>
         </is>
       </c>
       <c r="D75" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">As configurações básicas e recomendadas padrão estão aqui: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Veja aqui para o conjunto principal: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee aqui para referência completa: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
+          <t>Os pools de hosts são uma coleção de uma ou mais máquinas virtuais idênticas no ambiente da Área de Trabalho Virtual do Windows. É altamente recomendável que você crie um pool de hosts de validação em que as atualizações de serviço sejam aplicadas primeiro. Isso permite que você monitore as atualizações de serviço antes que o serviço as aplique ao seu ambiente padrão ou de não validação.</t>
         </is>
       </c>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4458,7 +4458,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4477,27 +4477,27 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Verifique o uso de conexões simultâneas ou múltiplas para o mesmo perfil</t>
+          <t>Determinar a estratégia de implantação do Pool de Hosts</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>Conexões simultâneas ou múltiplas são desencorajadas no Windows Virtual Desktop. A melhor prática é criar um local de perfil diferente para cada sessão (como um pool de host).</t>
+          <t>Um Pool de Hosts AVD pode ser implantado de várias maneiras: Portal do Azure, modelos ARM, ferramenta CLI do Azure, Powershell, criação manual de VM com token de registro, Terraform etc. É importante adotar métodos(s) adequado(s) para oferecer suporte à implantação automática por meio de ferramentas de automação e CI/CD.</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4508,7 +4508,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4516,7 +4516,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4527,27 +4527,27 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Revise as melhores práticas e considerações-chave para o dimensionamento do armazenamento</t>
+          <t>Ativar VMs regularmente a cada 90 dias para atualização de token</t>
         </is>
       </c>
       <c r="D77" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Como estimativa geral, a ser validada em um ambiente de teste, para cada usuário 5 - 15 IOPS deve ser primeiro considerado, dependendo da carga de trabalho. Arquivos Azure: Premium max 100k IOPS por ação (máximo 100TB) e até 5Gbps com latência de 3ms. Esteja ciente de como os Arquivos Azure são provisionados, ou seja, o IOPS estritamente vinculado ao TAMANHO provisionado. Capacidade de dimensionamento de rajadas em alguns casos. Certifique-se de prover UPFRONT mais espaço do que o necessário para ter certeza de ter IOPS suficiente. NOTA: O Azure Premium talvez seja mais barato que o Standard porque você não paga transações, então detalhes importantes para ter em mente. Arquivos Azure NetApp: lembre-se no máximo 1000 IPs conectados, pode ajustar IOPS em tempo real, capacidade mínima de 4 TB provisionada. </t>
+          <t>Depois de registrar uma VM em um pool de hosts no serviço Área de Trabalho Virtual do Windows, o agente atualiza regularmente o token da VM sempre que a VM está ativa. O certificado para o token de registro é válido por 90 dias. Devido a esse limite de 90 dias, recomendamos que as VMs fiquem online por 20 minutos a cada 90 dias para que a máquina possa atualizar seus tokens e atualizar o agente e os componentes da pilha lado a lado.</t>
         </is>
       </c>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4558,7 +4558,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4577,27 +4577,27 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Verifique as práticas recomendadas para arquivos Azure (se usado)</t>
+          <t>Habilitar o Monitoramento do Azure para AVD</t>
         </is>
       </c>
       <c r="D78" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de verificar a lista de melhores práticas e recomendações descritas no artigo referenciado.</t>
+          <t>O Azure Monitor para Área de Trabalho Virtual do Windows é um painel criado em Pastas de Trabalho do Azure Monitor que ajuda os profissionais de TI a entender seus ambientes de Área de Trabalho Virtual do Windows. Leia o artigo referenciado para saber como configurar o Monitor do Azure para Área de Trabalho Virtual do Windows para monitorar seus ambientes de Área de Trabalho Virtual do Windows.</t>
         </is>
       </c>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4608,7 +4608,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4627,22 +4627,22 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Verifique as práticas recomendadas de Arquivos NetApp (se usado)</t>
+          <t>Habilitar e redirecionar configurações de diagnóstico para Espaços de Trabalho, Pools de Hosts, Grupos de Aplicativos e VMs Host para o espaço de trabalho do Log Analytics</t>
         </is>
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de verificar a lista de melhores práticas e recomendações descritas no artigo referenciado.</t>
+          <t xml:space="preserve">A Área de Trabalho Virtual do Windows usa o Azure Monitor e o Log Analytics para monitoramento e alertas, como muitos outros serviços do Azure. Isso permite que os administradores identifiquem problemas por meio de uma única interface. O serviço cria logs de atividades para ações administrativas e de usuário.  Cada registro de atividades se enquadra nas seguintes categorias: Gerenciamento, Feed, Conexões, Registro de Host, Erros, Pontos de Verificação. </t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4658,7 +4658,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4666,7 +4666,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4677,27 +4677,27 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Revise e confirme o tamanho máximo do perfil configurado no FSLogix</t>
+          <t>Criar alertas no armazenamento de perfis a serem alertados em caso de alto uso e limitação</t>
         </is>
       </c>
       <c r="D80" s="22" t="inlineStr">
         <is>
-          <t>Os recipientes de perfil têm um tamanho máximo padrão de 30GB. Se grandes contêineres de perfil forem antecipados e os clientes quiserem tentar mantê-los pequenos, considere usar o OneDrive para hospedar arquivos do Office 365 fora do perfil FSLogix.</t>
+          <t xml:space="preserve">Consulte o artigo referenciado e este adicional para configurar o monitoramento e o alerta adequados para armazenamento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
         </is>
       </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4708,7 +4708,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4716,7 +4716,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4727,22 +4727,22 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Se o FSLogix Cloud Cache for usado, mova o diretório Cache para unidade temporária.</t>
+          <t xml:space="preserve">Configurar a Integridade do Serviço do Azure para alertas AVD </t>
         </is>
       </c>
       <c r="D81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Cloud Cache usa o disco local como cache e pode gerar muita pressão no disco VM. Recomendado para aproveitar a potência do disco VM temporário (e conectado localmente), se possível com base no VM SKU. </t>
+          <t>Você pode usar a Integridade do Serviço do Azure para monitorar problemas de serviço e avisos de integridade da Área de Trabalho Virtual do Windows. A Integridade do Serviço do Azure pode notificá-lo com diferentes tipos de alertas (por exemplo, email ou SMS), ajudá-lo a entender o efeito de um problema e mantê-lo atualizado à medida que o problema é resolvido.</t>
         </is>
       </c>
       <c r="E81" s="22" t="inlineStr">
@@ -4758,7 +4758,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4766,7 +4766,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4777,22 +4777,22 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Revise o uso do redirecionamento FSLogix.</t>
+          <t>Revisar a arquitetura de conectividade híbrida para ambiente local</t>
         </is>
       </c>
       <c r="D82" s="22" t="inlineStr">
         <is>
-          <t>REDIRECIONAMENTO.XML arquivo é usado para controlar quais pastas são redirecionadas do recipiente de perfil para a unidade C: As exclusões devem ser a exceção e nunca devem ser usadas a menos que a exclusão específica seja completamente compreendida pela pessoa que configura a exclusão. As exclusões devem ser sempre totalmente testadas no ambiente onde se destinam a ser implementadas. A configuração de exclusões pode afetar a funcionalidade, a estabilidade e o desempenho.</t>
+          <t>Que tipo de conectividade híbrida? Rota Expressa, VPN, NVA?</t>
         </is>
       </c>
       <c r="E82" s="22" t="inlineStr">
@@ -4808,7 +4808,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4816,7 +4816,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4827,27 +4827,27 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Se o armazenamento do Azure NetApp Files for usado, verifique a configuração do nome do Site de AD na conexão AD.</t>
+          <t>Avaliar quais recursos os usuários precisarão acessar dos Pools de Host do AVD para o local</t>
         </is>
       </c>
       <c r="D83" s="22" t="inlineStr">
         <is>
-          <t>Um Site de Diretório Ativo deve ser criado para o ambiente de rede virtual do Azure, onde a sub-rede ANF será criada, e esse nome do site deve ser especificado na propriedade de conexão ANF ao executar o procedimento de ação, conforme explicado no artigo de referência.</t>
+          <t xml:space="preserve">Avalie os requisitos de largura de banda, garanta que a largura de banda VPN/ER seja suficiente e a latência tolerável. </t>
         </is>
       </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4858,7 +4858,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4866,7 +4866,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4877,27 +4877,27 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que os usuários de AVD não terão privilégios de administração locais em hosts AVD. </t>
+          <t>Revise a topologia de rede da zona de aterrissagem para o serviço AVD</t>
         </is>
       </c>
       <c r="D84" s="22" t="inlineStr">
         <is>
-          <t>Recomendamos que você não conceda aos seus usuários acesso administrativo a desktops virtuais. Se você precisar de pacotes de software, recomendamos que os disponibilize através de utilitários de gerenciamento de configuração, como o Microsoft Endpoint Manager. Em um ambiente de várias sessões, recomendamos que você não deixe que os usuários instalem software diretamente.</t>
+          <t>Revise ou recomende um novo onde colocar os Pools de Host AVD com base no CAF (vWAN vs. Hub &amp; Spoke)</t>
         </is>
       </c>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4908,7 +4908,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4916,7 +4916,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4927,27 +4927,27 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que a solução antivírus e anti-malware seja usada</t>
+          <t>Avaliar o posicionamento da VNET e da sub-rede para vários pools de hosts</t>
         </is>
       </c>
       <c r="D85" s="22" t="inlineStr">
         <is>
-          <t>O Microsoft Defender for Endpoint agora suporta o Windows Virtual Desktop para multi-sessão do Windows 10 Enterprise. Verifique o artigo para dispositivos VDI (Virtual Desktop Infrastructure, infraestrutura de desktop virtual não persistente) de onboarding: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t xml:space="preserve">Verifique se cada sub-rede terá espaço suficiente para dimensionar o Pool de Hosts AVD. Para pools de hosts diferentes, é recomendável usar sub-redes separadas, se possível. </t>
         </is>
       </c>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4958,7 +4958,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4977,27 +4977,27 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que as exclusões de AV adequadas estejam no lugar</t>
+          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet para hosts AVD? </t>
         </is>
       </c>
       <c r="D86" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que as seguintes exclusões estão em vigor: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
+          <t>Várias opções estão disponíveis. Você pode usar o Firewall do Azure ou o Firewall NVA, o NSG e/ou o Proxy. O NSG não é capaz de ativar/desabilitar por URL, apenas portas e protocolos. O proxy deve ser usado apenas como configuração explícita no navegador do usuário. Os detalhes sobre como usar o Firewall Premium do Azure com AVD estão aqui no https://aka.ms/AVDfirewall e aqui https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Certifique-se de revisar a lista completa de requisitos para acesso a URLs AVD.</t>
         </is>
       </c>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5008,7 +5008,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://aka.ms/AVDfirewall</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -5016,7 +5016,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5027,27 +5027,27 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Avalie os requisitos de criptografia de disco para hosts AVD</t>
+          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet apenas para usuários em hosts AVD? </t>
         </is>
       </c>
       <c r="D87" s="22" t="inlineStr">
         <is>
-          <t>Os discos no Azure já estão criptografados em repouso por padrão com as chaves gerenciadas pela Microsoft. A criptografia de disco host VM OS é possível e suportada usando ADE e DES: dados de usuário sensíveis e peristent não devem ser armazenados no disco Session Host, então ele deve ser usado apenas se estritamente necessário por motivo de conformidade. A criptografia do armazenamento FSLogix usando arquivos Azure pode ser feita usando SSE no Azure Storage.For OneDrive encryption, consulte este artigo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
+          <t xml:space="preserve">Considere o uso do Ponto de Extremidade do Azure Defender para controlar a navegação na Web do usuário, consulte a seção Segurança para obter mais detalhes. </t>
         </is>
       </c>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5058,7 +5058,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5077,27 +5077,27 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Precisa controlar/restringir a navegação do usuário na Internet dos hosts de sessões AVD?</t>
+          <t>Revise UDR para a sub-rede do Pool de Hosts AVD</t>
         </is>
       </c>
       <c r="D88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere o uso do Azure Defender Endpoint para controlar a navegação web do usuário. </t>
+          <t xml:space="preserve">A UDR personalizada pode ser aplicada à sub-rede do Pool de Hosts AVD, por exemplo, para redirecionar para o Firewall do Azure ou NVA. Neste caso, recomenda-se uma revisão cuidadosa para garantir que o caminho ideal para o tráfego de saída para o plano de controle AVD seja usado. As etiquetas de serviço agora podem ser usadas com UDR e, em seguida, o tráfego do avião de gerenciamento AVD pode ser facilmente colocado na lista de permissões. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
         </is>
       </c>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -5116,7 +5116,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5127,27 +5127,27 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso do Azure Security Center (ASC) para hosts de sessão AVD</t>
+          <t>Garantir que os endpoints do plano de controle AVD estejam acessíveis</t>
         </is>
       </c>
       <c r="D89" s="22" t="inlineStr">
         <is>
-          <t>Recomendamos que você habilite o Azure Security Center Standard para assinaturas, máquinas virtuais, cofres-chave e contas de armazenamento. Com o Azure Security Center Standard é possível avaliar e gerenciar vulnerabilidades, avaliar a conformidade com estruturas comuns como o PCI, fortalecer a segurança geral do seu ambiente AVD.</t>
+          <t>As URLs necessárias para o acesso ao plano de controle AVD por hosts de sessão estão documentadas aqui: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Uma ferramenta de verificação está disponível para verificar a conectividade dos hosts de sessão: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
         </is>
       </c>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5158,7 +5158,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -5166,7 +5166,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5177,27 +5177,27 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Revise gpos ativos do diretório para garantir sessões de RDP</t>
+          <t>Verifique a largura de banda de rede necessária para cada usuário e, no total, para a SKU da VM</t>
         </is>
       </c>
       <c r="D90" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deve ser usado, por exemplo, para impor bloqueio de desktop e término da sessão ociosa. Os GPOs existentes aplicados ao ambiente local devem ser revisados e eventualmente aplicados para garantir também hosts AVD. </t>
+          <t xml:space="preserve">Recomenda-se avaliar e revisar os requisitos de largura de banda de rede para os usuários, com base no tipo de carga de trabalho específico. O artigo referenciado fornece estimativas e recomendações gerais, mas medidas específicas são necessárias para o dimensionamento adequado. </t>
         </is>
       </c>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5208,7 +5208,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -5216,7 +5216,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5232,22 +5232,22 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso de MFA para usuários de AVD</t>
+          <t xml:space="preserve">Certifique-se de que os usuários do AVD não terão privilégios de administrador local nos hosts do AVD. </t>
         </is>
       </c>
       <c r="D91" s="22" t="inlineStr">
         <is>
-          <t>Para obter mais detalhes e insights, consulte este artigo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>Recomendamos que você não conceda aos usuários acesso de administrador a áreas de trabalho virtuais. Se você precisar de pacotes de software, recomendamos disponibilizá-los por meio de utilitários de gerenciamento de configuração, como o Microsoft Endpoint Manager. Em um ambiente de várias sessões, recomendamos que você não permita que os usuários instalem o software diretamente.</t>
         </is>
       </c>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5258,7 +5258,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5266,7 +5266,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5282,22 +5282,22 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso do Acesso Condicional para usuários</t>
+          <t>Certifique-se de que a solução antivírus e antimalware seja usada</t>
         </is>
       </c>
       <c r="D92" s="22" t="inlineStr">
         <is>
-          <t>A ativação do Acesso Condicional permite gerenciar riscos antes de conceder aos usuários acesso ao ambiente de desktop virtual do Windows. Ao decidir a quais usuários conceder acesso, recomendamos que você também considere quem é o usuário, como ele faz login e qual dispositivo eles estão usando.</t>
+          <t>O Microsoft Defender for Endpoint agora oferece suporte a várias sessões da Área de Trabalho Virtual do Windows para Windows 10 Enterprise. Consulte o artigo para integrar dispositivos VDI (infraestrutura de área de trabalho virtual) não persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5316,7 +5316,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5332,22 +5332,22 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Habilite o login de diagnóstico e auditoria no espaço de trabalho central do Log Analytics</t>
+          <t>Certifique-se de que as exclusões AV adequadas estejam em vigor</t>
         </is>
       </c>
       <c r="D93" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A ativação da coleta de log de auditoria permite visualizar a atividade do usuário e do administrador relacionada ao Windows Virtual Desktop. Este também é um requisito para eanble e usar ferramenta de monitoramento AVD. Altamente recomendado para habilitar. </t>
+          <t>Certifique-se de que as seguintes exclusões estão em vigor: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
         </is>
       </c>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avalie a exigência de usar funções de RBAC personalizadas para gerenciamento de AVD </t>
+          <t>Avaliar os requisitos de criptografia de disco para hosts AVD</t>
         </is>
       </c>
       <c r="D94" s="22" t="inlineStr">
         <is>
-          <t>O AVD usa controles de acesso baseados em funções do Azure (RBAC) para atribuir funções aos usuários e administradores. Essas funções dão permissão aos administradores para realizar determinadas tarefas. Se a separação de tarefas for necessária, o Windows Virtual Desktop tem funções adicionais que permitem separar funções de gerenciamento para pools de host, grupos de aplicativos e espaços de trabalho. Essa separação permite que você tenha mais controle granular sobre tarefas administrativas. Essas funções são nomeadas em conformidade com os papéis padrão do Azure e a metodologia de menor privilégio.</t>
+          <t>Os discos no Azure já são criptografados em repouso por padrão com chaves gerenciadas da Microsoft. A criptografia de disco do Host VM OS é possível e suportada usando ADE e DES: dados de usuário sensíveis e peristent não devem ser armazenadosdf no disco Host da Sessão, então eles devem ser usados somente se estritamente necessário por motivo de conformidade. A criptografia do armazenamento FSLogix usando o Arquivos do Azure pode ser feita usando o SSE no Armazenamento do Azure.Para criptografia do OneDrive, consulte este artigo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E94" s="22" t="inlineStr">
@@ -5408,7 +5408,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5416,7 +5416,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Revise todas as práticas recomendadas de segurança para o ambiente AVD</t>
+          <t>Precisa controlar/restringir a navegação do usuário na Internet a partir de hosts de sessão AVD?</t>
         </is>
       </c>
       <c r="D95" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Um conjunto abrangente de práticas e recomendações de segurança estão contidos no artigo referenciado, recomenda-se revisar. </t>
+          <t xml:space="preserve">Considere o uso do Ponto de Extremidade do Azure Defender para controlar a navegação na Web do usuário. </t>
         </is>
       </c>
       <c r="E95" s="22" t="inlineStr">
@@ -5458,7 +5458,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5466,7 +5466,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5477,27 +5477,27 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Habilite o monitoramento do Azure para AVD</t>
+          <t>Avaliar o uso da Central de Segurança do Azure (ASC) para hosts de sessão AVD</t>
         </is>
       </c>
       <c r="D96" s="22" t="inlineStr">
         <is>
-          <t>O Azure Monitor for Windows Virtual Desktop é um painel baseado em Workbooks do Monitor Azure que ajuda os profissionais de TI a entender seus ambientes de Desktop Virtual do Windows. Leia o artigo referenciado para saber como configurar o Azure Monitor for Windows Virtual Desktop para monitorar seus ambientes de desktop virtual do Windows.</t>
+          <t>Recomendamos que você habilite o Azure Security Center Standard para assinaturas, máquinas virtuais, cofres de chaves e contas de armazenamento. Com o Azure Security Center Standard é possível avaliar e gerenciar vulnerabilidades, avaliar a conformidade com estruturas comuns, como PCI, fortalecer a segurança geral do seu ambiente AVD.</t>
         </is>
       </c>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5508,7 +5508,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5516,7 +5516,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5527,22 +5527,22 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Habilite e redirecione as configurações de diagnóstico para espaços de trabalho, pools de host, grupos de aplicativos e VMs de host para log analytics espaço de trabalho</t>
+          <t>Revisar GPOs do Active Directory para proteger sessões RDP</t>
         </is>
       </c>
       <c r="D97" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Windows Virtual Desktop usa o Azure Monitor e o Log Analytics para monitoramento e alertas como muitos outros serviços do Azure. Isso permite que os administradores identifiquem problemas através de uma única interface. O serviço cria registros de atividades para ações tanto do usuário quanto administrativas.  Cada registro de atividade se enquadra nas seguintes categorias: Gerenciamento, Alimentação, Conexões, Registro de Host, Erros, Pontos de Verificação. </t>
+          <t xml:space="preserve">Deve ser usado, por exemplo, para impor bloqueio de área de trabalho e encerramento de sessão ociosa. Os GPOs existentes aplicados ao ambiente local devem ser revisados e, eventualmente, aplicados para proteger também os hosts AVD. </t>
         </is>
       </c>
       <c r="E97" s="22" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5566,7 +5566,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5577,27 +5577,27 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Crie alertas sobre o armazenamento do perfil para serem alertados em caso de alto uso e estrangulamento</t>
+          <t>Avaliar o uso de MFA para usuários de AVD</t>
         </is>
       </c>
       <c r="D98" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consulte o artigo referenciado e este adicional para configurar o monitoramento adequado e alerta para armazenamento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
+          <t>Para obter detalhes e insights adicionais, consulte este artigo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
         </is>
       </c>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5608,7 +5608,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5627,27 +5627,27 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configure a saúde do serviço Azure para alertas de AVD </t>
+          <t>Avaliar o uso do Acesso Condicional para usuários</t>
         </is>
       </c>
       <c r="D99" s="22" t="inlineStr">
         <is>
-          <t>Você pode usar o Azure Service Health para monitorar problemas de serviço e avisos de saúde para o Windows Virtual Desktop. O Azure Service Health pode notificá-lo com diferentes tipos de alertas (por exemplo, e-mail ou SMS), ajudá-lo a entender o efeito de um problema e mantê-lo atualizado à medida que o problema se resolve.</t>
+          <t>A habilitação do Acesso Condicional permite que você gerencie riscos antes de conceder aos usuários acesso ao seu ambiente de Área de Trabalho Virtual do Windows. Ao decidir a quais usuários conceder acesso, recomendamos que você também considere quem é o usuário, como ele entra e qual dispositivo está usando.</t>
         </is>
       </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5658,7 +5658,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5677,27 +5677,27 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Avalie o requisito para o recurso de dimensionamento automático do pool host</t>
+          <t>Habilitar o log de diagnóstico e auditoria no espaço de trabalho central do Log Analytics</t>
         </is>
       </c>
       <c r="D100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A ferramenta de dimensionamento oferece uma opção de automação de baixo custo para clientes que desejam otimizar os custos de VM do host de sessão. Você pode usar a ferramenta de dimensionamento para agendar VMs para iniciar e parar com base nos horários comerciais de Peak e Off-Peak, dimensionar VMs com base no número de sessões por núcleo de CPU, escalar em VMs durante o horário de off-Peak, deixando o número mínimo de VMs de hospedagem de sessão em execução. Ainda não está disponível para o tipo de Pool de Host Pessoal, recomendado ter uma configuração separada para cada pool de host. </t>
+          <t xml:space="preserve">A habilitação da coleta de logs de auditoria permite exibir a atividade do usuário e do administrador relacionada à Área de Trabalho Virtual do Windows. Este também é um requisito para eanble e usar a ferramenta de monitoramento AVD. Altamente recomendado para habilitar. </t>
         </is>
       </c>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5708,7 +5708,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5716,7 +5716,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5727,22 +5727,22 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Verifique periodicamente as recomendações do Azure Advisor para AVD</t>
+          <t xml:space="preserve">Avaliar o requisito de usar funções RBAC personalizadas para gerenciamento de AVD </t>
         </is>
       </c>
       <c r="D101" s="22" t="inlineStr">
         <is>
-          <t>O Azure Advisor analisa suas configurações e telemetria para oferecer recomendações personalizadas para resolver problemas comuns. Com essas recomendações, você pode otimizar seus recursos do Azure para confiabilidade, segurança, excelência operacional, desempenho e custo.</t>
+          <t>O AVD usa RBAC (controles de acesso baseados em função) do Azure para atribuir funções a usuários e administradores. Essas funções dão aos administradores permissão para executar determinadas tarefas. Se a separação de tarefas for necessária, a Área de Trabalho Virtual do Windows terá funções adicionais que permitem separar funções de gerenciamento para pools de hosts, grupos de aplicativos e espaços de trabalho. Essa separação permite que você tenha um controle mais granular sobre as tarefas administrativas. Essas funções são nomeadas em conformidade com as funções padrão do Azure e a metodologia de privilégios mínimos.</t>
         </is>
       </c>
       <c r="E101" s="22" t="inlineStr">
@@ -5758,7 +5758,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5766,7 +5766,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5777,22 +5777,22 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Plano para uma estratégia de gerenciamento de atualização de imagem dourada</t>
+          <t>Revise todas as práticas recomendadas de segurança para o ambiente AVD</t>
         </is>
       </c>
       <c r="D102" s="22" t="inlineStr">
         <is>
-          <t>Prepare uma estratégia para gerenciar atualizações para imagens douradas, por exemplo, para aplicar hotfixes de segurança e/ou atualizar aplicativos instalados dentro da imagem. O Azure Image Builder Service é uma solução de primeira parte para automatizar a compilação e personalização de modelos VMs.ARM pode ser usado para criar novos hosts, e então desativar os antigos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool Abordagem recomendada é criar uma nova piscina lado a lado, mais fácil de reverter, não utilizável para pool dedicadoRe-implantar e aumentar o número de VMs com o modelo ARM também é uma opção viável. Os clientes também podem querer usar métodos de distribuição de software existentes para atualizar a imagem sem reimplantura, para exames com SCCM ou similares.</t>
+          <t xml:space="preserve">Um conjunto abrangente de práticas recomendadas de segurança e recomendações estão contidas no artigo referenciado, recomenda-se revisar. </t>
         </is>
       </c>
       <c r="E102" s="22" t="inlineStr">
@@ -5808,7 +5808,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5827,27 +5827,27 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Planeje uma estratégia de patches e atualização do Host Session Host</t>
+          <t>Determinar qual solução de back-end de armazenamento será usada para FSLogix Profile e Office Containers</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os clientes podem ter várias opções:- Microsoft Endpoint Configuration Manager, este artigo explica como configurar o Microsoft Endpoint Configuration Manager para aplicar automaticamente atualizações em um host de desktop virtual do Windows executando multi-sessão do Windows 10 Enterprise: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)-  3ª Parte que lhe suporta OS.- Azure Update Management (Azure Automation), hoje não suportada para o SO do cliente: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt é recomendado para se afastar de uma estratégia de patches e passar para uma estratégia de re-imagem, se possível. </t>
+          <t xml:space="preserve">Arquivos NetApp do Azure, Arquivos do Azure, Servidor de Arquivos baseado em VM. Servidor de arquivos não recomendado. O Azure Files Premium normalmente é um bom ponto de partida. A NetApp geralmente só é necessária para ambientes de grande escala/alto desempenho. </t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5858,7 +5858,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5866,7 +5866,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5877,22 +5877,22 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Avalie a exigência de um ambiente canário de teste DE AVD</t>
+          <t>Avalie a possibilidade de separar os Contêineres de Perfil dos Contêineres do Office</t>
         </is>
       </c>
       <c r="D104" s="22" t="inlineStr">
         <is>
-          <t>Os grupos host são uma coleção de uma ou mais máquinas virtuais idênticas no ambiente Windows Virtual Desktop. Recomendamos que você crie um pool de host de validação onde as atualizações de serviço são aplicadas primeiro. Isso permite monitorar as atualizações de serviço antes que o serviço as aplique ao seu ambiente padrão ou não de validação.</t>
+          <t xml:space="preserve">A recomendação na Área de Trabalho Virtual do Windows é usar o Contêiner de Perfil sem o Contêiner do Office, a menos que você esteja planejando cenários específicos de BCDR (Business Continuity and Disaster Recovery), conforme descrito na seção Recuperação de Desastres abaixo. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
         </is>
       </c>
       <c r="E104" s="22" t="inlineStr">
@@ -5908,7 +5908,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5916,7 +5916,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5927,27 +5927,27 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Determine a estratégia de implantação do Host Pool</t>
+          <t>Verificar os limites de escalabilidade do armazenamento para dar suporte aos requisitos do Pool de Hosts</t>
         </is>
       </c>
       <c r="D105" s="22" t="inlineStr">
         <is>
-          <t>Um Pool de Host AVD pode ser implantado de várias maneiras: Portal Azure, modelos ARM, ferramenta Azure CLI, Powershell, criação manual de VM com token de registro, Terraform, etc. É importante adotar métodos/s adequados para suportar a implantação automática por meio de ferramentas de automação e CI/CD.</t>
+          <t>Como ponto de partida para estimar os requisitos de desempenho de armazenamento de contêiner de perfil, recomendamos assumir 10 IOPS por usuário no estado estacionário e 50 IOPS por usuário durante a entrada/saída.</t>
         </is>
       </c>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5958,7 +5958,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5966,7 +5966,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5977,22 +5977,22 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Ligue os VMs regularmente a cada 90 dias para atualização de token</t>
+          <t>Se o armazenamento do NetApp Files for usado, verifique a disponibilidade do serviço de armazenamento em sua região específica.</t>
         </is>
       </c>
       <c r="D106" s="22" t="inlineStr">
         <is>
-          <t>Depois de registrar um VM em um pool de host dentro do serviço Windows Virtual Desktop, o agente atualiza regularmente o token do VM sempre que o VM estiver ativo. O certificado para o token de registro é válido por 90 dias. Devido a este limite de 90 dias, recomendamos que os VMs fiquem on-line por 20 minutos a cada 90 dias para que a máquina possa atualizar seus tokens e atualizar o agente e os componentes da pilha lado a lado.</t>
+          <t>Se uma segunda região for necessária para fins de DR, verifique a disponibilidade da NetApp também.</t>
         </is>
       </c>
       <c r="E106" s="22" t="inlineStr">
@@ -6008,7 +6008,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -6016,7 +6016,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -6027,22 +6027,22 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Determine o SLA de alta disponibilidade esperado para aplicativos/desktops publicados através do AVD</t>
+          <t>Para obter o desempenho ideal, a solução de armazenamento e o contêiner de perfil FSLogix devem estar no mesmo local do data center.</t>
         </is>
       </c>
       <c r="D107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O plano de controle AVD não oferece um contrato de nível de serviço apoiado financeiramente. Nós nos esforçamos para alcançar pelo menos 99,9% de disponibilidade para os URLs do serviço windows virtual desktop. A disponibilidade das máquinas virtuais de hospedagem de sessão em sua assinatura é coberta pelo SLA de Máquinas Virtuais. Os recursos/serviços/serviços dependentes e a disponibilidade de infraestrutura também devem ser considerados para satisfazer adequadamente os requisitos globais de alta disponibilidade. </t>
+          <t>Evite introduzir latência e custos adicionais associados ao tráfego de rede entre regiões sempre que possível.</t>
         </is>
       </c>
       <c r="E107" s="22" t="inlineStr">
@@ -6058,7 +6058,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -6066,7 +6066,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6077,22 +6077,22 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Avalie a região de recuperação de desastres geo para piscinas de host AVD</t>
+          <t>Configure as exclusões antivírus recomendadas para o FSLogix (inclui não verificar arquivos VHD(x) na conexão).</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
         <is>
-          <t>O modelo Active-Active pode ser alcançado com vários grupos de host em diferentes regiões. Não é recomendado um único Host Pool com VMs de diferentes regiões. Se vários pools para mesmos usuários serão usados, o problema de como sincronizar/replicar perfis de usuários deve ser resolvido. O FSLogix Cloud Cache pode ser usado, mas precisa ser cuidadosamente revisado e planejado, ou os clientes podem decidir não sincronizar/replicar. 'Ativo-passivo' pode ser alcançado usando a implantação do Azure Site Recovery (ASR) ou do Pool sob demanda com mecanismo automatizado.</t>
+          <t>Certifique-se de configurar as seguintes exclusões de antivírus para discos rígidos virtuais FSLogix Profile Container, conforme documentado no artigo referenciado.</t>
         </is>
       </c>
       <c r="E108" s="22" t="inlineStr">
@@ -6108,7 +6108,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6127,27 +6127,27 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Aplicativos críticos separados em diferentes pools de host AVD</t>
+          <t>Revise as chaves do Registro FSLogix e determine quais devem ser aplicadas</t>
         </is>
       </c>
       <c r="D109" s="22" t="inlineStr">
         <is>
-          <t>Antes de abordar o planejamento e o design do BCDR do Windows Virtual Desktop, é importante considerar inicialmente quais aplicativos são consumidos através do AVD. Você pode querer separá-los de aplicativos não críticos e usar um Host Pool separado com uma abordagem e recursos diferentes de recuperação de desastres.</t>
+          <t xml:space="preserve">As configurações básicas e recomendadas padrão estão aqui: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Veja aqui o conjunto principal: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee aqui para referência completa: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
         </is>
       </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6158,7 +6158,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -6166,7 +6166,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6177,22 +6177,22 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Planeje a melhor opção de resiliência para implantação do POOL DE HOST AVD</t>
+          <t>Verificar o uso de conexões simultâneas ou múltiplas com o mesmo perfil</t>
         </is>
       </c>
       <c r="D110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">? Você selecionou o nível de resiliência adequado para seus VMs de Pool host (Availability Set vs. Availability Zones)?? Você está ciente das implicações no HA SLA e nos limites de escalabilidade que vêm com AS ou AZ? Atualmente, você pode implantar 399 VMs por implantação de modelo DE ARMA de desktop virtual do Windows sem conjuntos de disponibilidade ou 200 VMs por Conjunto de Disponibilidade.? Você pode aumentar o número de VMs por implantação desligando os Conjuntos de Disponibilidade no modelo ARM ou no registro do pool de host do portal Azure. Implantar AZ agora é possível, um AZ no momento, precisa criar manualmente uma fração de VMs em cada AZ desejado. </t>
+          <t>Conexões simultâneas ou múltiplas são desencorajadas na Área de Trabalho Virtual do Windows. A prática recomendada é criar um local de perfil diferente para cada sessão (como um pool de hosts).</t>
         </is>
       </c>
       <c r="E110" s="22" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6227,27 +6227,27 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Avalie a exigência de backup de hosts de sessão AVD</t>
+          <t>Revise as práticas recomendadas e as principais considerações para o dimensionamento do armazenamento</t>
         </is>
       </c>
       <c r="D111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Backup Azure também pode ser usado para proteger VMs do Host Pool, essa prática é suportada, mesmo que os VMs do Host Pool sejam apátridas. Esta opção pode ser considerada para piscinas de host pessoal. </t>
+          <t xml:space="preserve">Como uma estimativa geral, a ser validada em um ambiente de teste, para cada usuário 5 - 15 IOPS devem ser primeiro considerados, dependendo da carga de trabalho. Arquivos do Azure: IOPS máximo de 100k por compartilhamento Premium (máximo de 100TB) e até 5Gbps com latência de 3ms. Esteja ciente de como os Arquivos do Azure são provisionados, ou seja, IOPS estritamente vinculadas ao SIZE provisionado. Capacidade de dimensionamento de burst em alguns casos. Certifique-se de fornecer ao UPFRONT mais espaço do que o necessário para ter certeza de ter IOPS suficiente. NOTA: O Azure Premium talvez seja mais barato do que o Standard porque você não paga transações e, em seguida, detalhes importantes a serem lembrados. Arquivos NetApp do Azure: lembre-se de um máximo de 1000 IPs conectados, pode ajustar IOPS em tempo real, capacidade provisionada mínima de 4 TB. </t>
         </is>
       </c>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6258,14 +6258,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
+          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6276,22 +6276,22 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Avalie quais dados precisam ser protegidos dentro dos Contêineres de Perfil e Escritório</t>
+          <t>Verificar as práticas recomendadas para os Arquivos do Azure (se usados)</t>
         </is>
       </c>
       <c r="D112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nem todos os dados dentro dos perfis de usuários do FSLogix podem merecer proteção contra desastres. Além disso, se o armazenamento externo for usado, por exemplo, o OneDrive ou File Servers/Shares, o que permanece no perfil FSLogix é mínimo e pode ser perdido em algumas circunstâncias extremas. Em outros casos, os dados dentro do perfil podem ser reconstruídos a partir de outros armazenamentos (por exemplo, outlook inbox no modo em cache). </t>
+          <t>Certifique-se de verificar a lista de práticas recomendadas e recomendações descritas no artigo referenciado.</t>
         </is>
       </c>
       <c r="E112" s="22" t="inlineStr">
@@ -6307,7 +6307,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -6315,7 +6315,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6326,22 +6326,22 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Construa uma estratégia de proteção de backup para contêineres de perfil e escritório</t>
+          <t>Verificar as práticas recomendadas para o NetApp Files (se usado)</t>
         </is>
       </c>
       <c r="D113" s="22" t="inlineStr">
         <is>
-          <t>Prevenir a perda de dados para dados críticos do usuário é importante, o primeiro passo é avaliar quais dados precisam ser salvos e protegidos. Se usar o OneDrive ou outro armazenamento externo, salvar dados do Perfil do Usuário e/ou contêineres do Office talvez não seja necessário. O mecanismo apropriado deve ser considerado para fornecer proteção aos dados críticos do usuário. O serviço de backup Azure pode ser usado para proteger dados de contêineres de perfil e escritório quando armazenados nos níveis Padrão e Premium de Arquivos Azure. Instantâneos e políticas de arquivos do Azure NetApp podem ser usados para arquivos do Azure NetApp (todos os níveis).</t>
+          <t>Certifique-se de verificar a lista de práticas recomendadas e recomendações descritas no artigo referenciado.</t>
         </is>
       </c>
       <c r="E113" s="22" t="inlineStr">
@@ -6357,7 +6357,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -6365,7 +6365,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6376,27 +6376,27 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Avalie os requisitos de replicação de armazenamento de contêiner de perfil e a resiliência para fins do BCDR</t>
+          <t>Revise e confirme o tamanho máximo do perfil configurado no FSLogix</t>
         </is>
       </c>
       <c r="D114" s="22" t="inlineStr">
         <is>
-          <t>Em AVD, vários mecanismos e estratégias de replicação podem ser usados para dados de usuários residentes em contêineres FSLogix:? Padrão de perfil #1: Mecanismos nativos de replicação de armazenamento do Azure, por exemplo, replicação GRS padrão de arquivos Azure, replicação transversal de arquivos do Azure ou sincronização de arquivos Azure para servidores de arquivos baseados em VM? O ZRS (Zone Replicated Storage, armazenamento replicado na zona) ou o armazenamento geo replicado (GRS) para arquivos Azure é recomendado.? O LRS com resiliência local só pode ser usado se não for necessária proteção de zona/região.? NOTA: O Azure Files Share Standard é LRS/ZRS/GRS, mas com suporte de 100 TB habilitado apenas LRS/ZRS são suportados. ? Padrão de perfil #2: O FSLogix Cloud Cache é incorporado em mecanismo automático para replicar contêineres entre diferentes (até 4) contas de armazenamento. O Cloud Cache só deve ser usado quando:? O perfil do usuário ou os contêineres do Office necessários para a SLA de alta disponibilidade é fundamental e precisa ser resiliente à falha na região.? A opção de armazenamento selecionada não é capaz de satisfazer os requisitos do BCDR. Por exemplo, com o nível Azure File Share Premium ou o Azure File Share Standard com suporte de arquivo grande ativado, o GRS não está disponível.? Quando a replicação entre armazenamento díspare é necessária.? Padrão de perfil #3: Configure apenas a recuperação geofíslica de desastres para dados de aplicativos e não para dados/recipientes de perfil do usuário: armazene dados importantes de aplicativos em armazenamentos separados, como o OneDrive ou outro armazenamento externo com seu próprio mecanismo de DR incorporado.</t>
+          <t>Os contêineres de perfil têm um tamanho máximo padrão de 30 GB. Se os Contêineres de Perfil grandes estiverem previstos e os clientes quiserem tentar mantê-los pequenos, considere usar o OneDrive para hospedar arquivos do Office 365 fora do perfil FSLogic.</t>
         </is>
       </c>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6407,7 +6407,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09d</t>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6426,22 +6426,22 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Revise a estratégia de DR de arquivos do Azure NetApp</t>
+          <t>Se o FSLogix Cloud Cache for usado, mova o diretório Cache para a unidade temporária.</t>
         </is>
       </c>
       <c r="D115" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: Azure NetApp Files é essencialmente LRS (armazenamento replicado localmente), então você precisa arquitetar algo mais se quiser a replicação entre regiões. A recomendação para cross-region no momento é o NetApp Cloud Sync, replicando-se para outra região do Azure (e NetApp Volume). Backup: Os backups são manuseados por instantâneos, mas não são automáticos, precisam ser agendados usando políticas. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Há um limite máximo de instantâneos (255) por volume conforme documentado aqui: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
+          <t xml:space="preserve">O Cloud Cache usa o disco local como cache e pode gerar muita pressão sobre o disco da VM. Recomendado para aproveitar o poder do disco de VM temporário (e conectado localmente), se possível com base na SKU da VM. </t>
         </is>
       </c>
       <c r="E115" s="22" t="inlineStr">
@@ -6457,14 +6457,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6475,22 +6475,22 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Revisar a estratégia de DR de arquivos Azure</t>
+          <t>Revise o uso do redirecionamento FSLogix.</t>
         </is>
       </c>
       <c r="D116" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: GRS for Azure Files só está disponível com SKU padrão e sem suporte a ações grandes, então não é adequado na maioria dos cenários de clientes. Se for necessária a replicação georreferida, ao usar o Azure File Share Premium, a replicação com o FSLogix Cloud Cache deve ser avaliada ou a resiliência da Zona de Disponibilidade (AZ) da região deve ser considerada. Backup: O Azure Backup suporta totalmente o Azure File Share all SKUs, e é a solução recomendada para proteger os contêineres de perfil. Se usar o OneDrive ou outro armazenamento externo, salvar dados do Perfil do Usuário e/ou contêineres do Office talvez não seja necessário.</t>
+          <t>REDIRECTION.XML arquivo é usado para controlar quais pastas são redirecionadas do contêiner de perfil para a unidade C:. As exclusões devem ser a exceção e nunca devem ser usadas, a menos que a exclusão específica seja completamente compreendida pela pessoa que configura a exclusão. As exclusões devem ser sempre totalmente testadas no ambiente em que se destinam a ser implementadas. A configuração de exclusões pode afetar a funcionalidade, a estabilidade e o desempenho.</t>
         </is>
       </c>
       <c r="E116" s="22" t="inlineStr">
@@ -6506,14 +6506,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6524,27 +6524,27 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Dependências</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Plano para disponibilidade entre regiões de imagem dourada</t>
+          <t>Se o armazenamento dos Arquivos NetApp do Azure for usado, marque a configuração do nome do Site do AD na Conexão do AD.</t>
         </is>
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>Se imagens personalizadas forem usadas para implantar VMs de Pool de Host, é importante garantir que esses artefatos estejam disponíveis em todas as regiões, mesmo que em caso de um grande desastre. O serviço Azure Compute Gallery pode ser usado para replicar imagens em todas as regiões onde um Host Pool é implantado, com armazenamento redundante e em várias cópias.</t>
+          <t>Um Site do Active Directory deve ser criado para o ambiente de rede virtual do Azure onde a sub-rede ANF será criada, e esse nome de site deve ser especificado na propriedade de conexão ANF ao executar o procedimento de associação, conforme explicado no artigo de referência.</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6555,14 +6555,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6573,22 +6573,22 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Dependências</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avaliar dependências de infraestrutura e aplicativos </t>
+          <t>Habilite o SMB multicanal ao usar um compartilhamento de arquivos premium para hospedar contêineres de perfil FSLogix.</t>
         </is>
       </c>
       <c r="D118" s="22" t="inlineStr">
         <is>
-          <t>Se os usuários da infraestrutura AVD precisarem de acesso aos recursos no local, a alta disponibilidade de infraestrutura de rede necessária para se conectar também é crítica e deve ser considerada. A resiliência da infraestrutura de autenticação precisa ser avaliada e avaliada. Os aspectos bcdr para aplicações dependentes e outros recursos precisam ser considerados para garantir a disponibilidade no local dr secundário.</t>
+          <t>O SMB Multichannel permite que os clientes usem várias conexões de rede que proporcionam maior desempenho e, ao mesmo tempo, reduzem o custo de propriedade. O desempenho maior é alcançado por meio da agregação de largura de banda em várias NICs e da utilização do suporte a RSS (Receive Side Scaling) para NICs para distribuir a carga de E/S entre várias CPUs.</t>
         </is>
       </c>
       <c r="E118" s="22" t="inlineStr">
@@ -6604,7 +6604,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/en-us/azure/storage/files/storage-files-smb-multichannel-performance</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6612,7 +6612,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6623,41 +6623,45 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t xml:space="preserve">Host da Sessão </t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
-        </is>
-      </c>
-      <c r="D119" s="22" t="n"/>
+          <t xml:space="preserve">Determinar que tipo de disco gerenciado será usado para os hosts de sessão  </t>
+        </is>
+      </c>
+      <c r="D119" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HDD padrão, SSD padrão ou SSD Premium, discos efêmeros não são suportados, Ultra-Discos não recomendados. Recomendado para avaliar o disco Premium para OS se a densidade do usuário não for baixa e se você for usar o Cloud Cache. </t>
+        </is>
+      </c>
       <c r="E119" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6695,7 +6699,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6703,7 +6707,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6714,17 +6718,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6741,19 +6745,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6789,13 +6789,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6831,21 +6839,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6895,7 +6895,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6933,19 +6933,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6983,19 +6983,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7033,19 +7033,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7083,19 +7083,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7133,14 +7133,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7161,13 +7166,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7178,14 +7183,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7206,7 +7211,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7223,14 +7228,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7268,14 +7273,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7313,14 +7318,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7358,14 +7363,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7386,7 +7391,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7403,14 +7408,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7448,14 +7453,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7476,7 +7481,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7493,14 +7498,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7538,14 +7543,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7583,14 +7588,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7601,23 +7606,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7628,14 +7633,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7646,17 +7651,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7673,14 +7678,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7701,13 +7706,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7718,14 +7723,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7763,14 +7768,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7815,7 +7820,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7836,7 +7841,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7860,7 +7865,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7881,7 +7886,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7905,7 +7910,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7926,7 +7931,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7943,14 +7948,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7971,7 +7976,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7995,7 +8000,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8085,7 +8090,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8123,14 +8128,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8146,18 +8151,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8168,14 +8173,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8191,12 +8196,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8213,14 +8218,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8241,13 +8246,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8265,7 +8270,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8303,14 +8308,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8331,7 +8336,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8355,7 +8360,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8376,13 +8381,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8400,7 +8405,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8421,7 +8426,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8445,7 +8450,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8466,13 +8471,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8490,7 +8495,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8535,7 +8540,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8573,14 +8578,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8618,14 +8623,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8641,12 +8646,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8663,14 +8668,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8686,12 +8691,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8708,14 +8713,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8753,14 +8758,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8798,14 +8803,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8843,14 +8848,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8871,7 +8876,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8888,14 +8893,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8933,14 +8938,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8961,7 +8966,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8985,7 +8990,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -9023,14 +9028,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9039,360 +9044,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10950,7 +11675,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11034,7 +11759,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11090,26 +11815,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11220,7 +11963,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este cheque ainda não foi examinado.</t>
+          <t>Esta verificação ainda não foi analisada</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11257,7 +12000,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Há um item de ação associado a este cheque</t>
+          <t>Há um item de ação associado a essa verificação</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -11294,7 +12037,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta verificação foi verificada, e não há mais itens de ação associados a ele</t>
+          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11326,7 +12069,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
+          <t>Recomendação entendida, mas não necessária pelos requisitos atuais</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11358,7 +12101,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não é aplicável para o design atual</t>
+          <t>Não aplicável ao projeto atual</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -11392,7 +12135,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/avd_checklist.pt.xlsx
+++ b/spreadsheet/avd_checklist.pt.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Análise de desktop virtual do Azure</t>
+          <t>Azure Virtual Desktop Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,22 +1095,22 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Determine em que as piscinas de host avd da região do Azure/do Azure serão implantadas</t>
+          <t>Determinar o SLA de alta disponibilidade esperado para aplicativos/desktops publicados por meio do AVD</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O AVD é um serviço não regional, os Grupos de Host podem ser criados em qualquer região, o redirecionamento automático do front-end mais próximo acontecerá automaticamente. </t>
+          <t xml:space="preserve">O plano de controle AVD não oferece um contrato de nível de serviço com suporte financeiro. Nós nos esforçamos para obter pelo menos 99,9% de disponibilidade para as URLs de serviço de Área de Trabalho Virtual do Windows. A disponibilidade das máquinas virtuais do host de sessão em sua assinatura é coberta pelo SLA de Máquinas Virtuais. Recursos/serviços dependentes e disponibilidade de infraestrutura também devem ser considerados para satisfazer adequadamente os requisitos globais de alta disponibilidade. </t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,22 +1145,22 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Determine se a conectividade híbrida é necessária para se conectar ao ambiente local</t>
+          <t>Avaliar a região de recuperação de desastres geográficos para pools de hosts AVD</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se necessário para se conectar ao ambiente local, avalie a opção de conectividade atual ou planeje a conectividade necessária. </t>
+          <t>O modelo Active-Active' pode ser alcançado com vários pools de hosts em diferentes regiões. Um único Pool de Hosts com VMs de diferentes regiões não é recomendado. Se vários pools para os mesmos usuários forem usados, o problema de como sincronizar/replicar perfis de usuário deverá ser resolvido. O FSLogix Cloud Cache pode ser usado, mas precisa ser cuidadosamente revisado e planejado, ou os clientes podem decidir não sincronizar/replicar. 'Ativo-Passivo' pode ser alcançado usando o Azure Site Recovery (ASR) ou a implantação de Pool sob demanda com mecanismo automatizado.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,27 +1195,27 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Você avaliou a latência entre a localização dos usuários e a infraestrutura avd do Azure?</t>
+          <t>Separe aplicativos críticos em diferentes pools de hosts AVD</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Execute a ferramenta 'Windows Virtual Desktop Experience Estimator' para selecionar a melhor região do Azure para implantar Host Pools. Além da latência de 150m, a experiência do usuário pode não ser a ideal. </t>
+          <t>Antes de abordar o planejamento e o design do BCDR da Área de Trabalho Virtual do Windows, é importante considerar inicialmente quais aplicativos são consumidos por meio do AVD são críticos. Talvez você queira separá-los de aplicativos não críticos e usar um Pool de Hosts separado com uma abordagem e recursos de recuperação de desastres diferentes.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,27 +1245,27 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Determine a localização dos metadados para o serviço AVD</t>
+          <t>Planejar a melhor opção de resiliência para a implantação do Pool de Hosts AVD</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os metadados da loja AVD apenas para executar o serviço em locais geográficos específicos, determinar o que está disponível hoje e se for adequado com base nas necessidades do cliente. </t>
+          <t xml:space="preserve">? Você selecionou o nível de resiliência adequado para suas VMs de Pool de Hosts (Conjunto de Disponibilidade vs. Zonas de Disponibilidade)?? Você está ciente das implicações no SLA de HA e nos limites de escalabilidade que acompanham o AS ou o AZ? Atualmente, você pode implantar 399 VMs por implantação de modelo ARM da Área de Trabalho Virtual do Windows sem Conjuntos de Disponibilidade ou 200 VMs por Conjunto de Disponibilidade.? Você pode aumentar o número de VMs por implantação desativando os Conjuntos de Disponibilidade no modelo ARM ou no registro do pool de hosts do portal do Azure. A implantação do AZ agora é possível, um AZ de cada vez no momento, precisa criar manualmente uma fração de VMs em cada AZ desejada. </t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,27 +1295,27 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Verifique as cotas do Azure e a disponibilidade para tamanhos de VM específicos nas regiões selecionadas</t>
+          <t>Avaliar o requisito para fazer backup de hosts de sessão AVD</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique se há SKUs VM específicos, especialmente se você precisa de GPU ou SKUs de alta especificação e, eventualmente, disponibilidade de arquivos do Azure NetApp, se usado. </t>
+          <t xml:space="preserve">O Backup do Azure também pode ser usado para proteger VMs de Pool de Hosts, essa prática é suportada, mesmo que as VMs de Pool de Hosts devam ser sem monitoração de estado. Essa opção pode ser considerada para Pools de Host Pessoais. </t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1326,7 +1326,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,27 +1345,27 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Dependências</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Verifique a disponibilidade da Zona de Disponibilidade (AZ) na região selecionada</t>
+          <t>Planejar a disponibilidade da Golden Image em várias regiões</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>Consulte a seção BCDR para obter mais detalhes.</t>
+          <t>Se imagens personalizadas forem usadas para implantar VMs do Pool de Hosts do AVD, é importante garantir que esses artefatos estejam disponíveis em todas as regiões, mesmo que em caso de um grande desastre. O serviço Galeria de Computação do Azure pode ser usado para replicar imagens em todas as regiões onde um Pool de Hosts é implantado, com armazenamento redundante e em várias cópias.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1376,7 +1376,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,22 +1395,22 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Dependências</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Avalie quantos usuários se conectarão ao AVD e de quais regiões</t>
+          <t xml:space="preserve">Avalie as dependências de infraestrutura e aplicativos </t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para o planejamento e implantação adequados, é importante fazer o máximo número de usuários e as sessões simultâneas médias. </t>
+          <t>Se os usuários da infraestrutura AVD precisarem de acesso a recursos locais, a alta disponibilidade da infraestrutura de rede necessária para se conectar também é crítica e deve ser considerada. A resiliência da infraestrutura de autenticação precisa ser avaliada e avaliada. Os aspectos do BCDR para aplicativos dependentes e outros recursos precisam ser considerados para garantir a disponibilidade no local de DR secundário.</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1445,22 +1445,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Determine se todos os usuários terão o mesmo conjunto de aplicativos e/ou diferentes configurações do Host Pool e/ou imagens do SISTEMA OPERACIONAL</t>
+          <t>Avaliar quais dados precisam ser protegidos dentro dos contêineres de perfil e do Office</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mutiple Host Pools talvez necessário para suportar diferentes conjuntos de usuários, é recomendável estimar quantos serão necessários. </t>
+          <t xml:space="preserve">Nem todos os dados dentro dos perfis de usuário do FSLogix podem merecer proteção contra desastres. Além disso, se o armazenamento externo for usado, por exemplo, OneDrive ou Servidores/Compartilhamentos de Arquivos, o que resta no perfil FSLogix é mínimo e pode ser perdido em algumas circunstâncias extremas. Em outros casos, os dados dentro do perfil podem ser recriados a partir de outros armazenamentos (por exemplo, a Caixa de Entrada do Outlook no modo em cache). </t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1476,7 +1476,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1495,27 +1495,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Avalie as dependências externas de cada Pool de Host</t>
+          <t>Criar uma estratégia de proteção de backup para contêineres de perfil e do Office</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>As dependências de recursos externos ao pool AVD devem ser avaliadas e revisadas, por exemplo, Active Directory, compartilhamentos externos de arquivos ou outros armazenamentos, serviços e recursos no local, componentes de infraestrutura de rede como VPN e ou Express Route, serviços externos e componentes de terceiros. Para todos esses recursos, a latência do Pool de Host AVD precisa ser avaliada e a conectividade considerada. Além disso, as considerações do BCDR também precisam ser aplicadas a essas dependências.</t>
+          <t>Evitar a perda de dados para dados críticos do usuário é importante, o primeiro passo é avaliar quais dados precisam ser salvos e protegidos. Se estiver usando o OneDrive ou outro armazenamento externo, talvez não seja necessário salvar dados de Perfil de usuário e/ou Contêineres do Office. Deve ser considerado um mecanismo adequado para fornecer proteção aos dados críticos do usuário. O serviço de Backup do Azure pode ser usado para proteger os dados de Perfil e Contêineres do Office quando armazenados nas camadas Padrão e Premium do Azure Files. Os Instantâneos e Políticas de Arquivos NetApp do Azure podem ser usados para Arquivos NetApp do Azure (todas as camadas).</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,22 +1545,22 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Revise o sistema operacional usado do cliente e o tipo de cliente AVD</t>
+          <t>Avaliar os requisitos de replicação e resiliência do armazenamento de contêiner de perfil para fins de BCDR</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Revise as limitações de cada cliente e compare várias opções quando possível.</t>
+          <t>No AVD, vários mecanismos e estratégias de replicação podem ser usados para dados do usuário que residem em contêineres FSLogix:? Padrão de Perfil #1: Mecanismos nativos de replicação de armazenamento do Azure, por exemplo, replicação GRS do Azure Files Standard, Replicação entre Regiões de Arquivos NetApp do Azure ou Sincronização de Arquivos do Azure para servidores de arquivos baseados em VM? É recomendável usar o ZRS (Armazenamento Replicado de Zona) ou o GRS (Armazenamento Replicado Geo) para Arquivos do Azure.Use Zone Replicated Storage (ZRS) or Geo replicated storage (GRS) for Azure Files é recomendado.? O LRS com resiliência apenas local pode ser usado se nenhuma proteção de zona/região for necessária.? NOTA: O Padrão de Compartilhamento de Arquivos do Azure é LRS/ZRS/GRS, mas com suporte grande de 100 TB habilitado, somente o LRS/ZRS é suportado. ? Padrão de perfil #2: O FSLogix Cloud Cache é criado em mecanismo automático para replicar contêineres entre diferentes (até 4) contas de armazenamento. O Cloud Cache deve ser usado somente quando:? A disponibilidade de dados de perfis de usuário ou contêineres do Office exigida SLA de alta disponibilidade é crítica e precisa ser resiliente a falhas na região.? A opção de armazenamento selecionada não é capaz de atender aos requisitos de BCDR. Por exemplo, com a camada Premium do Compartilhamento de Arquivos do Azure ou o Padrão de Compartilhamento de Arquivos do Azure com Suporte a Arquivos Grandes habilitado, o GRS não está disponível.? Quando a replicação entre armazenamentos diferentes é necessária.? Padrão de perfil #3: Configure apenas a recuperação de desastres geográficos para dados de aplicativos e não para contêineres de dados/perfis de usuários: armazene dados importantes de aplicativos em armazenamentos separados, como o OneDrive ou outro armazenamento externo com seu próprio mecanismo de DR interno.</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,27 +1595,27 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Verifique os requisitos de licenciamento</t>
+          <t>Revise a estratégia de DR do Azure NetApp Files</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Os clientes que estão devidamente licenciados para executar cargas de trabalho do Windows Virtual Desktop são elegíveis para aplicar uma licença do Windows em suas máquinas virtuais de host de sessão e executá-las sem pagar por outra licença.</t>
+          <t>Geo Disaster Recovery: O Azure NetApp Files é essencialmente LRS (armazenamento replicado localmente), então você precisa arquitetar algo mais se quiser replicação entre regiões. A recomendação para várias regiões no momento é o NetApp Cloud Sync, replicando para outra região do Azure (e NetApp Volume). Backup: Os backups são tratados por instantâneos, mas não são automáticos, precisam ser agendados usando políticas. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Há um limite máximo de instantâneos (255) por volume, conforme documentado aqui: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1645,27 +1645,27 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Execute um PoC para testar a experiência do usuário de ponta a ponta para verificar o impacto causado pela latência da rede</t>
+          <t>Revise a estratégia de DR do Azure Files</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dependendo das localizações do usuário e da implantação da região AVD, os usuários podem ter uma experiência não ideal, por isso é importante testar o mais rápido possível em um pequeno ambiente PoC. </t>
+          <t>Recuperação de desastres geográficos: o GRS para Arquivos do Azure só está disponível com SKU padrão e sem suporte a compartilhamento grande, não sendo adequado na maioria dos cenários de clientes. Se a replicação geográfica for necessária, ao usar o Azure File Share Premium, a replicação com o FSLogix Cloud Cache deve ser avaliada ou a resiliência somente da Zona de Disponibilidade (AZ) 'na região' deve ser considerada. Backup: o Backup do Azure dá suporte total ao Compartilhamento de Arquivos do Azure em todas as SKUs e é a solução recomendada para proteger os Contêineres de Perfil. Se estiver usando o OneDrive ou outro armazenamento externo, talvez não seja necessário salvar dados de Perfil de usuário e/ou Contêineres do Office.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1695,27 +1695,27 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine se os usuários acessarão o AVD usando desktops completos e/ou aplicativos remotos </t>
+          <t>Determinar como os aplicativos serão implantados nos pools de hosts do AVD</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine se os usuários serão oferecidos desktops completos e/ou grupos de aplicativos remotos. </t>
+          <t>Os aplicativos podem ser pré-instalados na(s) imagem(ns) dourada(s), podem ser anexados usando o recurso MSIX &amp; AppAttach ou distribuindo para hosts após a implantação do pool usando métodos tradicionais de distribuição de SW.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1726,7 +1726,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,27 +1745,27 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Todos os usuários terão as mesmas configurações de RDP? </t>
+          <t>Estimar o número de imagens douradas que serão necessárias</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>As configurações de RDP atualmente só podem ser configuradas no nível do pool host, não por usuário/grupo.</t>
+          <t>Eles usarão mascaramento de aplicativos fslogix, que se prestariam a uma única imagem, ou várias imagens com diferentes aplicativos embutidos: o que é necessário mais de uma imagem para ser usada?</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,22 +1795,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Avalie o RDP ShortPath para clientes conectados a partir de redes internas gerenciadas</t>
+          <t>Determine qual(is) imagem(ns) do sistema operacional você usará para a implantação do Pool de Hosts</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>RdP Shortpath para redes gerenciadas é um recurso do Azure Virtual Desktop que estabelece um transporte direto baseado em UDP entre o cliente de desktop remoto e o host Session. A remoção do relé extra reduz o tempo de ida e volta, o que melhora a experiência do usuário com aplicativos sensíveis à latência e métodos de entrada. Para suportar o RDP Shortpath, o cliente do Azure Virtual Desktop precisa de uma linha de visão direta para o host da sessão, e deve estar executando o Windows 10 ou o Windows 7 e ter o cliente do Windows Desktop instalado.</t>
+          <t>Determine qual sistema operacional convidado será usado para implantar cada Pool de Hosts: Windows 10 versus Windows Server, Marketplace versus Imagens personalizadas</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1826,7 +1826,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,27 +1845,27 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Determine o tipo de pool host a ser usado</t>
+          <t>Se uma imagem personalizada for usada, determine se há um processo de compilação automatizado?</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Compartilhado/Pooled ou Dedicado/Pessoal</t>
+          <t xml:space="preserve">Se não houver nada, considere usar o Construtor de Imagens do Azure para automatizar o processo de compilação. </t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1876,7 +1876,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46e-a5b8-6ad88844ce3b2</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1895,27 +1895,27 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Para o tipo de pool de host pessoal, decida sobre o tipo de atribuição</t>
+          <t>Se uma imagem personalizada for usada, existe um plano para organizar e gerenciar o ciclo de vida de suas imagens?</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Confirme que a diferença entre atribuição automática e direta é bem compreendida e a opção selecionada é apropriada para o cenário em questão.</t>
+          <t>Avalie a Galeria de Computação do Azure.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1926,7 +1926,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1945,22 +1945,22 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Para o tipo pool pooled host pool, decida sobre o método de balanceamento de carga</t>
+          <t>Se a imagem personalizada for usada, verifique as práticas recomendadas para AVD sobre como criar uma imagem mestra</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique quais usar e opções disponíveis, esteja ciente de que, se o autoscalamento for usado, ele define-o como primeiro. </t>
+          <t xml:space="preserve">Existem algumas práticas recomendadas conhecidas e recomendações para a personalização da imagem dourada, certifique-se de verificar o artigo referenciado. </t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1976,7 +1976,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1995,27 +1995,27 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estime o número de diferentes pools de host para implantar </t>
+          <t>Avaliar o uso do Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Com base em seus critérios de seleção, quantos Pools de Hospedagem você precisaria? Você deve considerar ter vários se:? Várias imagens do SISTEMA OPERACIONAL? Várias regiões? HW diferente necessário? Tipo de pool de host diferente (compartilhado vs. pessoal)? Diferentes requisitos de usuário e SLA (Principais usuários, Executivos, Office Worker vs. Developers, etc.)? Diferentes configurações rdp (aplicadas no nível do Host Pool), veja https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número necessário de VMs no pool de host excedendo capacidades máximas</t>
+          <t xml:space="preserve">Este conjunto de ferramentas foi criado para aplicar automaticamente a configuração referenciada no white paper 'Otimizando o Windows 10, versão 2004 para uma função de VDI (Virtual Desktop Infrastructure)': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. O uso da ferramenta e/ou otimizações mencionadas no white-paper devem ser considerados. </t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2026,7 +2026,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2045,27 +2045,27 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Execute o teste de desempenho da carga de trabalho para determinar o melhor Azure VM SKU e tamanho a usar (determine o número de hosts por pool)</t>
+          <t>Planejar/avaliar a estratégia de gerenciamento de configuração do AVD Session Host</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Use o link fornecido para definir um ponto de partida para a decisão do SKU e, em seguida, valide usando um teste de desempenho. Certifique-se de que um mínimo de 4 núcleos para produção seja selecionado por Host de Sessão (multi-sessão)</t>
+          <t>Determine se uma ferramenta de gerenciamento de configuração já está em vigor para gerenciar a configuração da VM do Pool de Hosts após a implantação inicial, por exemplo, SCCM, MEM/Intune, GPO, soluções de 3rd-party.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2076,14 +2076,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2094,27 +2094,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Verifique os limites de escalabilidade do AVD para o ambiente</t>
+          <t>Determine se o Microsoft OneDrive fará parte da implantação do AVD</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">É fundamental verificar a capa da AVD e os limites relatados no artigo referenciado. </t>
+          <t>Revise o artigo fornecido e verifique se os recursos do OneDrive 'Redirecionamento de Pasta Conhecida' e 'Arquivos sob Demanda' devem ser considerados e, eventualmente, adotados.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2125,14 +2125,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2143,22 +2143,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Determine se os hosts de sessão exigirão GPU</t>
+          <t>Determine se o Microsoft Teams fará parte da implantação do AVD</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os Grupos host com GPU exigem configuração especial, por favor, certifique-se de revisar o artigo referenciado. </t>
+          <t>Certifique-se de revisar este artigo e usar a versão mais recente, revisar e avaliar as exclusões do Teams para reduzir o tamanho do perfil.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2174,14 +2174,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2192,27 +2192,27 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Recomendado para usar SKUs VM capazes de aproveitar o recurso de rede acelerada no Azure.</t>
+          <t xml:space="preserve">Não use a mesma conta/compartilhamento de armazenamento que os contêineres de perfil/Office </t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sempre que possível, recomenda-se aproveitar as SKUs VM com o recurso Accelerated Networking. Hoje, o sistema operacional Windows Server é suportado (veja lista no artigo), no futuro Windows Client OS talvez também incluído. </t>
+          <t xml:space="preserve">É altamente recomendável usar contas/compartilhamentos de armazenamento separados para armazenar pacotes MSIX. Se necessário, o armazenamento pode ser dimensionado de forma independente e não ser afetado por atividades de E/S de perfil. O Azure oferece várias opções de armazenamento que podem ser usadas para anexação de aplicativo MISX. Recomendamos o uso do Azure Files ou do Azure NetApp Files, pois essas opções oferecem o melhor valor entre custo e sobrecarga de gerenciamento. </t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2223,14 +2223,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,22 +2241,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Um inquilino do Azure Active Directory deve estar disponível com pelo menos uma assinatura vinculada</t>
+          <t>Analisar as considerações de desempenho para o MSIX</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Uma assinatura do Azure deve ser parental para o mesmo inquilino do Azure AD, que contém uma rede virtual que contém ou está conectada à instância do Windows Server Active Directory ou do Azure AD DS.</t>
+          <t>No artigo referenciado, relatamos poucas, mas importantes considerações de desempenho para o uso de MSIX no contexto da AVD, certifique-se de revisar cuidadosamente.</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2272,14 +2272,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2290,27 +2290,27 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Um diretório ativo do Windows Server está em sincronia com o Diretório Ativo do Azure</t>
+          <t>Verifique as permissões de host de sessão adequadas para o compartilhamento MSIX</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Você pode configurá-lo usando o Azure AD Connect (para organizações híbridas) ou os Serviços de Domínio Azure (para organizações híbridas ou em nuvem).</t>
+          <t>A anexação de aplicativo MSIX requer permissões somente leitura para acessar o compartilhamento de arquivos. Se você estiver armazenando seus aplicativos MSIX nos Arquivos do Azure, para seus hosts de sessão, precisará atribuir a todas as VMs de host de sessão permissões RBAC (controle de acesso baseado em função) de conta de armazenamento e NTFS (Sistema de Arquivos de Nova Tecnologia) no compartilhamento.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2321,7 +2321,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2340,22 +2340,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Verifique os requisitos da Conta do Usuário para se conectar à área virtual do Windows</t>
+          <t>Pacotes MSIX para aplicativos 3rd-party</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>(1) O usuário deve ser originado do mesmo Active Directory conectado ao Azure AD. O Windows Virtual Desktop não suporta contas B2B ou MSA. (2) O UPN que você usa para assinar o Windows Virtual Desktop deve existir no domínio Active Directory ao que o VM está aderido.</t>
+          <t>O fornecedor de software de 3ª parte deve fornecer um pacote MSY, não é recomendável que o cliente tente o procedimento de conversão sem o suporte adequado do proprietário do aplicativo.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2371,7 +2371,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2390,27 +2390,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Verifique os requisitos de VM para hosts de sessão AVD que serão criados</t>
+          <t>Desabilitar a atualização automática para pacotes MSIX</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>Os VMs devem ser de domínio padrão ou híbridos unidos por AD. Máquinas virtuais não podem ser aderidas ao Azure AD.</t>
+          <t>A anexação de aplicativo MSIX não oferece suporte à atualização automática para aplicativos MSIX e, em seguida, deve ser desabilitada.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2421,7 +2421,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2440,27 +2440,27 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antes de usar os Azure Active Directory Domain Services (AAD-DS) para AVD, certifique-se de rever as limitações. </t>
+          <t>Revisar o suporte a sistemas operacionais</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Compare os serviços de domínio do Active Directory auto-gerenciados, o Azure Active Directory e o gerenciado Azure Active Directory Domain Services</t>
+          <t>Para aproveitar o MSIX &amp; App Attach, a imagem do sistema operacional convidado para o pool de hosts AVD deve ser Windows 10 Enterprise ou Windows 10 Enterprise Multi-session, versão 2004 ou posterior.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2471,7 +2471,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2490,22 +2490,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Host da Sessão</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Crie pelo menos dois DCs (Active Directory Domain Controllers, controladores de domínio ativos) no ambiente Azure VNET perto do POOL DE HOST AVD</t>
+          <t>Avaliar o uso da VM Gen2 para implantação do Pool de Hosts</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os DCs de AD no Azure são recomendados para reduzir a latência para os usuários que fazem login em hosts de sessão AVD e, eventualmente, para arquivos do Azure NetApp e integração de AD. ADC precisa ser capaz de falar com DCs para TODOS os domínios infantis. Como alternativa, a conectividade no local deve ser usada para atingir DCs AD. </t>
+          <t>Depois de selecionada a SKU da VM que será usada para a implantação do Pool de Hosts, recomenda-se usar o tipo Gen2 da SKU para maior segurança e recursos aprimorados.</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2529,7 +2529,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2540,27 +2540,27 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Crie um OU específico no Diretório Ativo para cada Pool host</t>
+          <t>Determinar o tipo de Pool de Hosts a ser usado</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomendado para criar um OU separado por Host Pool sob uma hierarquia de OU separada. Estes OUs conterão contas de máquinas de hosts de sessão AVD. </t>
+          <t>Compartilhado/Agrupado ou Dedicado/Pessoal</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,22 +2590,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Revise o GPO de domínio que será aplicado ao OU e impactando as funcionalidades VM do Host Pool</t>
+          <t>Para o tipo de Pool de Hosts Pessoais, decida sobre o tipo de atribuição</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revise cuidadosamente e, eventualmente, bloqueie/filtre a herança de GPOs para as OUs que contêm pools de host AVD. </t>
+          <t>Confirme se a diferença entre atribuição automática e direta é bem compreendida e que a opção selecionada é apropriada para o cenário em questão.</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2621,7 +2621,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2629,7 +2629,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2640,22 +2640,22 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Crie uma conta de usuário dedicada com apenas permissões para se juntar ao VM ao domínio</t>
+          <t>Para o tipo Pool de Hosts em Pool, decida sobre o método de balanceamento de carga</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomendado ter uma conta dedicada específica com permissões específicas, e sem a limitação padrão 10 se junta. </t>
+          <t xml:space="preserve">Verifique qual deles usar e as opções disponíveis, esteja ciente de que, se o dimensionamento automático for usado, ele o definirá como amplitude primeiro. </t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -2671,7 +2671,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2679,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2690,27 +2690,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Crie um grupo de usuários de domínio para cada conjunto de usuários que terá acesso a cada Grupo de Aplicativos do Pool host (DAG ou RAG)</t>
+          <t xml:space="preserve">Estimar o número de pools de hosts diferentes a serem implantados </t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evite conceder acesso por usuário, em vez disso, use grupos de AD e replique-os usando ADC no Azure AD. </t>
+          <t>Com base em seus critérios de seleção, quantos Pools de Hosts você precisaria? Você deve considerar ter vários se:? Várias imagens do sistema operacional? Várias regiões? Diferente HW necessário? Tipo diferente de Pool de Hosts (compartilhado versus pessoal)? Diferentes requisitos de usuário e SLA (Principais usuários, Executivos, Office Worker vs. Desenvolvedores, etc.)? Diferentes configurações de RDP (aplicadas no nível do Pool de Hosts), consulte https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número necessário de VMs no pool de hosts que excede os recursos máximos</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2721,7 +2721,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2729,7 +2729,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2740,27 +2740,27 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Revise sua política de expiração de senha da organização para contas usadas pela integração do Azure Files AD</t>
+          <t>Execute o teste de desempenho da carga de trabalho para determinar a melhor SKU e o tamanho da VM do Azure a serem usados (determine o número de hosts por pool)</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Como parte do procedimento para integrar o Azure File Share e o Active Directory authenticaton, uma conta AD para representar a conta de armazenamento (compartilhamento de arquivos) será criada. Você pode optar por se registrar como uma conta de computador ou conta de logon de serviço, consulte FAQ para obter detalhes. Para contas de computador, há uma idade de validade de senha padrão definida em A em 30 dias. Da mesma forma, a conta de logon do serviço pode ter uma idade de validade de senha padrão definida no domínio AD ou unidade organizacional (OU). Para ambos os tipos de conta, recomendamos que você verifique a idade de validade da senha configurada em seu ambiente de AD e planeje atualizar a senha da identidade da sua conta de armazenamento da conta AD antes da idade máxima da senha. Você pode considerar a criação de uma nova Unidade Organizacional (OU) AD em AD e desativar a política de expiração de senha em contas de computador ou contas de logon de serviço de acordo.</t>
+          <t>Use o link fornecido para definir um ponto de partida para a decisão de SKU e, em seguida, valide usando um teste de desempenho. Certifique-se de que um mínimo de 4 núcleos para Produção seja selecionado por Host da Sessão (várias sessões)</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2771,7 +2771,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2779,7 +2779,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a33</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2790,27 +2790,27 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Revise a arquitetura híbrida de conectividade para ambiente local</t>
+          <t>Verificar os limites de escalabilidade do AVD para o ambiente</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>Que tipo de conectividade híbrida? Rota expressa, VPN, NVA?</t>
+          <t xml:space="preserve">É fundamental verificar a capacidade e os limites de AVD relatados no artigo referenciado. </t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2821,7 +2821,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2829,7 +2829,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2840,22 +2840,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Avalie quais recursos os usuários precisarão acessar desde os Pools de Host DO AVD até os locais</t>
+          <t>Determine se os hosts de sessão exigirão GPU</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avalie os requisitos de largura de banda, garanta que a largura de banda VPN/ER seja suficiente e a latência tolerável. </t>
+          <t xml:space="preserve">Pools de hosts com GPU exigem configuração especial, por favor, certifique-se de rever o artigo referenciado. </t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2871,7 +2871,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2879,7 +2879,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2890,27 +2890,27 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Revise a topologia de rede da zona de pouso para o serviço AVD</t>
+          <t>Recomendado o uso de SKUs de VM capazes de aproveitar o recurso de Rede Acelerada no Azure.</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Revise ou recomende um novo onde colocar piscinas de host AVD com base no CAF (vWAN vs. Hub &amp; Spoke)</t>
+          <t xml:space="preserve">Sempre que possível, recomenda-se aproveitar as SKUs de VM com o recurso de Rede Acelerada. Hoje pnly Windows Server OS são suportados (veja a lista no artigo), no futuro Windows Client OS também pode incluído. </t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2921,7 +2921,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2929,7 +2929,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2940,22 +2940,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Avalie a colocação de VNET e sub-rede para vários pools host</t>
+          <t>Avalie quantos usuários se conectarão ao AVD e de quais regiões</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que cada sub-rede terá espaço suficiente para dimensionar o POOL DE HOST AVD. Para diferentes pools host, recomenda-se usar sub-redes separadas, se possível. </t>
+          <t xml:space="preserve">Para um planejamento e implantação adequados, é importante avaliar o número máximo de usuários e a média de sessões simultâneas. </t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2971,14 +2971,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2989,22 +2989,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet para hosts AVD? </t>
+          <t>Determine se todos os usuários terão o mesmo conjunto de aplicativos e/ou diferentes configurações do Pool de Hosts e/ou imagens do sistema operacional</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>Várias opções estão disponíveis. Você pode usar o Azure Firewall ou NVA Firewall, NSG e/ou Proxy. O NSG não é capaz de ativar/desativar por URL, apenas portas e protocolos. O proxy deve ser usado apenas como configuração explícita no navegador do usuário. Detalhes sobre o uso do Azure Firewall Premium com AVD estão aqui no https://aka.ms/AVDfirewall e aqui https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Certifique-se de revisar a lista completa de requisitos para acesso aos URLs AVD.</t>
+          <t xml:space="preserve">Vários pools de hosts podem ser necessários para suportar diferentes conjuntos de usuários, recomenda-se estimar quantos serão necessários. </t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3020,7 +3020,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3039,27 +3039,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet apenas para usuários em hosts AVD? </t>
+          <t>Avaliar dependências externas para cada Pool de Hosts</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere o uso do Azure Defender Endpoint para controlar a navegação da Web do usuário, consulte a seção Segurança para obter mais detalhes. </t>
+          <t>As dependências de recursos externos ao pool AVD devem ser avaliadas e revisadas, por exemplo, Active Directory, compartilhamentos de arquivos externos ou outro armazenamento, serviços e recursos locais, componentes de infraestrutura de rede como VPN e ou Rota Expressa, serviços externos e componentes de terceiros. Para todos esses recursos, a latência do Pool de Hosts AVD precisa ser avaliada e a conectividade considerada. Além disso, as considerações de BCDR também precisam ser aplicadas a essas dependências.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3070,7 +3070,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3078,7 +3078,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3089,27 +3089,27 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Revise udr para sub-rede do Pool de HostS AVD</t>
+          <t>Revise o sistema operacional do cliente usado e o tipo de cliente AVD</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O UDR personalizado pode ser aplicado à sub-rede DO Pool de Hostd AVD, por exemplo, para redirecionar para o Azure Firewall ou NVA. Neste caso, recomenda-se revisar cuidadosamente para garantir que o caminho ideal para o tráfego de saída para o avião de controle AVD seja usado. As tags de serviço agora podem ser usadas com UDR, então o tráfego de avião de gerenciamento AVD pode ser facilmente listado. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
+          <t>Revise as limitações de cada cliente e compare várias opções quando possível.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3120,14 +3120,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3138,27 +3138,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os pontos finais do plano de controle AVD estejam acessíveis</t>
+          <t>Verificar os requisitos de licenciamento</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>Os URLs necessários para acesso ao avião de controle AVD por hosts de sessão estão documentados aqui: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Uma ferramenta de verificação está disponível para verificar a conectividade dos hosts da sessão: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
+          <t>Os clientes devidamente licenciados para executar cargas de trabalho da Área de Trabalho Virtual do Windows estão qualificados para aplicar uma licença do Windows às máquinas virtuais do host da sessão e executá-las sem pagar por outra licença.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3169,14 +3169,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3187,27 +3187,27 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Verifique a largura de banda da rede necessária para cada usuário e no total para o VM SKU</t>
+          <t>Execute um PoC para testar a experiência do usuário de ponta a ponta para verificar o impacto causado pela latência da rede</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomenda-se avaliar e revisar os requisitos de largura de banda de rede para os usuários, com base no tipo de carga de trabalho específica. O artigo referenciado fornece estimativas e recomendações gerais, mas são necessárias medidas específicas para o dimensionamento adequado. </t>
+          <t xml:space="preserve">Dependendo dos locais do usuário e da implantação da região AVD, os usuários podem ter uma experiência não ideal, portanto, é importante testar o mais rápido possível em um ambiente PoC pequeno. </t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3218,7 +3218,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3226,7 +3226,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3237,27 +3237,27 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Host de sessão</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso do Gen2 VM para implantação do Host Pool</t>
+          <t xml:space="preserve">Determine se os usuários acessarão o AVD usando desktops completos e/ou aplicativos remotos </t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>Uma vez selecionado o VM SKU que será usado para a implantação do Host Pool, recomenda-se usar o tipo Gen2 do SKU para maior segurança e recursos aprimorados.</t>
+          <t xml:space="preserve">Determine se os usuários receberão áreas de trabalho completas e/ou Grupos de Aplicativos Remotos. </t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3268,7 +3268,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3276,7 +3276,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3287,27 +3287,27 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Determine como os aplicativos serão implantados em piscinas de host AVD</t>
+          <t xml:space="preserve">Todos os usuários terão as mesmas configurações de RDP? </t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>Os aplicativos podem ser pré-instalados na imagem/s dourados, podem ser anexados usando o recurso MSIX &amp; AppAttach ou distribuindo para hosts após a implantação do pool usando métodos tradicionais de distribuição SW.</t>
+          <t>No momento, as configurações de RDP só podem ser definidas no nível do pool de hosts, não por usuário/grupo.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3318,7 +3318,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3326,7 +3326,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3337,22 +3337,22 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Estime o número de imagens douradas que serão necessárias</t>
+          <t>Avaliar o RDP ShortPath para clientes que se conectam a partir de redes internas gerenciadas</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>Será que eles usarão mascaramento de aplicativos fslogix que se prestam a uma única imagem, ou multi-imagens com diferentes aplicativos assados: o que está exigindo mais de uma imagem para ser usado?</t>
+          <t>O Shortpath RDP para redes gerenciadas é um recurso da Área de Trabalho Virtual do Azure que estabelece um transporte direto baseado em UDP entre o Cliente de Área de Trabalho Remota e o host da Sessão. A remoção do relé extra reduz o tempo de ida e volta, o que melhora a experiência do usuário com aplicativos sensíveis à latência e métodos de entrada. Para dar suporte ao RDP Shortpath, o cliente da Área de Trabalho Virtual do Azure precisa de uma linha de visão direta para o host da sessão e deve estar executando o Windows 10 ou o Windows 7 e ter o cliente da Área de Trabalho do Windows instalado.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
@@ -3368,14 +3368,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3386,27 +3386,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Determine qual imagem/s do SISTEMA OPERACIONAL você usará para a implantação do Host Pool</t>
+          <t>Determine em qual região do Azure os Pools de Host AVD serão implantados.</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>Determine qual sistema operacional convidado será usado para implantar cada Pool de Host: Windows 10 vs. Windows Server, Marketplace vs. Imagens personalizadas</t>
+          <t>O AVD é um serviço não regional, os Pools de Hosts podem ser criados em qualquer região, o redirecionamento automático do front-end mais próximo acontecerá automaticamente.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3417,7 +3417,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3425,7 +3425,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3436,27 +3436,27 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Se uma imagem personalizada for usada, determine se há um processo de compilação automatizado?</t>
+          <t>Determinar se a conectividade híbrida é necessária para se conectar ao ambiente local</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se nada existir, considere usar o Azure Image Builder para automatizar o processo de compilação. </t>
+          <t xml:space="preserve">Se necessário para se conectar ao ambiente local, avalie a opção de conectividade atual ou planeje a conectividade necessária. </t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3467,14 +3467,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3485,27 +3485,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Se uma imagem personalizada for usada, existe um plano para organizar e gerenciar o ciclo de vida de suas imagens?</t>
+          <t>Você avaliou a latência entre o local dos usuários e a infraestrutura do AVD do Azure?</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Avalie a Azure Compute Gallery.</t>
+          <t xml:space="preserve">Execute a ferramenta 'Estimador da Experiência Desktop Virtual do Windows' para selecionar a melhor região do Azure para implantar Pools de Hosts. Além da latência de 150ms, a experiência do usuário pode não ser a ideal. </t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3516,14 +3516,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3534,22 +3534,22 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Se a imagem personalizada for usada, verifique as práticas recomendadas para AVD sobre como construir imagem mestre</t>
+          <t>Determinar o local dos metadados do serviço AVD</t>
         </is>
       </c>
       <c r="D57" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existem algumas práticas e recomendações conhecidas para a personalização de imagem dourada, não deixe de conferir o artigo referenciado. </t>
+          <t xml:space="preserve">O AVD armazena metadados apenas para executar o serviço em localizações geográficas específicas, determinar o que está disponível hoje e se for adequado com base nos requisitos do cliente. </t>
         </is>
       </c>
       <c r="E57" s="22" t="inlineStr">
@@ -3565,14 +3565,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3583,27 +3583,27 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso da Ferramenta de Otimização virtual-desktop</t>
+          <t>Verificar as cotas e a disponibilidade do Azure para tamanhos específicos de VM nas regiões selecionadas</t>
         </is>
       </c>
       <c r="D58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Este conjunto de ferramentas foi criado para aplicar automaticamente a configuração referenciada no white paper 'Otimizando o Windows 10, versão 2004 para uma função VDI (Virtual Desktop Infrastructure, infraestrutura de desktop virtual)": https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Deve-se considerar o uso da ferramenta e/ou otimizações mencionadas no white-paper. </t>
+          <t xml:space="preserve">Verifique se há SKUs de VM específicas, especialmente se você precisar de SKUs de GPU ou de alta especificação e, eventualmente, disponibilidade do Azure NetApp Files, se usado. </t>
         </is>
       </c>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3614,14 +3614,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3632,27 +3632,27 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Planejar/avaliar a estratégia de gerenciamento de configuração do host de sessão AVD</t>
+          <t>Verificar a disponibilidade da zona de disponibilidade (AZ) na região selecionada</t>
         </is>
       </c>
       <c r="D59" s="22" t="inlineStr">
         <is>
-          <t>Determine se uma ferramenta de gerenciamento de configuração já está no local para gerenciar a configuração do Host Pool VM após a implantação inicial, por exemplo SCCM, MEM/Intune, GPO, soluções de terceiros.</t>
+          <t>Consulte a seção BCDR para obter mais detalhes.</t>
         </is>
       </c>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3663,14 +3663,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b4b</t>
+          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3681,22 +3681,22 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Determine se o Microsoft OneDrive fará parte da implantação do AVD</t>
+          <t>Criar pelo menos dois controladores de domínio (DCs) do Active Directory no ambiente VNET do Azure próximo ao Pool de Hosts AVD</t>
         </is>
       </c>
       <c r="D60" s="22" t="inlineStr">
         <is>
-          <t>Revise o artigo fornecido e verifique os recursos 'Redirecionamento de pastas conhecidas' e 'Arquivos OnDemand' OneDrive devem ser considerados e eventualmente adotados.</t>
+          <t xml:space="preserve">Os DCs do AD no Azure são recomendados para reduzir a latência para usuários que fazem logon em hosts de sessão do AVD e, eventualmente, para Arquivos NetApp do Azure e integração com o AD. O ADC precisa ser capaz de falar com DCs para TODOS os domínios filho. Como alternativa, a conectividade local deve ser usada para alcançar os DCs do AD. </t>
         </is>
       </c>
       <c r="E60" s="22" t="inlineStr">
@@ -3712,14 +3712,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3730,27 +3730,27 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Determine se as equipes da Microsoft farão parte da implantação do AVD</t>
+          <t>Criar uma UO específica no Active Directory para cada Pool de Hosts</t>
         </is>
       </c>
       <c r="D61" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de revisar este artigo e usar a versão mais recente, revisar e avaliar as exclusões das equipes para reduzir o tamanho do perfil.</t>
+          <t xml:space="preserve">Recomendado para criar uma UO separada por Pool de Hosts em uma hierarquia de UO separada. Essas UOs conterão contas de máquina de hosts de sessão AVD. </t>
         </is>
       </c>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3761,14 +3761,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3779,27 +3779,27 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Não use a mesma conta de armazenamento/compartilhamento que os contêineres Profile/Office </t>
+          <t>Revise o GPO de domínio que será aplicado à UO e afetará as funcionalidades da VM do Pool de Hosts</t>
         </is>
       </c>
       <c r="D62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">É altamente recomendável usar contas/ações de armazenamento separadas para armazenar pacotes MSIX. Se necessário, o armazenamento pode ser ampliado independentemente e não ser impactado pelas atividades de I/O do perfil. O Azure oferece várias opções de armazenamento que podem ser usadas para anexar o aplicativo MISX. Recomendamos o uso de Arquivos Azure ou Arquivos Azure NetApp, pois essas opções oferecem o melhor valor entre custo e sobrecarga de gerenciamento. </t>
+          <t xml:space="preserve">Revise cuidadosamente e, eventualmente, bloqueie/filtre a herança de GPOs para as UOs que contêm Pools de Host AVD. </t>
         </is>
       </c>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3810,14 +3810,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3828,27 +3828,27 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Revisar considerações de desempenho para MSIX</t>
+          <t>Criar uma conta de usuário dedicada com apenas permissões para ingressar a VM no domínio</t>
         </is>
       </c>
       <c r="D63" s="22" t="inlineStr">
         <is>
-          <t>No artigo referenciado, relatamos poucas considerações de desempenho importantes para o uso do MSIX no contexto AVD, certifique-se de revisar cuidadosamente.</t>
+          <t xml:space="preserve">Recomendado ter uma conta dedicada específica com permissões específicas e sem a limitação padrão de 10 ingressos. </t>
         </is>
       </c>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3859,7 +3859,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3867,7 +3867,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3878,22 +3878,22 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Verifique as permissões adequadas do host de sessão para compartilhar o MSIX</t>
+          <t>Criar um grupo de usuários de domínio para cada conjunto de usuários que receberão acesso a cada Grupo de Aplicativos de Pool de Hosts (DAG ou RAG)</t>
         </is>
       </c>
       <c r="D64" s="22" t="inlineStr">
         <is>
-          <t>A anexação do aplicativo MSIX requer permissões somente leitura para acessar o compartilhamento do arquivo. Se você estiver armazenando seus aplicativos MSIX em Arquivos Azure e, em seguida, para os hosts de sessão, você precisará atribuir todos os VMs de host de sessão, tanto o controle de acesso baseado em função da conta de armazenamento (RBAC) quanto o NTFS (New Technology File System) no share.</t>
+          <t xml:space="preserve">Evite conceder acesso por usuário, em vez disso, use grupos do AD e replique-os usando o ADC no Azure AD. </t>
         </is>
       </c>
       <c r="E64" s="22" t="inlineStr">
@@ -3909,7 +3909,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3917,7 +3917,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3928,27 +3928,27 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Pacotes MSIX para aplicações de terceiros</t>
+          <t>Revisar a política de expiração de senha da sua organização para contas usadas pela integração do AD do Azure Files</t>
         </is>
       </c>
       <c r="D65" s="22" t="inlineStr">
         <is>
-          <t>O fornecedor de software de terceiros deve fornecer um pacote MSIX, não é recomendado para o cliente tentar o procedimento de conversão sem o suporte adequado do proprietário do aplicativo.</t>
+          <t>Como parte do procedimento para integrar o Compartilhamento de Arquivos do Azure e a autenticação do Active Directory, uma conta do AD para representar a conta de armazenamento (compartilhamento de arquivos) será criada. Você pode optar por se registrar como uma conta de computador ou conta de logon de serviço, consulte Perguntas frequentes para obter detalhes. Para contas de computador, há uma idade de expiração de senha padrão definida no AD em 30 dias. Da mesma forma, a conta de logon de serviço pode ter uma idade de expiração de senha padrão definida no domínio do AD ou na Unidade Organizacional (UO). Para ambos os tipos de conta, recomendamos que você verifique a idade de expiração da senha configurada em seu ambiente do AD e planeje atualizar a senha da identidade da conta de armazenamento da conta do AD antes da idade máxima da senha. Você pode considerar a criação de uma nova Unidade Organizacional (UO) do AD no AD e desabilitar a diretiva de expiração de senha em contas de computador ou contas de logon de serviço de acordo.</t>
         </is>
       </c>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3959,7 +3959,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3978,27 +3978,27 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Desativar a atualização automática para pacotes MSIX</t>
+          <t>Um locatário do Active Directory do Azure deve estar disponível com pelo menos uma assinatura vinculada</t>
         </is>
       </c>
       <c r="D66" s="22" t="inlineStr">
         <is>
-          <t>O anexo do aplicativo MSIX não suporta atualização automática para aplicativos MSIX e, em seguida, deve ser desativado.</t>
+          <t>Uma assinatura do Azure deve ser parente para o mesmo locatário do Azure AD, que contém uma rede virtual que contém ou está conectada ao Active Directory do Windows Server ou à instância do Azure AD DS.</t>
         </is>
       </c>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4009,14 +4009,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -4027,27 +4027,27 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Revisar o suporte a sistemas operacionais</t>
+          <t>Uma floresta/domínio do Active Directory do Windows Server está sincronizado com o Active Directory do Azure</t>
         </is>
       </c>
       <c r="D67" s="22" t="inlineStr">
         <is>
-          <t>Para aproveitar o MSIX &amp; App Attach, a imagem do SISTEMA OPERACIONAL convidado para o pool AVD Host deve ser o Windows 10 Enterprise ou o Windows 10 Enterprise Multi-session, versão 2004 ou posterior.</t>
+          <t>Você pode configurar isso usando o Azure AD Connect (para organizações híbridas) ou os Serviços de Domínio do Azure AD (para organizações híbridas ou de nuvem).</t>
         </is>
       </c>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -4066,7 +4066,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4077,22 +4077,22 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Host de sessão </t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine qual tipo de disco gerenciado será usado para os Hosts de Sessão  </t>
+          <t>Verificar os requisitos da Conta de Usuário para se conectar à Área de Trabalho Virtual do Windows</t>
         </is>
       </c>
       <c r="D68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">HDD padrão, SSD padrão ou SSD Premium, discos efêmeros não são suportados, ultra-discos não recomendados. Recomendado para avaliar premium para disco do SISTEMA se a densidade do usuário não for baixa, e se você vai usar o Cloud Cache. </t>
+          <t>(1) O usuário deve ser originado do mesmo Active Directory que está conectado ao Azure AD. A Área de Trabalho Virtual do Windows não oferece suporte a contas B2B ou MSA. (2) O UPN que você usa para assinar a Área de Trabalho Virtual do Windows deve existir no domínio do Active Directory ao qual a VM está associada.</t>
         </is>
       </c>
       <c r="E68" s="22" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4127,27 +4127,27 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Determine qual solução de backend de armazenamento será usada para o perfil FSLogix e contêineres de escritório</t>
+          <t>Verifique os requisitos de VM para hosts de sessão AVD que serão criados</t>
         </is>
       </c>
       <c r="D69" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquivos Azure NetApp, Arquivos Azure, Servidor de Arquivos baseado em VM. Servidor de arquivos não recomendado. Azure Files Premium normalmente é um bom ponto de partida. O NetApp só geralmente é necessário para ambientes de grande escala/alto desempenho. </t>
+          <t>As VMs devem ser ingressadas no domínio Padrão ou Híbridas associadas ao AD. As máquinas virtuais não podem ser associadas ao Azure AD.</t>
         </is>
       </c>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4158,7 +4158,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -4166,7 +4166,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4177,22 +4177,22 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Avalie a possibilidade de separar contêineres de perfil de contêineres de escritório</t>
+          <t xml:space="preserve">Antes de usar os Serviços de Domínio Active Directory do Azure (AAD-DS) para AVD, verifique as limitações. </t>
         </is>
       </c>
       <c r="D70" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A recomendação no Windows Virtual Desktop é usar o Contêiner de Perfil sem o Contêiner office, a menos que você esteja planejando cenários específicos de continuidade de negócios e recuperação de desastres (BCDR), conforme descrito na seção de recuperação de desastres abaixo. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+          <t>Comparar os Serviços de Domínio Active Directory autogerenciados, o Active Directory do Azure e os Serviços de Domínio do Active Directory gerenciados</t>
         </is>
       </c>
       <c r="E70" s="22" t="inlineStr">
@@ -4208,7 +4208,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4216,7 +4216,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4227,27 +4227,27 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Verifique os limites de escalabilidade do armazenamento para suportar os requisitos do Host Pool</t>
+          <t>Avaliar o requisito de capacidade de dimensionamento automático do pool de hosts</t>
         </is>
       </c>
       <c r="D71" s="22" t="inlineStr">
         <is>
-          <t>Como ponto de partida para estimar os requisitos de desempenho de armazenamento de contêineres de perfil, recomendamos assumir 10 IOPS por usuário em estado constante e 50 IOPS por usuário durante o login/login.</t>
+          <t xml:space="preserve">A ferramenta de dimensionamento fornece uma opção de automação de baixo custo para clientes que desejam otimizar seus custos de VM de host de sessão. Você pode usar a ferramenta de dimensionamento para agendar VMs para iniciar e parar com base no horário comercial de pico e fora de pico, expandir VMs com base no número de sessões por núcleo de CPU, dimensionar em VMs durante o horário de pico fora de pico, deixando o número mínimo de VMs de host de sessão em execução. Ainda não disponível para o tipo de Pool de Host Pessoal, recomenda-se ter uma configuração separada para cada pool de hosts. </t>
         </is>
       </c>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4258,7 +4258,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4277,27 +4277,27 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Se o armazenamento do NetApp Files for usado, verifique a disponibilidade do serviço de armazenamento em sua região específica.</t>
+          <t>Verifique periodicamente as recomendações do Azure Advisor para AVD</t>
         </is>
       </c>
       <c r="D72" s="22" t="inlineStr">
         <is>
-          <t>Se uma segunda região for necessária para fins de DR, verifique a disponibilidade do NetApp lá também.</t>
+          <t>O Supervisor do Azure analisa suas configurações e telemetria para oferecer recomendações personalizadas para resolver problemas comuns. Com essas recomendações, você pode otimizar seus recursos do Azure para confiabilidade, segurança, excelência operacional, desempenho e custo.</t>
         </is>
       </c>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4308,7 +4308,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4316,7 +4316,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4327,27 +4327,27 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para um desempenho ideal, a solução de armazenamento e o contêiner de perfil FSLogix devem estar no mesmo local do data center.</t>
+          <t>Planejar uma estratégia de gerenciamento de atualização de imagem dourada</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>Evite introduzir latência adicional e custos associados ao tráfego de rede entre regiões, sempre que possível.</t>
+          <t>Prepare uma estratégia para gerenciar atualizações para imagens douradas, por exemplo, para aplicar hotfixes de segurança e/ou atualizar aplicativos instalados dentro da imagem. O Serviço Construtor de Imagens do Azure é uma solução de 1ª parte para automatizar a compilação e a personalização de VMs. Os modelos ARM podem ser usados para criar novos hosts e, em seguida, encerrar os antigos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool A abordagem recomendada é criar um novo pool lado a lado, mais fácil de reverter, não utilizável para pool dedicadoReimplantar e aumentar o número de VMs com o modelo ARM também é uma opção viável. Os clientes também podem querer usar métodos de distribuição de software existentes para atualizar a imagem sem reimplantar, por exemplo, com o SCCM ou similar.</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4358,7 +4358,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4366,7 +4366,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4377,22 +4377,22 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Configure as exclusões de antivírus recomendadas para FSLogix (inclui não digitalizar arquivos VHD(x) no connect).</t>
+          <t>Planejar uma estratégia de correção e atualização do Host da Sessão</t>
         </is>
       </c>
       <c r="D74" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de configurar as seguintes exclusões antivírus para discos rígidos virtuais FSLogix Profile Container, conforme documentado no artigo referenciado.</t>
+          <t xml:space="preserve">Os clientes podem ter várias opções:- Microsoft Endpoint Configuration Manager, este artigo explica como configurar o Microsoft Endpoint Configuration Manager para aplicar automaticamente atualizações a um host de Área de Trabalho Virtual do Windows executando o Windows 10 Enterprise com várias sessões: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)-  3ª Parte que dá suporte ao seu sistema operacional.- Gerenciamento de Atualização do Azure (Automação do Azure), atualmente sem suporte para o sistema operacional cliente: recomenda-se que https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt se afaste de uma estratégia de aplicação de patches e mude para uma estratégia de recriação de imagens, se possível. </t>
         </is>
       </c>
       <c r="E74" s="22" t="inlineStr">
@@ -4408,7 +4408,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4416,7 +4416,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4427,27 +4427,27 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Revise as chaves de registro do FSLogix e determine quais aplicar</t>
+          <t>Avaliar o requisito para um ambiente canário de teste AVD</t>
         </is>
       </c>
       <c r="D75" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">As configurações básicas e recomendadas padrão estão aqui: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Veja aqui para o conjunto principal: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee aqui para referência completa: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
+          <t>Os pools de hosts são uma coleção de uma ou mais máquinas virtuais idênticas no ambiente da Área de Trabalho Virtual do Windows. É altamente recomendável que você crie um pool de hosts de validação em que as atualizações de serviço sejam aplicadas primeiro. Isso permite que você monitore as atualizações de serviço antes que o serviço as aplique ao seu ambiente padrão ou de não validação.</t>
         </is>
       </c>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4458,7 +4458,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4477,27 +4477,27 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Verifique o uso de conexões simultâneas ou múltiplas para o mesmo perfil</t>
+          <t>Determinar a estratégia de implantação do Pool de Hosts</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>Conexões simultâneas ou múltiplas são desencorajadas no Windows Virtual Desktop. A melhor prática é criar um local de perfil diferente para cada sessão (como um pool de host).</t>
+          <t>Um Pool de Hosts AVD pode ser implantado de várias maneiras: Portal do Azure, modelos ARM, ferramenta CLI do Azure, Powershell, criação manual de VM com token de registro, Terraform etc. É importante adotar métodos(s) adequado(s) para oferecer suporte à implantação automática por meio de ferramentas de automação e CI/CD.</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4508,7 +4508,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4516,7 +4516,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4527,27 +4527,27 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Revise as melhores práticas e considerações-chave para o dimensionamento do armazenamento</t>
+          <t>Ative VMs regularmente a cada 90 dias para atualização de token</t>
         </is>
       </c>
       <c r="D77" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Como estimativa geral, a ser validada em um ambiente de teste, para cada usuário 5 - 15 IOPS deve ser primeiro considerado, dependendo da carga de trabalho. Arquivos Azure: Premium max 100k IOPS por ação (máximo 100TB) e até 5Gbps com latência de 3ms. Esteja ciente de como os Arquivos Azure são provisionados, ou seja, o IOPS estritamente vinculado ao TAMANHO provisionado. Capacidade de dimensionamento de rajadas em alguns casos. Certifique-se de prover UPFRONT mais espaço do que o necessário para ter certeza de ter IOPS suficiente. NOTA: O Azure Premium talvez seja mais barato que o Standard porque você não paga transações, então detalhes importantes para ter em mente. Arquivos Azure NetApp: lembre-se no máximo 1000 IPs conectados, pode ajustar IOPS em tempo real, capacidade mínima de 4 TB provisionada. </t>
+          <t>Depois de registrar uma VM em um pool de hosts no serviço Área de Trabalho Virtual do Windows, o agente atualiza regularmente o token da VM sempre que a VM está ativa. O certificado para o token de registro é válido por 90 dias. Devido a esse limite de 90 dias, recomendamos que as VMs fiquem online por 20 minutos a cada 90 dias para que a máquina possa atualizar seus tokens e atualizar o agente e os componentes da pilha lado a lado.</t>
         </is>
       </c>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4558,7 +4558,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4577,27 +4577,27 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Verifique as práticas recomendadas para arquivos Azure (se usado)</t>
+          <t>Habilitar o Monitoramento do Azure para AVD</t>
         </is>
       </c>
       <c r="D78" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de verificar a lista de melhores práticas e recomendações descritas no artigo referenciado.</t>
+          <t>O Azure Monitor para Área de Trabalho Virtual do Windows é um painel criado em Pastas de Trabalho do Azure Monitor que ajuda os profissionais de TI a entender seus ambientes de Área de Trabalho Virtual do Windows. Leia o artigo referenciado para saber como configurar o Monitor do Azure para Área de Trabalho Virtual do Windows para monitorar seus ambientes de Área de Trabalho Virtual do Windows.</t>
         </is>
       </c>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4608,7 +4608,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4627,22 +4627,22 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Verifique as práticas recomendadas de Arquivos NetApp (se usado)</t>
+          <t>Habilitar e redirecionar configurações de diagnóstico para Espaços de Trabalho, Pools de Hosts, Grupos de Aplicativos e VMs Host para o espaço de trabalho do Log Analytics</t>
         </is>
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de verificar a lista de melhores práticas e recomendações descritas no artigo referenciado.</t>
+          <t xml:space="preserve">A Área de Trabalho Virtual do Windows usa o Azure Monitor e o Log Analytics para monitoramento e alertas, como muitos outros serviços do Azure. Isso permite que os administradores identifiquem problemas por meio de uma única interface. O serviço cria logs de atividades para ações administrativas e de usuário.  Cada registro de atividades se enquadra nas seguintes categorias: Gerenciamento, Feed, Conexões, Registro de Host, Erros, Pontos de Verificação. </t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4658,7 +4658,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4666,7 +4666,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4677,27 +4677,27 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Revise e confirme o tamanho máximo do perfil configurado no FSLogix</t>
+          <t>Criar alertas no armazenamento de perfis a serem alertados em caso de alto uso e limitação</t>
         </is>
       </c>
       <c r="D80" s="22" t="inlineStr">
         <is>
-          <t>Os recipientes de perfil têm um tamanho máximo padrão de 30GB. Se grandes contêineres de perfil forem antecipados e os clientes quiserem tentar mantê-los pequenos, considere usar o OneDrive para hospedar arquivos do Office 365 fora do perfil FSLogix.</t>
+          <t xml:space="preserve">Consulte o artigo referenciado e este adicional para configurar o monitoramento e o alerta adequados para armazenamento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
         </is>
       </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4708,7 +4708,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4716,7 +4716,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4727,22 +4727,22 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Se o FSLogix Cloud Cache for usado, mova o diretório Cache para unidade temporária.</t>
+          <t xml:space="preserve">Configurar a Integridade do Serviço do Azure para alertas AVD </t>
         </is>
       </c>
       <c r="D81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Cloud Cache usa o disco local como cache e pode gerar muita pressão no disco VM. Recomendado para aproveitar a potência do disco VM temporário (e conectado localmente), se possível com base no VM SKU. </t>
+          <t>Você pode usar a Integridade do Serviço do Azure para monitorar problemas de serviço e avisos de integridade da Área de Trabalho Virtual do Windows. A Integridade do Serviço do Azure pode notificá-lo com diferentes tipos de alertas (por exemplo, email ou SMS), ajudá-lo a entender o efeito de um problema e mantê-lo atualizado à medida que o problema é resolvido.</t>
         </is>
       </c>
       <c r="E81" s="22" t="inlineStr">
@@ -4758,7 +4758,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4766,7 +4766,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4777,22 +4777,22 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Revise o uso do redirecionamento FSLogix.</t>
+          <t>Revisar a arquitetura de conectividade híbrida para ambiente local</t>
         </is>
       </c>
       <c r="D82" s="22" t="inlineStr">
         <is>
-          <t>REDIRECIONAMENTO.XML arquivo é usado para controlar quais pastas são redirecionadas do recipiente de perfil para a unidade C: As exclusões devem ser a exceção e nunca devem ser usadas a menos que a exclusão específica seja completamente compreendida pela pessoa que configura a exclusão. As exclusões devem ser sempre totalmente testadas no ambiente onde se destinam a ser implementadas. A configuração de exclusões pode afetar a funcionalidade, a estabilidade e o desempenho.</t>
+          <t>Que tipo de conectividade híbrida? Rota Expressa, VPN, NVA?</t>
         </is>
       </c>
       <c r="E82" s="22" t="inlineStr">
@@ -4808,7 +4808,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4816,7 +4816,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4827,27 +4827,27 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Se o armazenamento do Azure NetApp Files for usado, verifique a configuração do nome do Site de AD na conexão AD.</t>
+          <t>Avaliar quais recursos os usuários precisarão acessar dos Pools de Host do AVD para o local</t>
         </is>
       </c>
       <c r="D83" s="22" t="inlineStr">
         <is>
-          <t>Um Site de Diretório Ativo deve ser criado para o ambiente de rede virtual do Azure, onde a sub-rede ANF será criada, e esse nome do site deve ser especificado na propriedade de conexão ANF ao executar o procedimento de ação, conforme explicado no artigo de referência.</t>
+          <t xml:space="preserve">Avalie os requisitos de largura de banda, garanta que a largura de banda VPN/ER seja suficiente e a latência tolerável. </t>
         </is>
       </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4858,7 +4858,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4866,7 +4866,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4877,27 +4877,27 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que os usuários de AVD não terão privilégios de administração locais em hosts AVD. </t>
+          <t>Revise a topologia de rede da zona de aterrissagem para o serviço AVD</t>
         </is>
       </c>
       <c r="D84" s="22" t="inlineStr">
         <is>
-          <t>Recomendamos que você não conceda aos seus usuários acesso administrativo a desktops virtuais. Se você precisar de pacotes de software, recomendamos que os disponibilize através de utilitários de gerenciamento de configuração, como o Microsoft Endpoint Manager. Em um ambiente de várias sessões, recomendamos que você não deixe que os usuários instalem software diretamente.</t>
+          <t>Revise ou recomende um novo onde colocar os Pools de Host AVD com base no CAF (vWAN vs. Hub &amp; Spoke)</t>
         </is>
       </c>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4908,7 +4908,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4916,7 +4916,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4927,27 +4927,27 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que a solução antivírus e anti-malware seja usada</t>
+          <t>Avaliar o posicionamento da VNET e da sub-rede para vários pools de hosts</t>
         </is>
       </c>
       <c r="D85" s="22" t="inlineStr">
         <is>
-          <t>O Microsoft Defender for Endpoint agora suporta o Windows Virtual Desktop para multi-sessão do Windows 10 Enterprise. Verifique o artigo para dispositivos VDI (Virtual Desktop Infrastructure, infraestrutura de desktop virtual não persistente) de onboarding: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t xml:space="preserve">Verifique se cada sub-rede terá espaço suficiente para dimensionar o Pool de Hosts AVD. Para pools de hosts diferentes, é recomendável usar sub-redes separadas, se possível. </t>
         </is>
       </c>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4958,7 +4958,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4977,27 +4977,27 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que as exclusões de AV adequadas estejam no lugar</t>
+          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet para hosts AVD? </t>
         </is>
       </c>
       <c r="D86" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que as seguintes exclusões estão em vigor: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
+          <t>Várias opções estão disponíveis. Você pode usar o Firewall do Azure ou o Firewall NVA, o NSG e/ou o Proxy. O NSG não é capaz de ativar/desabilitar por URL, apenas portas e protocolos. O proxy deve ser usado apenas como configuração explícita no navegador do usuário. Os detalhes sobre como usar o Firewall Premium do Azure com AVD estão aqui no https://aka.ms/AVDfirewall e aqui https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Certifique-se de revisar a lista completa de requisitos para acesso a URLs AVD.</t>
         </is>
       </c>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5008,7 +5008,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://aka.ms/AVDfirewall</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -5016,7 +5016,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5027,27 +5027,27 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Avalie os requisitos de criptografia de disco para hosts AVD</t>
+          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet apenas para usuários em hosts AVD? </t>
         </is>
       </c>
       <c r="D87" s="22" t="inlineStr">
         <is>
-          <t>Os discos no Azure já estão criptografados em repouso por padrão com as chaves gerenciadas pela Microsoft. A criptografia de disco host VM OS é possível e suportada usando ADE e DES: dados de usuário sensíveis e peristent não devem ser armazenados no disco Session Host, então ele deve ser usado apenas se estritamente necessário por motivo de conformidade. A criptografia do armazenamento FSLogix usando arquivos Azure pode ser feita usando SSE no Azure Storage.For OneDrive encryption, consulte este artigo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
+          <t xml:space="preserve">Considere o uso do Ponto de Extremidade do Azure Defender para controlar a navegação na Web do usuário, consulte a seção Segurança para obter mais detalhes. </t>
         </is>
       </c>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5058,7 +5058,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5077,27 +5077,27 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Precisa controlar/restringir a navegação do usuário na Internet dos hosts de sessões AVD?</t>
+          <t>Revise UDR para a sub-rede do Pool de Hosts AVD</t>
         </is>
       </c>
       <c r="D88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere o uso do Azure Defender Endpoint para controlar a navegação web do usuário. </t>
+          <t xml:space="preserve">A UDR personalizada pode ser aplicada à sub-rede do Pool de Hosts AVD, por exemplo, para redirecionar para o Firewall do Azure ou NVA. Neste caso, recomenda-se uma revisão cuidadosa para garantir que o caminho ideal para o tráfego de saída para o plano de controle AVD seja usado. As etiquetas de serviço agora podem ser usadas com UDR e, em seguida, o tráfego do avião de gerenciamento AVD pode ser facilmente colocado na lista de permissões. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
         </is>
       </c>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -5116,7 +5116,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5127,27 +5127,27 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso do Azure Security Center (ASC) para hosts de sessão AVD</t>
+          <t>Garantir que os endpoints do plano de controle AVD estejam acessíveis</t>
         </is>
       </c>
       <c r="D89" s="22" t="inlineStr">
         <is>
-          <t>Recomendamos que você habilite o Azure Security Center Standard para assinaturas, máquinas virtuais, cofres-chave e contas de armazenamento. Com o Azure Security Center Standard é possível avaliar e gerenciar vulnerabilidades, avaliar a conformidade com estruturas comuns como o PCI, fortalecer a segurança geral do seu ambiente AVD.</t>
+          <t>As URLs necessárias para o acesso ao plano de controle AVD por hosts de sessão estão documentadas aqui: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Uma ferramenta de verificação está disponível para verificar a conectividade dos hosts de sessão: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
         </is>
       </c>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5158,7 +5158,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -5166,7 +5166,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5177,27 +5177,27 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Revise gpos ativos do diretório para garantir sessões de RDP</t>
+          <t>Verifique a largura de banda de rede necessária para cada usuário e, no total, para a SKU da VM</t>
         </is>
       </c>
       <c r="D90" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deve ser usado, por exemplo, para impor bloqueio de desktop e término da sessão ociosa. Os GPOs existentes aplicados ao ambiente local devem ser revisados e eventualmente aplicados para garantir também hosts AVD. </t>
+          <t xml:space="preserve">Recomenda-se avaliar e revisar os requisitos de largura de banda de rede para os usuários, com base no tipo de carga de trabalho específico. O artigo referenciado fornece estimativas e recomendações gerais, mas medidas específicas são necessárias para o dimensionamento adequado. </t>
         </is>
       </c>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5208,7 +5208,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -5216,7 +5216,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5232,22 +5232,22 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso de MFA para usuários de AVD</t>
+          <t xml:space="preserve">Certifique-se de que os usuários do AVD não terão privilégios de administrador local nos hosts do AVD. </t>
         </is>
       </c>
       <c r="D91" s="22" t="inlineStr">
         <is>
-          <t>Para obter mais detalhes e insights, consulte este artigo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>Recomendamos que você não conceda aos usuários acesso de administrador a áreas de trabalho virtuais. Se você precisar de pacotes de software, recomendamos disponibilizá-los por meio de utilitários de gerenciamento de configuração, como o Microsoft Endpoint Manager. Em um ambiente de várias sessões, recomendamos que você não permita que os usuários instalem o software diretamente.</t>
         </is>
       </c>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5258,7 +5258,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5266,7 +5266,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5282,22 +5282,22 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso do Acesso Condicional para usuários</t>
+          <t>Certifique-se de que a solução antivírus e antimalware seja usada</t>
         </is>
       </c>
       <c r="D92" s="22" t="inlineStr">
         <is>
-          <t>A ativação do Acesso Condicional permite gerenciar riscos antes de conceder aos usuários acesso ao ambiente de desktop virtual do Windows. Ao decidir a quais usuários conceder acesso, recomendamos que você também considere quem é o usuário, como ele faz login e qual dispositivo eles estão usando.</t>
+          <t>O Microsoft Defender for Endpoint agora oferece suporte a várias sessões da Área de Trabalho Virtual do Windows para Windows 10 Enterprise. Consulte o artigo para integrar dispositivos VDI (infraestrutura de área de trabalho virtual) não persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5316,7 +5316,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5332,22 +5332,22 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Habilite o login de diagnóstico e auditoria no espaço de trabalho central do Log Analytics</t>
+          <t>Certifique-se de que as exclusões AV adequadas estejam em vigor</t>
         </is>
       </c>
       <c r="D93" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A ativação da coleta de log de auditoria permite visualizar a atividade do usuário e do administrador relacionada ao Windows Virtual Desktop. Este também é um requisito para eanble e usar ferramenta de monitoramento AVD. Altamente recomendado para habilitar. </t>
+          <t>Certifique-se de que as seguintes exclusões estão em vigor: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
         </is>
       </c>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avalie a exigência de usar funções de RBAC personalizadas para gerenciamento de AVD </t>
+          <t>Avaliar os requisitos de criptografia de disco para hosts AVD</t>
         </is>
       </c>
       <c r="D94" s="22" t="inlineStr">
         <is>
-          <t>O AVD usa controles de acesso baseados em funções do Azure (RBAC) para atribuir funções aos usuários e administradores. Essas funções dão permissão aos administradores para realizar determinadas tarefas. Se a separação de tarefas for necessária, o Windows Virtual Desktop tem funções adicionais que permitem separar funções de gerenciamento para pools de host, grupos de aplicativos e espaços de trabalho. Essa separação permite que você tenha mais controle granular sobre tarefas administrativas. Essas funções são nomeadas em conformidade com os papéis padrão do Azure e a metodologia de menor privilégio.</t>
+          <t>Os discos no Azure já são criptografados em repouso por padrão com chaves gerenciadas da Microsoft. A criptografia de disco do Host VM OS é possível e suportada usando ADE e DES: dados de usuário sensíveis e persistentes não devem ser armazenados no disco do Host da Sessão, então eles devem ser usados somente se estritamente necessário por motivo de conformidade. A criptografia do armazenamento FSLogix usando o Arquivos do Azure pode ser feita usando o SSE no Armazenamento do Azure.Para criptografia do OneDrive, consulte este artigo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E94" s="22" t="inlineStr">
@@ -5408,7 +5408,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5416,7 +5416,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Revise todas as práticas recomendadas de segurança para o ambiente AVD</t>
+          <t>Precisa controlar/restringir a navegação do usuário na Internet a partir de hosts de sessão AVD?</t>
         </is>
       </c>
       <c r="D95" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Um conjunto abrangente de práticas e recomendações de segurança estão contidos no artigo referenciado, recomenda-se revisar. </t>
+          <t xml:space="preserve">Considere o uso do Ponto de Extremidade do Azure Defender para controlar a navegação na Web do usuário. </t>
         </is>
       </c>
       <c r="E95" s="22" t="inlineStr">
@@ -5458,7 +5458,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5466,7 +5466,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5477,27 +5477,27 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Habilite o monitoramento do Azure para AVD</t>
+          <t>Avaliar o uso da Central de Segurança do Azure (ASC) para hosts de sessão AVD</t>
         </is>
       </c>
       <c r="D96" s="22" t="inlineStr">
         <is>
-          <t>O Azure Monitor for Windows Virtual Desktop é um painel baseado em Workbooks do Monitor Azure que ajuda os profissionais de TI a entender seus ambientes de Desktop Virtual do Windows. Leia o artigo referenciado para saber como configurar o Azure Monitor for Windows Virtual Desktop para monitorar seus ambientes de desktop virtual do Windows.</t>
+          <t>Recomendamos que você habilite o Azure Security Center Standard para assinaturas, máquinas virtuais, cofres de chaves e contas de armazenamento. Com o Azure Security Center Standard é possível avaliar e gerenciar vulnerabilidades, avaliar a conformidade com estruturas comuns, como PCI, fortalecer a segurança geral do seu ambiente AVD.</t>
         </is>
       </c>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5508,7 +5508,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5516,7 +5516,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5527,22 +5527,22 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Habilite e redirecione as configurações de diagnóstico para espaços de trabalho, pools de host, grupos de aplicativos e VMs de host para log analytics espaço de trabalho</t>
+          <t>Revisar GPOs do Active Directory para proteger sessões RDP</t>
         </is>
       </c>
       <c r="D97" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Windows Virtual Desktop usa o Azure Monitor e o Log Analytics para monitoramento e alertas como muitos outros serviços do Azure. Isso permite que os administradores identifiquem problemas através de uma única interface. O serviço cria registros de atividades para ações tanto do usuário quanto administrativas.  Cada registro de atividade se enquadra nas seguintes categorias: Gerenciamento, Alimentação, Conexões, Registro de Host, Erros, Pontos de Verificação. </t>
+          <t xml:space="preserve">Deve ser usado, por exemplo, para impor bloqueio de área de trabalho e encerramento de sessão ociosa. Os GPOs existentes aplicados ao ambiente local devem ser revisados e, eventualmente, aplicados para proteger também os hosts AVD. </t>
         </is>
       </c>
       <c r="E97" s="22" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5566,7 +5566,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5577,27 +5577,27 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Crie alertas sobre o armazenamento do perfil para serem alertados em caso de alto uso e estrangulamento</t>
+          <t>Avaliar o uso de MFA para usuários de AVD</t>
         </is>
       </c>
       <c r="D98" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consulte o artigo referenciado e este adicional para configurar o monitoramento adequado e alerta para armazenamento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
+          <t>Para obter detalhes e insights adicionais, consulte este artigo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
         </is>
       </c>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5608,7 +5608,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5627,27 +5627,27 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configure a saúde do serviço Azure para alertas de AVD </t>
+          <t>Avaliar o uso do Acesso Condicional para usuários</t>
         </is>
       </c>
       <c r="D99" s="22" t="inlineStr">
         <is>
-          <t>Você pode usar o Azure Service Health para monitorar problemas de serviço e avisos de saúde para o Windows Virtual Desktop. O Azure Service Health pode notificá-lo com diferentes tipos de alertas (por exemplo, e-mail ou SMS), ajudá-lo a entender o efeito de um problema e mantê-lo atualizado à medida que o problema se resolve.</t>
+          <t>A habilitação do Acesso Condicional permite que você gerencie riscos antes de conceder aos usuários acesso ao seu ambiente de Área de Trabalho Virtual do Windows. Ao decidir a quais usuários conceder acesso, recomendamos que você também considere quem é o usuário, como ele entra e qual dispositivo está usando.</t>
         </is>
       </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5658,7 +5658,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5677,27 +5677,27 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Avalie o requisito para o recurso de dimensionamento automático do pool host</t>
+          <t>Habilitar o log de diagnóstico e auditoria no espaço de trabalho central do Log Analytics</t>
         </is>
       </c>
       <c r="D100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A ferramenta de dimensionamento oferece uma opção de automação de baixo custo para clientes que desejam otimizar os custos de VM do host de sessão. Você pode usar a ferramenta de dimensionamento para agendar VMs para iniciar e parar com base nos horários comerciais de Peak e Off-Peak, dimensionar VMs com base no número de sessões por núcleo de CPU, escalar em VMs durante o horário de off-Peak, deixando o número mínimo de VMs de hospedagem de sessão em execução. Ainda não está disponível para o tipo de Pool de Host Pessoal, recomendado ter uma configuração separada para cada pool de host. </t>
+          <t xml:space="preserve">A habilitação da coleta de logs de auditoria permite exibir a atividade do usuário e do administrador relacionada à Área de Trabalho Virtual do Windows. Este também é um requisito para habilitar e usar a ferramenta de Monitoramento AVD. Altamente recomendado para habilitar. </t>
         </is>
       </c>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5708,7 +5708,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5716,7 +5716,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5727,22 +5727,22 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Verifique periodicamente as recomendações do Azure Advisor para AVD</t>
+          <t xml:space="preserve">Avaliar o requisito de usar funções RBAC personalizadas para gerenciamento de AVD </t>
         </is>
       </c>
       <c r="D101" s="22" t="inlineStr">
         <is>
-          <t>O Azure Advisor analisa suas configurações e telemetria para oferecer recomendações personalizadas para resolver problemas comuns. Com essas recomendações, você pode otimizar seus recursos do Azure para confiabilidade, segurança, excelência operacional, desempenho e custo.</t>
+          <t>O AVD usa RBAC (controles de acesso baseados em função) do Azure para atribuir funções a usuários e administradores. Essas funções dão aos administradores permissão para executar determinadas tarefas. Se a separação de tarefas for necessária, a Área de Trabalho Virtual do Windows terá funções adicionais que permitem separar funções de gerenciamento para pools de hosts, grupos de aplicativos e espaços de trabalho. Essa separação permite que você tenha um controle mais granular sobre as tarefas administrativas. Essas funções são nomeadas em conformidade com as funções padrão do Azure e a metodologia de privilégios mínimos.</t>
         </is>
       </c>
       <c r="E101" s="22" t="inlineStr">
@@ -5758,7 +5758,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5766,7 +5766,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5777,22 +5777,22 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Plano para uma estratégia de gerenciamento de atualização de imagem dourada</t>
+          <t>Revise todas as práticas recomendadas de segurança para o ambiente AVD</t>
         </is>
       </c>
       <c r="D102" s="22" t="inlineStr">
         <is>
-          <t>Prepare uma estratégia para gerenciar atualizações para imagens douradas, por exemplo, para aplicar hotfixes de segurança e/ou atualizar aplicativos instalados dentro da imagem. O Azure Image Builder Service é uma solução de primeira parte para automatizar a compilação e personalização de modelos VMs.ARM pode ser usado para criar novos hosts, e então desativar os antigos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool Abordagem recomendada é criar uma nova piscina lado a lado, mais fácil de reverter, não utilizável para pool dedicadoRe-implantar e aumentar o número de VMs com o modelo ARM também é uma opção viável. Os clientes também podem querer usar métodos de distribuição de software existentes para atualizar a imagem sem reimplantura, para exames com SCCM ou similares.</t>
+          <t xml:space="preserve">Um conjunto abrangente de práticas recomendadas de segurança e recomendações estão contidas no artigo referenciado, recomenda-se revisar. </t>
         </is>
       </c>
       <c r="E102" s="22" t="inlineStr">
@@ -5808,7 +5808,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5827,27 +5827,27 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Planeje uma estratégia de patches e atualização do Host Session Host</t>
+          <t>Determinar qual solução de back-end de armazenamento será usada para FSLogix Profile e Office Containers</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os clientes podem ter várias opções:- Microsoft Endpoint Configuration Manager, este artigo explica como configurar o Microsoft Endpoint Configuration Manager para aplicar automaticamente atualizações em um host de desktop virtual do Windows executando multi-sessão do Windows 10 Enterprise: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)-  3ª Parte que lhe suporta OS.- Azure Update Management (Azure Automation), hoje não suportada para o SO do cliente: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt é recomendado para se afastar de uma estratégia de patches e passar para uma estratégia de re-imagem, se possível. </t>
+          <t xml:space="preserve">Arquivos NetApp do Azure, Arquivos do Azure, Servidor de Arquivos baseado em VM. Servidor de arquivos não recomendado. O Azure Files Premium normalmente é um bom ponto de partida. A NetApp geralmente só é necessária para ambientes de grande escala/alto desempenho. </t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5858,7 +5858,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5866,7 +5866,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5877,22 +5877,22 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Avalie a exigência de um ambiente canário de teste DE AVD</t>
+          <t>Avalie a possibilidade de separar os Contêineres de Perfil dos Contêineres do Office</t>
         </is>
       </c>
       <c r="D104" s="22" t="inlineStr">
         <is>
-          <t>Os grupos host são uma coleção de uma ou mais máquinas virtuais idênticas no ambiente Windows Virtual Desktop. Recomendamos que você crie um pool de host de validação onde as atualizações de serviço são aplicadas primeiro. Isso permite monitorar as atualizações de serviço antes que o serviço as aplique ao seu ambiente padrão ou não de validação.</t>
+          <t xml:space="preserve">A recomendação na Área de Trabalho Virtual do Windows é usar o Contêiner de Perfil sem o Contêiner do Office, a menos que você esteja planejando cenários específicos de BCDR (Business Continuity and Disaster Recovery), conforme descrito na seção Recuperação de Desastres abaixo. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
         </is>
       </c>
       <c r="E104" s="22" t="inlineStr">
@@ -5908,7 +5908,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5916,7 +5916,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5927,27 +5927,27 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Determine a estratégia de implantação do Host Pool</t>
+          <t>Verificar os limites de escalabilidade do armazenamento para dar suporte aos requisitos do Pool de Hosts</t>
         </is>
       </c>
       <c r="D105" s="22" t="inlineStr">
         <is>
-          <t>Um Pool de Host AVD pode ser implantado de várias maneiras: Portal Azure, modelos ARM, ferramenta Azure CLI, Powershell, criação manual de VM com token de registro, Terraform, etc. É importante adotar métodos/s adequados para suportar a implantação automática por meio de ferramentas de automação e CI/CD.</t>
+          <t>Como ponto de partida para estimar os requisitos de desempenho de armazenamento de contêiner de perfil, recomendamos assumir 10 IOPS por usuário no estado estacionário e 50 IOPS por usuário durante a entrada/saída.</t>
         </is>
       </c>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5958,7 +5958,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5966,7 +5966,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5977,22 +5977,22 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Ligue os VMs regularmente a cada 90 dias para atualização de token</t>
+          <t>Se o armazenamento do NetApp Files for usado, verifique a disponibilidade do serviço de armazenamento em sua região específica.</t>
         </is>
       </c>
       <c r="D106" s="22" t="inlineStr">
         <is>
-          <t>Depois de registrar um VM em um pool de host dentro do serviço Windows Virtual Desktop, o agente atualiza regularmente o token do VM sempre que o VM estiver ativo. O certificado para o token de registro é válido por 90 dias. Devido a este limite de 90 dias, recomendamos que os VMs fiquem on-line por 20 minutos a cada 90 dias para que a máquina possa atualizar seus tokens e atualizar o agente e os componentes da pilha lado a lado.</t>
+          <t>Se uma segunda região for necessária para fins de DR, verifique a disponibilidade da NetApp também.</t>
         </is>
       </c>
       <c r="E106" s="22" t="inlineStr">
@@ -6008,7 +6008,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -6016,7 +6016,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -6027,22 +6027,22 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Determine o SLA de alta disponibilidade esperado para aplicativos/desktops publicados através do AVD</t>
+          <t>Para obter o desempenho ideal, a solução de armazenamento e o contêiner de perfil FSLogix devem estar no mesmo local do data center.</t>
         </is>
       </c>
       <c r="D107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O plano de controle AVD não oferece um contrato de nível de serviço apoiado financeiramente. Nós nos esforçamos para alcançar pelo menos 99,9% de disponibilidade para os URLs do serviço windows virtual desktop. A disponibilidade das máquinas virtuais de hospedagem de sessão em sua assinatura é coberta pelo SLA de Máquinas Virtuais. Os recursos/serviços/serviços dependentes e a disponibilidade de infraestrutura também devem ser considerados para satisfazer adequadamente os requisitos globais de alta disponibilidade. </t>
+          <t>Evite introduzir latência e custos adicionais associados ao tráfego de rede entre regiões sempre que possível.</t>
         </is>
       </c>
       <c r="E107" s="22" t="inlineStr">
@@ -6058,7 +6058,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -6066,7 +6066,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6077,22 +6077,22 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Avalie a região de recuperação de desastres geo para piscinas de host AVD</t>
+          <t>Configure as exclusões antivírus recomendadas para o FSLogix (inclui não verificar arquivos VHD(x) na conexão).</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
         <is>
-          <t>O modelo Active-Active pode ser alcançado com vários grupos de host em diferentes regiões. Não é recomendado um único Host Pool com VMs de diferentes regiões. Se vários pools para mesmos usuários serão usados, o problema de como sincronizar/replicar perfis de usuários deve ser resolvido. O FSLogix Cloud Cache pode ser usado, mas precisa ser cuidadosamente revisado e planejado, ou os clientes podem decidir não sincronizar/replicar. 'Ativo-passivo' pode ser alcançado usando a implantação do Azure Site Recovery (ASR) ou do Pool sob demanda com mecanismo automatizado.</t>
+          <t>Certifique-se de configurar as seguintes exclusões de antivírus para discos rígidos virtuais FSLogix Profile Container, conforme documentado no artigo referenciado.</t>
         </is>
       </c>
       <c r="E108" s="22" t="inlineStr">
@@ -6108,7 +6108,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6127,27 +6127,27 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Aplicativos críticos separados em diferentes pools de host AVD</t>
+          <t>Revise as chaves do Registro FSLogix e determine quais devem ser aplicadas</t>
         </is>
       </c>
       <c r="D109" s="22" t="inlineStr">
         <is>
-          <t>Antes de abordar o planejamento e o design do BCDR do Windows Virtual Desktop, é importante considerar inicialmente quais aplicativos são consumidos através do AVD. Você pode querer separá-los de aplicativos não críticos e usar um Host Pool separado com uma abordagem e recursos diferentes de recuperação de desastres.</t>
+          <t xml:space="preserve">As configurações básicas e recomendadas padrão estão aqui: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Veja aqui o conjunto principal: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee aqui para referência completa: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
         </is>
       </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6158,7 +6158,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -6166,7 +6166,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6177,22 +6177,22 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Planeje a melhor opção de resiliência para implantação do POOL DE HOST AVD</t>
+          <t>Verificar o uso de conexões simultâneas ou múltiplas com o mesmo perfil</t>
         </is>
       </c>
       <c r="D110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">? Você selecionou o nível de resiliência adequado para seus VMs de Pool host (Availability Set vs. Availability Zones)?? Você está ciente das implicações no HA SLA e nos limites de escalabilidade que vêm com AS ou AZ? Atualmente, você pode implantar 399 VMs por implantação de modelo DE ARMA de desktop virtual do Windows sem conjuntos de disponibilidade ou 200 VMs por Conjunto de Disponibilidade.? Você pode aumentar o número de VMs por implantação desligando os Conjuntos de Disponibilidade no modelo ARM ou no registro do pool de host do portal Azure. Implantar AZ agora é possível, um AZ no momento, precisa criar manualmente uma fração de VMs em cada AZ desejado. </t>
+          <t>Conexões simultâneas ou múltiplas são desencorajadas na Área de Trabalho Virtual do Windows. A prática recomendada é criar um local de perfil diferente para cada sessão (como um pool de hosts).</t>
         </is>
       </c>
       <c r="E110" s="22" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6227,27 +6227,27 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Avalie a exigência de backup de hosts de sessão AVD</t>
+          <t>Revise as práticas recomendadas e as principais considerações para o dimensionamento do armazenamento</t>
         </is>
       </c>
       <c r="D111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Backup Azure também pode ser usado para proteger VMs do Host Pool, essa prática é suportada, mesmo que os VMs do Host Pool sejam apátridas. Esta opção pode ser considerada para piscinas de host pessoal. </t>
+          <t xml:space="preserve">Como uma estimativa geral, a ser validada em um ambiente de teste, para cada usuário 5 - 15 IOPS devem ser primeiro considerados, dependendo da carga de trabalho. Arquivos do Azure: IOPS máximo de 100k por compartilhamento Premium (máximo de 100TB) e até 5Gbps com latência de 3ms. Esteja ciente de como os Arquivos do Azure são provisionados, ou seja, IOPS estritamente vinculadas ao SIZE provisionado. Capacidade de dimensionamento de burst em alguns casos. Certifique-se de fornecer ao UPFRONT mais espaço do que o necessário para ter certeza de ter IOPS suficiente. NOTA: O Azure Premium talvez seja mais barato do que o Standard porque você não paga transações e, em seguida, detalhes importantes a serem lembrados. Arquivos NetApp do Azure: lembre-se de um máximo de 1000 IPs conectados, pode ajustar IOPS em tempo real, capacidade provisionada mínima de 4 TB. </t>
         </is>
       </c>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6258,14 +6258,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
+          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6276,22 +6276,22 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Avalie quais dados precisam ser protegidos dentro dos Contêineres de Perfil e Escritório</t>
+          <t>Verificar as práticas recomendadas para os Arquivos do Azure (se usados)</t>
         </is>
       </c>
       <c r="D112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nem todos os dados dentro dos perfis de usuários do FSLogix podem merecer proteção contra desastres. Além disso, se o armazenamento externo for usado, por exemplo, o OneDrive ou File Servers/Shares, o que permanece no perfil FSLogix é mínimo e pode ser perdido em algumas circunstâncias extremas. Em outros casos, os dados dentro do perfil podem ser reconstruídos a partir de outros armazenamentos (por exemplo, outlook inbox no modo em cache). </t>
+          <t>Certifique-se de verificar a lista de práticas recomendadas e recomendações descritas no artigo referenciado.</t>
         </is>
       </c>
       <c r="E112" s="22" t="inlineStr">
@@ -6307,7 +6307,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -6315,7 +6315,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6326,22 +6326,22 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Construa uma estratégia de proteção de backup para contêineres de perfil e escritório</t>
+          <t>Verificar as práticas recomendadas para o NetApp Files (se usado)</t>
         </is>
       </c>
       <c r="D113" s="22" t="inlineStr">
         <is>
-          <t>Prevenir a perda de dados para dados críticos do usuário é importante, o primeiro passo é avaliar quais dados precisam ser salvos e protegidos. Se usar o OneDrive ou outro armazenamento externo, salvar dados do Perfil do Usuário e/ou contêineres do Office talvez não seja necessário. O mecanismo apropriado deve ser considerado para fornecer proteção aos dados críticos do usuário. O serviço de backup Azure pode ser usado para proteger dados de contêineres de perfil e escritório quando armazenados nos níveis Padrão e Premium de Arquivos Azure. Instantâneos e políticas de arquivos do Azure NetApp podem ser usados para arquivos do Azure NetApp (todos os níveis).</t>
+          <t>Certifique-se de verificar a lista de práticas recomendadas e recomendações descritas no artigo referenciado.</t>
         </is>
       </c>
       <c r="E113" s="22" t="inlineStr">
@@ -6357,7 +6357,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -6365,7 +6365,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6376,27 +6376,27 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Avalie os requisitos de replicação de armazenamento de contêiner de perfil e a resiliência para fins do BCDR</t>
+          <t>Revise e confirme o tamanho máximo do perfil configurado no FSLogix</t>
         </is>
       </c>
       <c r="D114" s="22" t="inlineStr">
         <is>
-          <t>Em AVD, vários mecanismos e estratégias de replicação podem ser usados para dados de usuários residentes em contêineres FSLogix:? Padrão de perfil #1: Mecanismos nativos de replicação de armazenamento do Azure, por exemplo, replicação GRS padrão de arquivos Azure, replicação transversal de arquivos do Azure ou sincronização de arquivos Azure para servidores de arquivos baseados em VM? O ZRS (Zone Replicated Storage, armazenamento replicado na zona) ou o armazenamento geo replicado (GRS) para arquivos Azure é recomendado.? O LRS com resiliência local só pode ser usado se não for necessária proteção de zona/região.? NOTA: O Azure Files Share Standard é LRS/ZRS/GRS, mas com suporte de 100 TB habilitado apenas LRS/ZRS são suportados. ? Padrão de perfil #2: O FSLogix Cloud Cache é incorporado em mecanismo automático para replicar contêineres entre diferentes (até 4) contas de armazenamento. O Cloud Cache só deve ser usado quando:? O perfil do usuário ou os contêineres do Office necessários para a SLA de alta disponibilidade é fundamental e precisa ser resiliente à falha na região.? A opção de armazenamento selecionada não é capaz de satisfazer os requisitos do BCDR. Por exemplo, com o nível Azure File Share Premium ou o Azure File Share Standard com suporte de arquivo grande ativado, o GRS não está disponível.? Quando a replicação entre armazenamento díspare é necessária.? Padrão de perfil #3: Configure apenas a recuperação geofíslica de desastres para dados de aplicativos e não para dados/recipientes de perfil do usuário: armazene dados importantes de aplicativos em armazenamentos separados, como o OneDrive ou outro armazenamento externo com seu próprio mecanismo de DR incorporado.</t>
+          <t>Os contêineres de perfil têm um tamanho máximo padrão de 30 GB. Se os Contêineres de Perfil grandes estiverem previstos e os clientes quiserem tentar mantê-los pequenos, considere usar o OneDrive para hospedar arquivos do Office 365 fora do perfil FSLogic.</t>
         </is>
       </c>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6407,7 +6407,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09d</t>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6426,22 +6426,22 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Revise a estratégia de DR de arquivos do Azure NetApp</t>
+          <t>Se o FSLogix Cloud Cache for usado, mova o diretório Cache para a unidade temporária.</t>
         </is>
       </c>
       <c r="D115" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: Azure NetApp Files é essencialmente LRS (armazenamento replicado localmente), então você precisa arquitetar algo mais se quiser a replicação entre regiões. A recomendação para cross-region no momento é o NetApp Cloud Sync, replicando-se para outra região do Azure (e NetApp Volume). Backup: Os backups são manuseados por instantâneos, mas não são automáticos, precisam ser agendados usando políticas. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Há um limite máximo de instantâneos (255) por volume conforme documentado aqui: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
+          <t xml:space="preserve">O Cloud Cache usa o disco local como cache e pode gerar muita pressão sobre o disco da VM. Recomendado para aproveitar o poder do disco de VM temporário (e conectado localmente), se possível com base na SKU da VM. </t>
         </is>
       </c>
       <c r="E115" s="22" t="inlineStr">
@@ -6457,14 +6457,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6475,22 +6475,22 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Revisar a estratégia de DR de arquivos Azure</t>
+          <t>Revise o uso do redirecionamento FSLogix.</t>
         </is>
       </c>
       <c r="D116" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: GRS for Azure Files só está disponível com SKU padrão e sem suporte a ações grandes, então não é adequado na maioria dos cenários de clientes. Se for necessária a replicação georreferida, ao usar o Azure File Share Premium, a replicação com o FSLogix Cloud Cache deve ser avaliada ou a resiliência da Zona de Disponibilidade (AZ) da região deve ser considerada. Backup: O Azure Backup suporta totalmente o Azure File Share all SKUs, e é a solução recomendada para proteger os contêineres de perfil. Se usar o OneDrive ou outro armazenamento externo, salvar dados do Perfil do Usuário e/ou contêineres do Office talvez não seja necessário.</t>
+          <t>REDIRECTION.XML arquivo é usado para controlar quais pastas são redirecionadas do contêiner de perfil para a unidade C:. As exclusões devem ser a exceção e nunca devem ser usadas, a menos que a exclusão específica seja completamente compreendida pela pessoa que configura a exclusão. As exclusões devem ser sempre totalmente testadas no ambiente em que se destinam a ser implementadas. A configuração de exclusões pode afetar a funcionalidade, a estabilidade e o desempenho.</t>
         </is>
       </c>
       <c r="E116" s="22" t="inlineStr">
@@ -6506,14 +6506,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6524,27 +6524,27 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Dependências</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Plano para disponibilidade entre regiões de imagem dourada</t>
+          <t>Se o armazenamento dos Arquivos NetApp do Azure for usado, marque a configuração do nome do Site do AD na Conexão do AD.</t>
         </is>
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>Se imagens personalizadas forem usadas para implantar VMs de Pool de Host, é importante garantir que esses artefatos estejam disponíveis em todas as regiões, mesmo que em caso de um grande desastre. O serviço Azure Compute Gallery pode ser usado para replicar imagens em todas as regiões onde um Host Pool é implantado, com armazenamento redundante e em várias cópias.</t>
+          <t>Um Site do Active Directory deve ser criado para o ambiente de rede virtual do Azure onde a sub-rede ANF será criada, e esse nome de site deve ser especificado na propriedade de conexão ANF ao executar o procedimento de associação, conforme explicado no artigo de referência.</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6555,14 +6555,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6573,22 +6573,22 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Dependências</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avaliar dependências de infraestrutura e aplicativos </t>
+          <t>Habilite o SMB multicanal ao usar um compartilhamento de arquivos premium para hospedar contêineres de perfil FSLogix.</t>
         </is>
       </c>
       <c r="D118" s="22" t="inlineStr">
         <is>
-          <t>Se os usuários da infraestrutura AVD precisarem de acesso aos recursos no local, a alta disponibilidade de infraestrutura de rede necessária para se conectar também é crítica e deve ser considerada. A resiliência da infraestrutura de autenticação precisa ser avaliada e avaliada. Os aspectos bcdr para aplicações dependentes e outros recursos precisam ser considerados para garantir a disponibilidade no local dr secundário.</t>
+          <t>O SMB Multichannel permite que os clientes usem várias conexões de rede que proporcionam maior desempenho e, ao mesmo tempo, reduzem o custo de propriedade. O desempenho maior é alcançado por meio da agregação de largura de banda em várias NICs e da utilização do suporte a RSS (Receive Side Scaling) para NICs para distribuir a carga de E/S entre várias CPUs.</t>
         </is>
       </c>
       <c r="E118" s="22" t="inlineStr">
@@ -6604,7 +6604,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/en-us/azure/storage/files/storage-files-smb-multichannel-performance</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6612,7 +6612,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6623,41 +6623,45 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t xml:space="preserve">Host da Sessão </t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
-        </is>
-      </c>
-      <c r="D119" s="22" t="n"/>
+          <t xml:space="preserve">Determinar que tipo de disco gerenciado será usado para os hosts de sessão  </t>
+        </is>
+      </c>
+      <c r="D119" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HDD padrão, SSD padrão ou SSD Premium, discos efêmeros não são suportados, Ultra-Discos não recomendados. Recomendado para avaliar o disco Premium para OS se a densidade do usuário não for baixa e se você for usar o Cloud Cache. </t>
+        </is>
+      </c>
       <c r="E119" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6695,7 +6699,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6703,7 +6707,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6714,17 +6718,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6741,19 +6745,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6789,13 +6789,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6831,21 +6839,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6895,7 +6895,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6933,19 +6933,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6983,19 +6983,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7033,19 +7033,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7083,19 +7083,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7133,14 +7133,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7161,13 +7166,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7178,14 +7183,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7206,7 +7211,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7223,14 +7228,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7268,14 +7273,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7313,14 +7318,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7358,14 +7363,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7386,7 +7391,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7403,14 +7408,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7448,14 +7453,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7476,7 +7481,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7493,14 +7498,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7538,14 +7543,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7583,14 +7588,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7601,23 +7606,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7628,14 +7633,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7646,17 +7651,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7673,14 +7678,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7701,13 +7706,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7718,14 +7723,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7763,14 +7768,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7815,7 +7820,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7836,7 +7841,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7860,7 +7865,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7881,7 +7886,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7905,7 +7910,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7926,7 +7931,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7943,14 +7948,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7971,7 +7976,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7995,7 +8000,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8085,7 +8090,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8123,14 +8128,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8146,18 +8151,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8168,14 +8173,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8191,12 +8196,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8213,14 +8218,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8241,13 +8246,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8265,7 +8270,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8303,14 +8308,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8331,7 +8336,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8355,7 +8360,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8376,13 +8381,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8400,7 +8405,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8421,7 +8426,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8445,7 +8450,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8466,13 +8471,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8490,7 +8495,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8535,7 +8540,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8573,14 +8578,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8618,14 +8623,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8641,12 +8646,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8663,14 +8668,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8686,12 +8691,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8708,14 +8713,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8753,14 +8758,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8798,14 +8803,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8843,14 +8848,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8871,7 +8876,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8888,14 +8893,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8933,14 +8938,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8961,7 +8966,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8985,7 +8990,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -9023,14 +9028,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9039,360 +9044,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10950,7 +11675,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11034,7 +11759,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11090,26 +11815,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11220,7 +11963,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este cheque ainda não foi examinado.</t>
+          <t>Esta verificação ainda não foi analisada</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11257,7 +12000,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Há um item de ação associado a este cheque</t>
+          <t>Há um item de ação associado a essa verificação</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -11294,7 +12037,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta verificação foi verificada, e não há mais itens de ação associados a ele</t>
+          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11326,7 +12069,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
+          <t>Recomendação entendida, mas não necessária pelos requisitos atuais</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11358,7 +12101,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não é aplicável para o design atual</t>
+          <t>Não aplicável ao projeto atual</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -11392,7 +12135,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/avd_checklist.pt.xlsx
+++ b/spreadsheet/avd_checklist.pt.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Análise de desktop virtual do Azure</t>
+          <t>Azure Virtual Desktop Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,22 +1095,22 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Determine em que as piscinas de host avd da região do Azure/do Azure serão implantadas</t>
+          <t>Determinar o SLA de alta disponibilidade esperado para aplicativos/desktops publicados por meio do AVD</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O AVD é um serviço não regional, os Grupos de Host podem ser criados em qualquer região, o redirecionamento automático do front-end mais próximo acontecerá automaticamente. </t>
+          <t xml:space="preserve">O plano de controle AVD não oferece um contrato de nível de serviço com suporte financeiro. Nós nos esforçamos para obter pelo menos 99,9% de disponibilidade para as URLs de serviço de Área de Trabalho Virtual do Windows. A disponibilidade das máquinas virtuais do host de sessão em sua assinatura é coberta pelo SLA de Máquinas Virtuais. Recursos/serviços dependentes e disponibilidade de infraestrutura também devem ser considerados para satisfazer adequadamente os requisitos globais de alta disponibilidade. </t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,22 +1145,22 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Determine se a conectividade híbrida é necessária para se conectar ao ambiente local</t>
+          <t>Avaliar a região de recuperação de desastres geográficos para pools de hosts AVD</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se necessário para se conectar ao ambiente local, avalie a opção de conectividade atual ou planeje a conectividade necessária. </t>
+          <t>O modelo Active-Active' pode ser alcançado com vários pools de hosts em diferentes regiões. Um único Pool de Hosts com VMs de diferentes regiões não é recomendado. Se vários pools para os mesmos usuários forem usados, o problema de como sincronizar/replicar perfis de usuário deverá ser resolvido. O FSLogix Cloud Cache pode ser usado, mas precisa ser cuidadosamente revisado e planejado, ou os clientes podem decidir não sincronizar/replicar. 'Ativo-Passivo' pode ser alcançado usando o Azure Site Recovery (ASR) ou a implantação de Pool sob demanda com mecanismo automatizado.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,27 +1195,27 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Você avaliou a latência entre a localização dos usuários e a infraestrutura avd do Azure?</t>
+          <t>Separe aplicativos críticos em diferentes pools de hosts AVD</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Execute a ferramenta 'Windows Virtual Desktop Experience Estimator' para selecionar a melhor região do Azure para implantar Host Pools. Além da latência de 150m, a experiência do usuário pode não ser a ideal. </t>
+          <t>Antes de abordar o planejamento e o design do BCDR da Área de Trabalho Virtual do Windows, é importante considerar inicialmente quais aplicativos são consumidos por meio do AVD são críticos. Talvez você queira separá-los de aplicativos não críticos e usar um Pool de Hosts separado com uma abordagem e recursos de recuperação de desastres diferentes.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,27 +1245,27 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Determine a localização dos metadados para o serviço AVD</t>
+          <t>Planejar a melhor opção de resiliência para a implantação do Pool de Hosts AVD</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os metadados da loja AVD apenas para executar o serviço em locais geográficos específicos, determinar o que está disponível hoje e se for adequado com base nas necessidades do cliente. </t>
+          <t xml:space="preserve">? Você selecionou o nível de resiliência adequado para suas VMs de Pool de Hosts (Conjunto de Disponibilidade vs. Zonas de Disponibilidade)?? Você está ciente das implicações no SLA de HA e nos limites de escalabilidade que acompanham o AS ou o AZ? Atualmente, você pode implantar 399 VMs por implantação de modelo ARM da Área de Trabalho Virtual do Windows sem Conjuntos de Disponibilidade ou 200 VMs por Conjunto de Disponibilidade.? Você pode aumentar o número de VMs por implantação desativando os Conjuntos de Disponibilidade no modelo ARM ou no registro do pool de hosts do portal do Azure. A implantação do AZ agora é possível, um AZ de cada vez no momento, precisa criar manualmente uma fração de VMs em cada AZ desejada. </t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,27 +1295,27 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Verifique as cotas do Azure e a disponibilidade para tamanhos de VM específicos nas regiões selecionadas</t>
+          <t>Avaliar o requisito para fazer backup de hosts de sessão AVD</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique se há SKUs VM específicos, especialmente se você precisa de GPU ou SKUs de alta especificação e, eventualmente, disponibilidade de arquivos do Azure NetApp, se usado. </t>
+          <t xml:space="preserve">O Backup do Azure também pode ser usado para proteger VMs de Pool de Hosts, essa prática é suportada, mesmo que as VMs de Pool de Hosts devam ser sem monitoração de estado. Essa opção pode ser considerada para Pools de Host Pessoais. </t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1326,7 +1326,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,27 +1345,27 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Dependências</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Verifique a disponibilidade da Zona de Disponibilidade (AZ) na região selecionada</t>
+          <t>Planejar a disponibilidade da Golden Image em várias regiões</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>Consulte a seção BCDR para obter mais detalhes.</t>
+          <t>Se imagens personalizadas forem usadas para implantar VMs do Pool de Hosts do AVD, é importante garantir que esses artefatos estejam disponíveis em todas as regiões, mesmo que em caso de um grande desastre. O serviço Galeria de Computação do Azure pode ser usado para replicar imagens em todas as regiões onde um Pool de Hosts é implantado, com armazenamento redundante e em várias cópias.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1376,7 +1376,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,22 +1395,22 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Dependências</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Avalie quantos usuários se conectarão ao AVD e de quais regiões</t>
+          <t xml:space="preserve">Avalie as dependências de infraestrutura e aplicativos </t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para o planejamento e implantação adequados, é importante fazer o máximo número de usuários e as sessões simultâneas médias. </t>
+          <t>Se os usuários da infraestrutura AVD precisarem de acesso a recursos locais, a alta disponibilidade da infraestrutura de rede necessária para se conectar também é crítica e deve ser considerada. A resiliência da infraestrutura de autenticação precisa ser avaliada e avaliada. Os aspectos do BCDR para aplicativos dependentes e outros recursos precisam ser considerados para garantir a disponibilidade no local de DR secundário.</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1445,22 +1445,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Determine se todos os usuários terão o mesmo conjunto de aplicativos e/ou diferentes configurações do Host Pool e/ou imagens do SISTEMA OPERACIONAL</t>
+          <t>Avaliar quais dados precisam ser protegidos dentro dos contêineres de perfil e do Office</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mutiple Host Pools talvez necessário para suportar diferentes conjuntos de usuários, é recomendável estimar quantos serão necessários. </t>
+          <t xml:space="preserve">Nem todos os dados dentro dos perfis de usuário do FSLogix podem merecer proteção contra desastres. Além disso, se o armazenamento externo for usado, por exemplo, OneDrive ou Servidores/Compartilhamentos de Arquivos, o que resta no perfil FSLogix é mínimo e pode ser perdido em algumas circunstâncias extremas. Em outros casos, os dados dentro do perfil podem ser recriados a partir de outros armazenamentos (por exemplo, a Caixa de Entrada do Outlook no modo em cache). </t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1476,7 +1476,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://learn.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1495,27 +1495,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Avalie as dependências externas de cada Pool de Host</t>
+          <t>Criar uma estratégia de proteção de backup para contêineres de perfil e do Office</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>As dependências de recursos externos ao pool AVD devem ser avaliadas e revisadas, por exemplo, Active Directory, compartilhamentos externos de arquivos ou outros armazenamentos, serviços e recursos no local, componentes de infraestrutura de rede como VPN e ou Express Route, serviços externos e componentes de terceiros. Para todos esses recursos, a latência do Pool de Host AVD precisa ser avaliada e a conectividade considerada. Além disso, as considerações do BCDR também precisam ser aplicadas a essas dependências.</t>
+          <t>Evitar a perda de dados para dados críticos do usuário é importante, o primeiro passo é avaliar quais dados precisam ser salvos e protegidos. Se estiver usando o OneDrive ou outro armazenamento externo, talvez não seja necessário salvar dados de Perfil de usuário e/ou Contêineres do Office. Deve ser considerado um mecanismo adequado para fornecer proteção aos dados críticos do usuário. O serviço de Backup do Azure pode ser usado para proteger os dados de Perfil e Contêineres do Office quando armazenados nas camadas Padrão e Premium do Azure Files. Os Instantâneos e Políticas de Arquivos NetApp do Azure podem ser usados para Arquivos NetApp do Azure (todas as camadas).</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,22 +1545,22 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Revise o sistema operacional usado do cliente e o tipo de cliente AVD</t>
+          <t>Avaliar os requisitos de replicação e resiliência do armazenamento de contêiner de perfil para fins de BCDR</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Revise as limitações de cada cliente e compare várias opções quando possível.</t>
+          <t>No AVD, vários mecanismos e estratégias de replicação podem ser usados para dados do usuário que residem em contêineres FSLogix:? Padrão de Perfil #1: Mecanismos nativos de replicação de armazenamento do Azure, por exemplo, replicação GRS do Azure Files Standard, Replicação entre Regiões de Arquivos NetApp do Azure ou Sincronização de Arquivos do Azure para servidores de arquivos baseados em VM? É recomendável usar o ZRS (Armazenamento Replicado de Zona) ou o GRS (Armazenamento Replicado Geo) para Arquivos do Azure.Use Zone Replicated Storage (ZRS) or Geo replicated storage (GRS) for Azure Files é recomendado.? O LRS com resiliência apenas local pode ser usado se nenhuma proteção de zona/região for necessária.? NOTA: O Padrão de Compartilhamento de Arquivos do Azure é LRS/ZRS/GRS, mas com suporte grande de 100 TB habilitado, somente o LRS/ZRS é suportado. ? Padrão de perfil #2: O FSLogix Cloud Cache é criado em mecanismo automático para replicar contêineres entre diferentes (até 4) contas de armazenamento. O Cloud Cache deve ser usado somente quando:? A disponibilidade de dados de perfis de usuário ou contêineres do Office exigida SLA de alta disponibilidade é crítica e precisa ser resiliente a falhas na região.? A opção de armazenamento selecionada não é capaz de atender aos requisitos de BCDR. Por exemplo, com a camada Premium do Compartilhamento de Arquivos do Azure ou o Padrão de Compartilhamento de Arquivos do Azure com Suporte a Arquivos Grandes habilitado, o GRS não está disponível.? Quando a replicação entre armazenamentos diferentes é necessária.? Padrão de perfil #3: Configure apenas a recuperação de desastres geográficos para dados de aplicativos e não para contêineres de dados/perfis de usuários: armazene dados importantes de aplicativos em armazenamentos separados, como o OneDrive ou outro armazenamento externo com seu próprio mecanismo de DR interno.</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,27 +1595,27 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Verifique os requisitos de licenciamento</t>
+          <t>Revise a estratégia de DR do Azure NetApp Files</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Os clientes que estão devidamente licenciados para executar cargas de trabalho do Windows Virtual Desktop são elegíveis para aplicar uma licença do Windows em suas máquinas virtuais de host de sessão e executá-las sem pagar por outra licença.</t>
+          <t>Geo Disaster Recovery: O Azure NetApp Files é essencialmente LRS (armazenamento replicado localmente), então você precisa arquitetar algo mais se quiser replicação entre regiões. A recomendação para várias regiões no momento é o NetApp Cloud Sync, replicando para outra região do Azure (e NetApp Volume). Backup: Os backups são tratados por instantâneos, mas não são automáticos, precisam ser agendados usando políticas. https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Há um limite máximo de instantâneos (255) por volume, conforme documentado aqui: https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1645,27 +1645,27 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Execute um PoC para testar a experiência do usuário de ponta a ponta para verificar o impacto causado pela latência da rede</t>
+          <t>Revise a estratégia de DR do Azure Files</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dependendo das localizações do usuário e da implantação da região AVD, os usuários podem ter uma experiência não ideal, por isso é importante testar o mais rápido possível em um pequeno ambiente PoC. </t>
+          <t>Recuperação de desastres geográficos: o GRS para Arquivos do Azure só está disponível com SKU padrão e sem suporte a compartilhamento grande, não sendo adequado na maioria dos cenários de clientes. Se a replicação geográfica for necessária, ao usar o Azure File Share Premium, a replicação com o FSLogix Cloud Cache deve ser avaliada ou a resiliência somente da Zona de Disponibilidade (AZ) 'na região' deve ser considerada. Backup: o Backup do Azure dá suporte total ao Compartilhamento de Arquivos do Azure em todas as SKUs e é a solução recomendada para proteger os Contêineres de Perfil. Se estiver usando o OneDrive ou outro armazenamento externo, talvez não seja necessário salvar dados de Perfil de usuário e/ou Contêineres do Office.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-afs</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1695,27 +1695,27 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine se os usuários acessarão o AVD usando desktops completos e/ou aplicativos remotos </t>
+          <t>Determinar como os aplicativos serão implantados nos pools de hosts do AVD</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine se os usuários serão oferecidos desktops completos e/ou grupos de aplicativos remotos. </t>
+          <t>Os aplicativos podem ser pré-instalados na(s) imagem(ns) dourada(s), podem ser anexados usando o recurso MSIX &amp; AppAttach ou distribuindo para hosts após a implantação do pool usando métodos tradicionais de distribuição de SW.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1726,7 +1726,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,27 +1745,27 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Todos os usuários terão as mesmas configurações de RDP? </t>
+          <t>Estimar o número de imagens douradas que serão necessárias</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>As configurações de RDP atualmente só podem ser configuradas no nível do pool host, não por usuário/grupo.</t>
+          <t>Eles usarão mascaramento de aplicativos fslogix, que se prestariam a uma única imagem, ou várias imagens com diferentes aplicativos embutidos: o que é necessário mais de uma imagem para ser usada?</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,22 +1795,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Clientes e Usuários</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Avalie o RDP ShortPath para clientes conectados a partir de redes internas gerenciadas</t>
+          <t>Determine qual(is) imagem(ns) do sistema operacional você usará para a implantação do Pool de Hosts</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>RdP Shortpath para redes gerenciadas é um recurso do Azure Virtual Desktop que estabelece um transporte direto baseado em UDP entre o cliente de desktop remoto e o host Session. A remoção do relé extra reduz o tempo de ida e volta, o que melhora a experiência do usuário com aplicativos sensíveis à latência e métodos de entrada. Para suportar o RDP Shortpath, o cliente do Azure Virtual Desktop precisa de uma linha de visão direta para o host da sessão, e deve estar executando o Windows 10 ou o Windows 7 e ter o cliente do Windows Desktop instalado.</t>
+          <t>Determine qual sistema operacional convidado será usado para implantar cada Pool de Hosts: Windows 10 versus Windows Server, Marketplace versus Imagens personalizadas</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1826,7 +1826,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,27 +1845,27 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Determine o tipo de pool host a ser usado</t>
+          <t>Se uma imagem personalizada for usada, determine se há um processo de compilação automatizado?</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Compartilhado/Pooled ou Dedicado/Pessoal</t>
+          <t xml:space="preserve">Se não houver nada, considere usar o Construtor de Imagens do Azure para automatizar o processo de compilação. </t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1876,7 +1876,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/image-builder-overview</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46e-a5b8-6ad88844ce3b2</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1895,27 +1895,27 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Para o tipo de pool de host pessoal, decida sobre o tipo de atribuição</t>
+          <t>Se uma imagem personalizada for usada, existe um plano para organizar e gerenciar o ciclo de vida de suas imagens?</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Confirme que a diferença entre atribuição automática e direta é bem compreendida e a opção selecionada é apropriada para o cenário em questão.</t>
+          <t>Avalie a Galeria de Computação do Azure.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1926,7 +1926,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1945,22 +1945,22 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Para o tipo pool pooled host pool, decida sobre o método de balanceamento de carga</t>
+          <t>Se a imagem personalizada for usada, verifique as práticas recomendadas para AVD sobre como criar uma imagem mestra</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique quais usar e opções disponíveis, esteja ciente de que, se o autoscalamento for usado, ele define-o como primeiro. </t>
+          <t xml:space="preserve">Existem algumas práticas recomendadas conhecidas e recomendações para a personalização da imagem dourada, certifique-se de verificar o artigo referenciado. </t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1976,7 +1976,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1995,27 +1995,27 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estime o número de diferentes pools de host para implantar </t>
+          <t>Avaliar o uso do Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Com base em seus critérios de seleção, quantos Pools de Hospedagem você precisaria? Você deve considerar ter vários se:? Várias imagens do SISTEMA OPERACIONAL? Várias regiões? HW diferente necessário? Tipo de pool de host diferente (compartilhado vs. pessoal)? Diferentes requisitos de usuário e SLA (Principais usuários, Executivos, Office Worker vs. Developers, etc.)? Diferentes configurações rdp (aplicadas no nível do Host Pool), veja https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número necessário de VMs no pool de host excedendo capacidades máximas</t>
+          <t xml:space="preserve">Este conjunto de ferramentas foi criado para aplicar automaticamente a configuração referenciada no white paper 'Otimizando o Windows 10, versão 2004 para uma função de VDI (Virtual Desktop Infrastructure)': https://learn.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. O uso da ferramenta e/ou otimizações mencionadas no white-paper devem ser considerados. </t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2026,7 +2026,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2045,27 +2045,27 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Execute o teste de desempenho da carga de trabalho para determinar o melhor Azure VM SKU e tamanho a usar (determine o número de hosts por pool)</t>
+          <t>Planejar/avaliar a estratégia de gerenciamento de configuração do AVD Session Host</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Use o link fornecido para definir um ponto de partida para a decisão do SKU e, em seguida, valide usando um teste de desempenho. Certifique-se de que um mínimo de 4 núcleos para produção seja selecionado por Host de Sessão (multi-sessão)</t>
+          <t>Determine se uma ferramenta de gerenciamento de configuração já está em vigor para gerenciar a configuração da VM do Pool de Hosts após a implantação inicial, por exemplo, SCCM, MEM/Intune, GPO, soluções de 3rd-party.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2076,14 +2076,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2094,27 +2094,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Verifique os limites de escalabilidade do AVD para o ambiente</t>
+          <t>Determine se o Microsoft OneDrive fará parte da implantação do AVD</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">É fundamental verificar a capa da AVD e os limites relatados no artigo referenciado. </t>
+          <t>Revise o artigo fornecido e verifique se os recursos do OneDrive 'Redirecionamento de Pasta Conhecida' e 'Arquivos sob Demanda' devem ser considerados e, eventualmente, adotados.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2125,14 +2125,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2143,22 +2143,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Imagem/s dourada(s)</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Determine se os hosts de sessão exigirão GPU</t>
+          <t>Determine se o Microsoft Teams fará parte da implantação do AVD</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os Grupos host com GPU exigem configuração especial, por favor, certifique-se de revisar o artigo referenciado. </t>
+          <t>Certifique-se de revisar este artigo e usar a versão mais recente, revisar e avaliar as exclusões do Teams para reduzir o tamanho do perfil.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2174,14 +2174,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2192,27 +2192,27 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Recomendado para usar SKUs VM capazes de aproveitar o recurso de rede acelerada no Azure.</t>
+          <t xml:space="preserve">Não use a mesma conta/compartilhamento de armazenamento que os contêineres de perfil/Office </t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sempre que possível, recomenda-se aproveitar as SKUs VM com o recurso Accelerated Networking. Hoje, o sistema operacional Windows Server é suportado (veja lista no artigo), no futuro Windows Client OS talvez também incluído. </t>
+          <t xml:space="preserve">É altamente recomendável usar contas/compartilhamentos de armazenamento separados para armazenar pacotes MSIX. Se necessário, o armazenamento pode ser dimensionado de forma independente e não ser afetado por atividades de E/S de perfil. O Azure oferece várias opções de armazenamento que podem ser usadas para anexação de aplicativo MISX. Recomendamos o uso do Azure Files ou do Azure NetApp Files, pois essas opções oferecem o melhor valor entre custo e sobrecarga de gerenciamento. </t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2223,14 +2223,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,22 +2241,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Um inquilino do Azure Active Directory deve estar disponível com pelo menos uma assinatura vinculada</t>
+          <t>Analisar as considerações de desempenho para o MSIX</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Uma assinatura do Azure deve ser parental para o mesmo inquilino do Azure AD, que contém uma rede virtual que contém ou está conectada à instância do Windows Server Active Directory ou do Azure AD DS.</t>
+          <t>No artigo referenciado, relatamos poucas, mas importantes considerações de desempenho para o uso de MSIX no contexto da AVD, certifique-se de revisar cuidadosamente.</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2272,14 +2272,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2290,27 +2290,27 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Um diretório ativo do Windows Server está em sincronia com o Diretório Ativo do Azure</t>
+          <t>Verifique as permissões de host de sessão adequadas para o compartilhamento MSIX</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Você pode configurá-lo usando o Azure AD Connect (para organizações híbridas) ou os Serviços de Domínio Azure (para organizações híbridas ou em nuvem).</t>
+          <t>A anexação de aplicativo MSIX requer permissões somente leitura para acessar o compartilhamento de arquivos. Se você estiver armazenando seus aplicativos MSIX nos Arquivos do Azure, para seus hosts de sessão, precisará atribuir a todas as VMs de host de sessão permissões RBAC (controle de acesso baseado em função) de conta de armazenamento e NTFS (Sistema de Arquivos de Nova Tecnologia) no compartilhamento.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2321,7 +2321,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2340,22 +2340,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Verifique os requisitos da Conta do Usuário para se conectar à área virtual do Windows</t>
+          <t>Pacotes MSIX para aplicativos 3rd-party</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>(1) O usuário deve ser originado do mesmo Active Directory conectado ao Azure AD. O Windows Virtual Desktop não suporta contas B2B ou MSA. (2) O UPN que você usa para assinar o Windows Virtual Desktop deve existir no domínio Active Directory ao que o VM está aderido.</t>
+          <t>O fornecedor de software de 3ª parte deve fornecer um pacote MSY, não é recomendável que o cliente tente o procedimento de conversão sem o suporte adequado do proprietário do aplicativo.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2371,7 +2371,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2390,27 +2390,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Verifique os requisitos de VM para hosts de sessão AVD que serão criados</t>
+          <t>Desabilitar a atualização automática para pacotes MSIX</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>Os VMs devem ser de domínio padrão ou híbridos unidos por AD. Máquinas virtuais não podem ser aderidas ao Azure AD.</t>
+          <t>A anexação de aplicativo MSIX não oferece suporte à atualização automática para aplicativos MSIX e, em seguida, deve ser desabilitada.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2421,7 +2421,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2440,27 +2440,27 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antes de usar os Azure Active Directory Domain Services (AAD-DS) para AVD, certifique-se de rever as limitações. </t>
+          <t>Revisar o suporte a sistemas operacionais</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Compare os serviços de domínio do Active Directory auto-gerenciados, o Azure Active Directory e o gerenciado Azure Active Directory Domain Services</t>
+          <t>Para aproveitar o MSIX &amp; App Attach, a imagem do sistema operacional convidado para o pool de hosts AVD deve ser Windows 10 Enterprise ou Windows 10 Enterprise Multi-session, versão 2004 ou posterior.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2471,7 +2471,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2490,22 +2490,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Host da Sessão</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Crie pelo menos dois DCs (Active Directory Domain Controllers, controladores de domínio ativos) no ambiente Azure VNET perto do POOL DE HOST AVD</t>
+          <t>Avaliar o uso da VM Gen2 para implantação do Pool de Hosts</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os DCs de AD no Azure são recomendados para reduzir a latência para os usuários que fazem login em hosts de sessão AVD e, eventualmente, para arquivos do Azure NetApp e integração de AD. ADC precisa ser capaz de falar com DCs para TODOS os domínios infantis. Como alternativa, a conectividade no local deve ser usada para atingir DCs AD. </t>
+          <t>Depois de selecionada a SKU da VM que será usada para a implantação do Pool de Hosts, recomenda-se usar o tipo Gen2 da SKU para maior segurança e recursos aprimorados.</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2529,7 +2529,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2540,27 +2540,27 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Crie um OU específico no Diretório Ativo para cada Pool host</t>
+          <t>Determinar o tipo de Pool de Hosts a ser usado</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomendado para criar um OU separado por Host Pool sob uma hierarquia de OU separada. Estes OUs conterão contas de máquinas de hosts de sessão AVD. </t>
+          <t>Compartilhado/Agrupado ou Dedicado/Pessoal</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2571,7 +2571,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2579,7 +2579,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,22 +2590,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Revise o GPO de domínio que será aplicado ao OU e impactando as funcionalidades VM do Host Pool</t>
+          <t>Para o tipo de Pool de Hosts Pessoais, decida sobre o tipo de atribuição</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revise cuidadosamente e, eventualmente, bloqueie/filtre a herança de GPOs para as OUs que contêm pools de host AVD. </t>
+          <t>Confirme se a diferença entre atribuição automática e direta é bem compreendida e que a opção selecionada é apropriada para o cenário em questão.</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2621,7 +2621,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2629,7 +2629,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2640,22 +2640,22 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Crie uma conta de usuário dedicada com apenas permissões para se juntar ao VM ao domínio</t>
+          <t>Para o tipo Pool de Hosts em Pool, decida sobre o método de balanceamento de carga</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomendado ter uma conta dedicada específica com permissões específicas, e sem a limitação padrão 10 se junta. </t>
+          <t xml:space="preserve">Verifique qual deles usar e as opções disponíveis, esteja ciente de que, se o dimensionamento automático for usado, ele o definirá como amplitude primeiro. </t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -2671,7 +2671,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2679,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2690,27 +2690,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Crie um grupo de usuários de domínio para cada conjunto de usuários que terá acesso a cada Grupo de Aplicativos do Pool host (DAG ou RAG)</t>
+          <t xml:space="preserve">Estimar o número de pools de hosts diferentes a serem implantados </t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evite conceder acesso por usuário, em vez disso, use grupos de AD e replique-os usando ADC no Azure AD. </t>
+          <t>Com base em seus critérios de seleção, quantos Pools de Hosts você precisaria? Você deve considerar ter vários se:? Várias imagens do sistema operacional? Várias regiões? Diferente HW necessário? Tipo diferente de Pool de Hosts (compartilhado versus pessoal)? Diferentes requisitos de usuário e SLA (Principais usuários, Executivos, Office Worker vs. Desenvolvedores, etc.)? Diferentes configurações de RDP (aplicadas no nível do Pool de Hosts), consulte https://learn.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número necessário de VMs no pool de hosts que excede os recursos máximos</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2721,7 +2721,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2729,7 +2729,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2740,27 +2740,27 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Revise sua política de expiração de senha da organização para contas usadas pela integração do Azure Files AD</t>
+          <t>Execute o teste de desempenho da carga de trabalho para determinar a melhor SKU e o tamanho da VM do Azure a serem usados (determine o número de hosts por pool)</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Como parte do procedimento para integrar o Azure File Share e o Active Directory authenticaton, uma conta AD para representar a conta de armazenamento (compartilhamento de arquivos) será criada. Você pode optar por se registrar como uma conta de computador ou conta de logon de serviço, consulte FAQ para obter detalhes. Para contas de computador, há uma idade de validade de senha padrão definida em A em 30 dias. Da mesma forma, a conta de logon do serviço pode ter uma idade de validade de senha padrão definida no domínio AD ou unidade organizacional (OU). Para ambos os tipos de conta, recomendamos que você verifique a idade de validade da senha configurada em seu ambiente de AD e planeje atualizar a senha da identidade da sua conta de armazenamento da conta AD antes da idade máxima da senha. Você pode considerar a criação de uma nova Unidade Organizacional (OU) AD em AD e desativar a política de expiração de senha em contas de computador ou contas de logon de serviço de acordo.</t>
+          <t>Use o link fornecido para definir um ponto de partida para a decisão de SKU e, em seguida, valide usando um teste de desempenho. Certifique-se de que um mínimo de 4 núcleos para Produção seja selecionado por Host da Sessão (várias sessões)</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2771,7 +2771,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://learn.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2779,7 +2779,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a33</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2790,27 +2790,27 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Revise a arquitetura híbrida de conectividade para ambiente local</t>
+          <t>Verificar os limites de escalabilidade do AVD para o ambiente</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>Que tipo de conectividade híbrida? Rota expressa, VPN, NVA?</t>
+          <t xml:space="preserve">É fundamental verificar a capacidade e os limites de AVD relatados no artigo referenciado. </t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2821,7 +2821,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2829,7 +2829,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2840,22 +2840,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Avalie quais recursos os usuários precisarão acessar desde os Pools de Host DO AVD até os locais</t>
+          <t>Determine se os hosts de sessão exigirão GPU</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avalie os requisitos de largura de banda, garanta que a largura de banda VPN/ER seja suficiente e a latência tolerável. </t>
+          <t xml:space="preserve">Pools de hosts com GPU exigem configuração especial, por favor, certifique-se de rever o artigo referenciado. </t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2871,7 +2871,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2879,7 +2879,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2890,27 +2890,27 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Planejamento de capacidade</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Revise a topologia de rede da zona de pouso para o serviço AVD</t>
+          <t>Recomendado o uso de SKUs de VM capazes de aproveitar o recurso de Rede Acelerada no Azure.</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Revise ou recomende um novo onde colocar piscinas de host AVD com base no CAF (vWAN vs. Hub &amp; Spoke)</t>
+          <t xml:space="preserve">Sempre que possível, recomenda-se aproveitar as SKUs de VM com o recurso de Rede Acelerada. Hoje pnly Windows Server OS são suportados (veja a lista no artigo), no futuro Windows Client OS também pode incluído. </t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2921,7 +2921,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2929,7 +2929,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2940,22 +2940,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Avalie a colocação de VNET e sub-rede para vários pools host</t>
+          <t>Avalie quantos usuários se conectarão ao AVD e de quais regiões</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que cada sub-rede terá espaço suficiente para dimensionar o POOL DE HOST AVD. Para diferentes pools host, recomenda-se usar sub-redes separadas, se possível. </t>
+          <t xml:space="preserve">Para um planejamento e implantação adequados, é importante avaliar o número máximo de usuários e a média de sessões simultâneas. </t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2971,14 +2971,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2989,22 +2989,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet para hosts AVD? </t>
+          <t>Determine se todos os usuários terão o mesmo conjunto de aplicativos e/ou diferentes configurações do Pool de Hosts e/ou imagens do sistema operacional</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>Várias opções estão disponíveis. Você pode usar o Azure Firewall ou NVA Firewall, NSG e/ou Proxy. O NSG não é capaz de ativar/desativar por URL, apenas portas e protocolos. O proxy deve ser usado apenas como configuração explícita no navegador do usuário. Detalhes sobre o uso do Azure Firewall Premium com AVD estão aqui no https://aka.ms/AVDfirewall e aqui https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Certifique-se de revisar a lista completa de requisitos para acesso aos URLs AVD.</t>
+          <t xml:space="preserve">Vários pools de hosts podem ser necessários para suportar diferentes conjuntos de usuários, recomenda-se estimar quantos serão necessários. </t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3020,7 +3020,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3039,27 +3039,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet apenas para usuários em hosts AVD? </t>
+          <t>Avaliar dependências externas para cada Pool de Hosts</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere o uso do Azure Defender Endpoint para controlar a navegação da Web do usuário, consulte a seção Segurança para obter mais detalhes. </t>
+          <t>As dependências de recursos externos ao pool AVD devem ser avaliadas e revisadas, por exemplo, Active Directory, compartilhamentos de arquivos externos ou outro armazenamento, serviços e recursos locais, componentes de infraestrutura de rede como VPN e ou Rota Expressa, serviços externos e componentes de terceiros. Para todos esses recursos, a latência do Pool de Hosts AVD precisa ser avaliada e a conectividade considerada. Além disso, as considerações de BCDR também precisam ser aplicadas a essas dependências.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3070,7 +3070,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3078,7 +3078,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3089,27 +3089,27 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Revise udr para sub-rede do Pool de HostS AVD</t>
+          <t>Revise o sistema operacional do cliente usado e o tipo de cliente AVD</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O UDR personalizado pode ser aplicado à sub-rede DO Pool de Hostd AVD, por exemplo, para redirecionar para o Azure Firewall ou NVA. Neste caso, recomenda-se revisar cuidadosamente para garantir que o caminho ideal para o tráfego de saída para o avião de controle AVD seja usado. As tags de serviço agora podem ser usadas com UDR, então o tráfego de avião de gerenciamento AVD pode ser facilmente listado. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
+          <t>Revise as limitações de cada cliente e compare várias opções quando possível.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3120,14 +3120,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3138,27 +3138,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os pontos finais do plano de controle AVD estejam acessíveis</t>
+          <t>Verificar os requisitos de licenciamento</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>Os URLs necessários para acesso ao avião de controle AVD por hosts de sessão estão documentados aqui: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Uma ferramenta de verificação está disponível para verificar a conectividade dos hosts da sessão: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
+          <t>Os clientes devidamente licenciados para executar cargas de trabalho da Área de Trabalho Virtual do Windows estão qualificados para aplicar uma licença do Windows às máquinas virtuais do host da sessão e executá-las sem pagar por outra licença.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3169,14 +3169,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3187,27 +3187,27 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Verifique a largura de banda da rede necessária para cada usuário e no total para o VM SKU</t>
+          <t>Execute um PoC para testar a experiência do usuário de ponta a ponta para verificar o impacto causado pela latência da rede</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomenda-se avaliar e revisar os requisitos de largura de banda de rede para os usuários, com base no tipo de carga de trabalho específica. O artigo referenciado fornece estimativas e recomendações gerais, mas são necessárias medidas específicas para o dimensionamento adequado. </t>
+          <t xml:space="preserve">Dependendo dos locais do usuário e da implantação da região AVD, os usuários podem ter uma experiência não ideal, portanto, é importante testar o mais rápido possível em um ambiente PoC pequeno. </t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3218,7 +3218,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3226,7 +3226,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3237,27 +3237,27 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Host de sessão</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso do Gen2 VM para implantação do Host Pool</t>
+          <t xml:space="preserve">Determine se os usuários acessarão o AVD usando desktops completos e/ou aplicativos remotos </t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>Uma vez selecionado o VM SKU que será usado para a implantação do Host Pool, recomenda-se usar o tipo Gen2 do SKU para maior segurança e recursos aprimorados.</t>
+          <t xml:space="preserve">Determine se os usuários receberão áreas de trabalho completas e/ou Grupos de Aplicativos Remotos. </t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3268,7 +3268,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3276,7 +3276,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3287,27 +3287,27 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Determine como os aplicativos serão implantados em piscinas de host AVD</t>
+          <t xml:space="preserve">Todos os usuários terão as mesmas configurações de RDP? </t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>Os aplicativos podem ser pré-instalados na imagem/s dourados, podem ser anexados usando o recurso MSIX &amp; AppAttach ou distribuindo para hosts após a implantação do pool usando métodos tradicionais de distribuição SW.</t>
+          <t>No momento, as configurações de RDP só podem ser definidas no nível do pool de hosts, não por usuário/grupo.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3318,7 +3318,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3326,7 +3326,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3337,22 +3337,22 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Estime o número de imagens douradas que serão necessárias</t>
+          <t>Avaliar o RDP ShortPath para clientes que se conectam a partir de redes internas gerenciadas</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>Será que eles usarão mascaramento de aplicativos fslogix que se prestam a uma única imagem, ou multi-imagens com diferentes aplicativos assados: o que está exigindo mais de uma imagem para ser usado?</t>
+          <t>O Shortpath RDP para redes gerenciadas é um recurso da Área de Trabalho Virtual do Azure que estabelece um transporte direto baseado em UDP entre o Cliente de Área de Trabalho Remota e o host da Sessão. A remoção do relé extra reduz o tempo de ida e volta, o que melhora a experiência do usuário com aplicativos sensíveis à latência e métodos de entrada. Para dar suporte ao RDP Shortpath, o cliente da Área de Trabalho Virtual do Azure precisa de uma linha de visão direta para o host da sessão e deve estar executando o Windows 10 ou o Windows 7 e ter o cliente da Área de Trabalho do Windows instalado.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
@@ -3368,14 +3368,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3386,27 +3386,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Determine qual imagem/s do SISTEMA OPERACIONAL você usará para a implantação do Host Pool</t>
+          <t>Determine em qual região do Azure os Pools de Host AVD serão implantados.</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>Determine qual sistema operacional convidado será usado para implantar cada Pool de Host: Windows 10 vs. Windows Server, Marketplace vs. Imagens personalizadas</t>
+          <t>O AVD é um serviço não regional, os Pools de Hosts podem ser criados em qualquer região, o redirecionamento automático do front-end mais próximo acontecerá automaticamente.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3417,7 +3417,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3425,7 +3425,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3436,27 +3436,27 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Se uma imagem personalizada for usada, determine se há um processo de compilação automatizado?</t>
+          <t>Determinar se a conectividade híbrida é necessária para se conectar ao ambiente local</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se nada existir, considere usar o Azure Image Builder para automatizar o processo de compilação. </t>
+          <t xml:space="preserve">Se necessário para se conectar ao ambiente local, avalie a opção de conectividade atual ou planeje a conectividade necessária. </t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3467,14 +3467,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3485,27 +3485,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Se uma imagem personalizada for usada, existe um plano para organizar e gerenciar o ciclo de vida de suas imagens?</t>
+          <t>Você avaliou a latência entre o local dos usuários e a infraestrutura do AVD do Azure?</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Avalie a Azure Compute Gallery.</t>
+          <t xml:space="preserve">Execute a ferramenta 'Estimador da Experiência Desktop Virtual do Windows' para selecionar a melhor região do Azure para implantar Pools de Hosts. Além da latência de 150ms, a experiência do usuário pode não ser a ideal. </t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3516,14 +3516,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3534,22 +3534,22 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Se a imagem personalizada for usada, verifique as práticas recomendadas para AVD sobre como construir imagem mestre</t>
+          <t>Determinar o local dos metadados do serviço AVD</t>
         </is>
       </c>
       <c r="D57" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existem algumas práticas e recomendações conhecidas para a personalização de imagem dourada, não deixe de conferir o artigo referenciado. </t>
+          <t xml:space="preserve">O AVD armazena metadados apenas para executar o serviço em localizações geográficas específicas, determinar o que está disponível hoje e se for adequado com base nos requisitos do cliente. </t>
         </is>
       </c>
       <c r="E57" s="22" t="inlineStr">
@@ -3565,14 +3565,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3583,27 +3583,27 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso da Ferramenta de Otimização virtual-desktop</t>
+          <t>Verificar as cotas e a disponibilidade do Azure para tamanhos específicos de VM nas regiões selecionadas</t>
         </is>
       </c>
       <c r="D58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Este conjunto de ferramentas foi criado para aplicar automaticamente a configuração referenciada no white paper 'Otimizando o Windows 10, versão 2004 para uma função VDI (Virtual Desktop Infrastructure, infraestrutura de desktop virtual)": https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Deve-se considerar o uso da ferramenta e/ou otimizações mencionadas no white-paper. </t>
+          <t xml:space="preserve">Verifique se há SKUs de VM específicas, especialmente se você precisar de SKUs de GPU ou de alta especificação e, eventualmente, disponibilidade do Azure NetApp Files, se usado. </t>
         </is>
       </c>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3614,14 +3614,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3632,27 +3632,27 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Planejar/avaliar a estratégia de gerenciamento de configuração do host de sessão AVD</t>
+          <t>Verificar a disponibilidade da zona de disponibilidade (AZ) na região selecionada</t>
         </is>
       </c>
       <c r="D59" s="22" t="inlineStr">
         <is>
-          <t>Determine se uma ferramenta de gerenciamento de configuração já está no local para gerenciar a configuração do Host Pool VM após a implantação inicial, por exemplo SCCM, MEM/Intune, GPO, soluções de terceiros.</t>
+          <t>Consulte a seção BCDR para obter mais detalhes.</t>
         </is>
       </c>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3663,14 +3663,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://learn.microsoft.com/azure/availability-zones/az-region</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b4b</t>
+          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3681,22 +3681,22 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Determine se o Microsoft OneDrive fará parte da implantação do AVD</t>
+          <t>Criar pelo menos dois controladores de domínio (DCs) do Active Directory no ambiente VNET do Azure próximo ao Pool de Hosts AVD</t>
         </is>
       </c>
       <c r="D60" s="22" t="inlineStr">
         <is>
-          <t>Revise o artigo fornecido e verifique os recursos 'Redirecionamento de pastas conhecidas' e 'Arquivos OnDemand' OneDrive devem ser considerados e eventualmente adotados.</t>
+          <t xml:space="preserve">Os DCs do AD no Azure são recomendados para reduzir a latência para usuários que fazem logon em hosts de sessão do AVD e, eventualmente, para Arquivos NetApp do Azure e integração com o AD. O ADC precisa ser capaz de falar com DCs para TODOS os domínios filho. Como alternativa, a conectividade local deve ser usada para alcançar os DCs do AD. </t>
         </is>
       </c>
       <c r="E60" s="22" t="inlineStr">
@@ -3712,14 +3712,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3730,27 +3730,27 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Imagem/s dourados</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Determine se as equipes da Microsoft farão parte da implantação do AVD</t>
+          <t>Criar uma UO específica no Active Directory para cada Pool de Hosts</t>
         </is>
       </c>
       <c r="D61" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de revisar este artigo e usar a versão mais recente, revisar e avaliar as exclusões das equipes para reduzir o tamanho do perfil.</t>
+          <t xml:space="preserve">Recomendado para criar uma UO separada por Pool de Hosts em uma hierarquia de UO separada. Essas UOs conterão contas de máquina de hosts de sessão AVD. </t>
         </is>
       </c>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3761,14 +3761,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3779,27 +3779,27 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Não use a mesma conta de armazenamento/compartilhamento que os contêineres Profile/Office </t>
+          <t>Revise o GPO de domínio que será aplicado à UO e afetará as funcionalidades da VM do Pool de Hosts</t>
         </is>
       </c>
       <c r="D62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">É altamente recomendável usar contas/ações de armazenamento separadas para armazenar pacotes MSIX. Se necessário, o armazenamento pode ser ampliado independentemente e não ser impactado pelas atividades de I/O do perfil. O Azure oferece várias opções de armazenamento que podem ser usadas para anexar o aplicativo MISX. Recomendamos o uso de Arquivos Azure ou Arquivos Azure NetApp, pois essas opções oferecem o melhor valor entre custo e sobrecarga de gerenciamento. </t>
+          <t xml:space="preserve">Revise cuidadosamente e, eventualmente, bloqueie/filtre a herança de GPOs para as UOs que contêm Pools de Host AVD. </t>
         </is>
       </c>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3810,14 +3810,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3828,27 +3828,27 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Revisar considerações de desempenho para MSIX</t>
+          <t>Criar uma conta de usuário dedicada com apenas permissões para ingressar a VM no domínio</t>
         </is>
       </c>
       <c r="D63" s="22" t="inlineStr">
         <is>
-          <t>No artigo referenciado, relatamos poucas considerações de desempenho importantes para o uso do MSIX no contexto AVD, certifique-se de revisar cuidadosamente.</t>
+          <t xml:space="preserve">Recomendado ter uma conta dedicada específica com permissões específicas e sem a limitação padrão de 10 ingressos. </t>
         </is>
       </c>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3859,7 +3859,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3867,7 +3867,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3878,22 +3878,22 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Verifique as permissões adequadas do host de sessão para compartilhar o MSIX</t>
+          <t>Criar um grupo de usuários de domínio para cada conjunto de usuários que receberão acesso a cada Grupo de Aplicativos de Pool de Hosts (DAG ou RAG)</t>
         </is>
       </c>
       <c r="D64" s="22" t="inlineStr">
         <is>
-          <t>A anexação do aplicativo MSIX requer permissões somente leitura para acessar o compartilhamento do arquivo. Se você estiver armazenando seus aplicativos MSIX em Arquivos Azure e, em seguida, para os hosts de sessão, você precisará atribuir todos os VMs de host de sessão, tanto o controle de acesso baseado em função da conta de armazenamento (RBAC) quanto o NTFS (New Technology File System) no share.</t>
+          <t xml:space="preserve">Evite conceder acesso por usuário, em vez disso, use grupos do AD e replique-os usando o ADC no Azure AD. </t>
         </is>
       </c>
       <c r="E64" s="22" t="inlineStr">
@@ -3909,7 +3909,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3917,7 +3917,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3928,27 +3928,27 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Diretório ativo</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Pacotes MSIX para aplicações de terceiros</t>
+          <t>Revisar a política de expiração de senha da sua organização para contas usadas pela integração do AD do Azure Files</t>
         </is>
       </c>
       <c r="D65" s="22" t="inlineStr">
         <is>
-          <t>O fornecedor de software de terceiros deve fornecer um pacote MSIX, não é recomendado para o cliente tentar o procedimento de conversão sem o suporte adequado do proprietário do aplicativo.</t>
+          <t>Como parte do procedimento para integrar o Compartilhamento de Arquivos do Azure e a autenticação do Active Directory, uma conta do AD para representar a conta de armazenamento (compartilhamento de arquivos) será criada. Você pode optar por se registrar como uma conta de computador ou conta de logon de serviço, consulte Perguntas frequentes para obter detalhes. Para contas de computador, há uma idade de expiração de senha padrão definida no AD em 30 dias. Da mesma forma, a conta de logon de serviço pode ter uma idade de expiração de senha padrão definida no domínio do AD ou na Unidade Organizacional (UO). Para ambos os tipos de conta, recomendamos que você verifique a idade de expiração da senha configurada em seu ambiente do AD e planeje atualizar a senha da identidade da conta de armazenamento da conta do AD antes da idade máxima da senha. Você pode considerar a criação de uma nova Unidade Organizacional (UO) do AD no AD e desabilitar a diretiva de expiração de senha em contas de computador ou contas de logon de serviço de acordo.</t>
         </is>
       </c>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3959,7 +3959,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3978,27 +3978,27 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Desativar a atualização automática para pacotes MSIX</t>
+          <t>Um locatário do Active Directory do Azure deve estar disponível com pelo menos uma assinatura vinculada</t>
         </is>
       </c>
       <c r="D66" s="22" t="inlineStr">
         <is>
-          <t>O anexo do aplicativo MSIX não suporta atualização automática para aplicativos MSIX e, em seguida, deve ser desativado.</t>
+          <t>Uma assinatura do Azure deve ser parente para o mesmo locatário do Azure AD, que contém uma rede virtual que contém ou está conectada ao Active Directory do Windows Server ou à instância do Azure AD DS.</t>
         </is>
       </c>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4009,14 +4009,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -4027,27 +4027,27 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Revisar o suporte a sistemas operacionais</t>
+          <t>Uma floresta/domínio do Active Directory do Windows Server está sincronizado com o Active Directory do Azure</t>
         </is>
       </c>
       <c r="D67" s="22" t="inlineStr">
         <is>
-          <t>Para aproveitar o MSIX &amp; App Attach, a imagem do SISTEMA OPERACIONAL convidado para o pool AVD Host deve ser o Windows 10 Enterprise ou o Windows 10 Enterprise Multi-session, versão 2004 ou posterior.</t>
+          <t>Você pode configurar isso usando o Azure AD Connect (para organizações híbridas) ou os Serviços de Domínio do Azure AD (para organizações híbridas ou de nuvem).</t>
         </is>
       </c>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -4066,7 +4066,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4077,22 +4077,22 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Host de sessão </t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine qual tipo de disco gerenciado será usado para os Hosts de Sessão  </t>
+          <t>Verificar os requisitos da Conta de Usuário para se conectar à Área de Trabalho Virtual do Windows</t>
         </is>
       </c>
       <c r="D68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">HDD padrão, SSD padrão ou SSD Premium, discos efêmeros não são suportados, ultra-discos não recomendados. Recomendado para avaliar premium para disco do SISTEMA se a densidade do usuário não for baixa, e se você vai usar o Cloud Cache. </t>
+          <t>(1) O usuário deve ser originado do mesmo Active Directory que está conectado ao Azure AD. A Área de Trabalho Virtual do Windows não oferece suporte a contas B2B ou MSA. (2) O UPN que você usa para assinar a Área de Trabalho Virtual do Windows deve existir no domínio do Active Directory ao qual a VM está associada.</t>
         </is>
       </c>
       <c r="E68" s="22" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4127,27 +4127,27 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Determine qual solução de backend de armazenamento será usada para o perfil FSLogix e contêineres de escritório</t>
+          <t>Verifique os requisitos de VM para hosts de sessão AVD que serão criados</t>
         </is>
       </c>
       <c r="D69" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquivos Azure NetApp, Arquivos Azure, Servidor de Arquivos baseado em VM. Servidor de arquivos não recomendado. Azure Files Premium normalmente é um bom ponto de partida. O NetApp só geralmente é necessário para ambientes de grande escala/alto desempenho. </t>
+          <t>As VMs devem ser ingressadas no domínio Padrão ou Híbridas associadas ao AD. As máquinas virtuais não podem ser associadas ao Azure AD.</t>
         </is>
       </c>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4158,7 +4158,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -4166,7 +4166,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4177,22 +4177,22 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Avalie a possibilidade de separar contêineres de perfil de contêineres de escritório</t>
+          <t xml:space="preserve">Antes de usar os Serviços de Domínio Active Directory do Azure (AAD-DS) para AVD, verifique as limitações. </t>
         </is>
       </c>
       <c r="D70" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A recomendação no Windows Virtual Desktop é usar o Contêiner de Perfil sem o Contêiner office, a menos que você esteja planejando cenários específicos de continuidade de negócios e recuperação de desastres (BCDR), conforme descrito na seção de recuperação de desastres abaixo. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+          <t>Comparar os Serviços de Domínio Active Directory autogerenciados, o Active Directory do Azure e os Serviços de Domínio do Active Directory gerenciados</t>
         </is>
       </c>
       <c r="E70" s="22" t="inlineStr">
@@ -4208,7 +4208,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4216,7 +4216,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4227,27 +4227,27 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Verifique os limites de escalabilidade do armazenamento para suportar os requisitos do Host Pool</t>
+          <t>Avaliar o requisito de capacidade de dimensionamento automático do pool de hosts</t>
         </is>
       </c>
       <c r="D71" s="22" t="inlineStr">
         <is>
-          <t>Como ponto de partida para estimar os requisitos de desempenho de armazenamento de contêineres de perfil, recomendamos assumir 10 IOPS por usuário em estado constante e 50 IOPS por usuário durante o login/login.</t>
+          <t xml:space="preserve">A ferramenta de dimensionamento fornece uma opção de automação de baixo custo para clientes que desejam otimizar seus custos de VM de host de sessão. Você pode usar a ferramenta de dimensionamento para agendar VMs para iniciar e parar com base no horário comercial de pico e fora de pico, expandir VMs com base no número de sessões por núcleo de CPU, dimensionar em VMs durante o horário de pico fora de pico, deixando o número mínimo de VMs de host de sessão em execução. Ainda não disponível para o tipo de Pool de Host Pessoal, recomenda-se ter uma configuração separada para cada pool de hosts. </t>
         </is>
       </c>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4258,7 +4258,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4277,27 +4277,27 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Se o armazenamento do NetApp Files for usado, verifique a disponibilidade do serviço de armazenamento em sua região específica.</t>
+          <t>Verifique periodicamente as recomendações do Azure Advisor para AVD</t>
         </is>
       </c>
       <c r="D72" s="22" t="inlineStr">
         <is>
-          <t>Se uma segunda região for necessária para fins de DR, verifique a disponibilidade do NetApp lá também.</t>
+          <t>O Supervisor do Azure analisa suas configurações e telemetria para oferecer recomendações personalizadas para resolver problemas comuns. Com essas recomendações, você pode otimizar seus recursos do Azure para confiabilidade, segurança, excelência operacional, desempenho e custo.</t>
         </is>
       </c>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4308,7 +4308,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/azure-advisor</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4316,7 +4316,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4327,27 +4327,27 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para um desempenho ideal, a solução de armazenamento e o contêiner de perfil FSLogix devem estar no mesmo local do data center.</t>
+          <t>Planejar uma estratégia de gerenciamento de atualização de imagem dourada</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>Evite introduzir latência adicional e custos associados ao tráfego de rede entre regiões, sempre que possível.</t>
+          <t>Prepare uma estratégia para gerenciar atualizações para imagens douradas, por exemplo, para aplicar hotfixes de segurança e/ou atualizar aplicativos instalados dentro da imagem. O Serviço Construtor de Imagens do Azure é uma solução de 1ª parte para automatizar a compilação e a personalização de VMs. Os modelos ARM podem ser usados para criar novos hosts e, em seguida, encerrar os antigos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool A abordagem recomendada é criar um novo pool lado a lado, mais fácil de reverter, não utilizável para pool dedicadoReimplantar e aumentar o número de VMs com o modelo ARM também é uma opção viável. Os clientes também podem querer usar métodos de distribuição de software existentes para atualizar a imagem sem reimplantar, por exemplo, com o SCCM ou similar.</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4358,7 +4358,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4366,7 +4366,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4377,22 +4377,22 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Configure as exclusões de antivírus recomendadas para FSLogix (inclui não digitalizar arquivos VHD(x) no connect).</t>
+          <t>Planejar uma estratégia de correção e atualização do Host da Sessão</t>
         </is>
       </c>
       <c r="D74" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de configurar as seguintes exclusões antivírus para discos rígidos virtuais FSLogix Profile Container, conforme documentado no artigo referenciado.</t>
+          <t xml:space="preserve">Os clientes podem ter várias opções:- Microsoft Endpoint Configuration Manager, este artigo explica como configurar o Microsoft Endpoint Configuration Manager para aplicar automaticamente atualizações a um host da Área de Trabalho Virtual do Windows executando o Windows 10 Enterprise com várias sessões: https://learn.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services ( WSUS)- 3ª Parte que dá suporte ao seu sistema operacional.- Gerenciamento de Atualização do Azure (Automação do Azure), hoje sem suporte para o sistema operacional cliente: recomenda-se que https://learn.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt se afaste de uma estratégia de aplicação de patches e mude para uma estratégia de recriação de imagens, se possível. </t>
         </is>
       </c>
       <c r="E74" s="22" t="inlineStr">
@@ -4408,7 +4408,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4416,7 +4416,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4427,27 +4427,27 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Revise as chaves de registro do FSLogix e determine quais aplicar</t>
+          <t>Avaliar o requisito para um ambiente canário de teste AVD</t>
         </is>
       </c>
       <c r="D75" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">As configurações básicas e recomendadas padrão estão aqui: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Veja aqui para o conjunto principal: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee aqui para referência completa: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
+          <t>Os pools de hosts são uma coleção de uma ou mais máquinas virtuais idênticas no ambiente da Área de Trabalho Virtual do Windows. É altamente recomendável que você crie um pool de hosts de validação em que as atualizações de serviço sejam aplicadas primeiro. Isso permite que você monitore as atualizações de serviço antes que o serviço as aplique ao seu ambiente padrão ou de não validação.</t>
         </is>
       </c>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4458,7 +4458,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4477,27 +4477,27 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Verifique o uso de conexões simultâneas ou múltiplas para o mesmo perfil</t>
+          <t>Determinar a estratégia de implantação do Pool de Hosts</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>Conexões simultâneas ou múltiplas são desencorajadas no Windows Virtual Desktop. A melhor prática é criar um local de perfil diferente para cada sessão (como um pool de host).</t>
+          <t>Um Pool de Hosts AVD pode ser implantado de várias maneiras: Portal do Azure, modelos ARM, ferramenta CLI do Azure, Powershell, criação manual de VM com token de registro, Terraform etc. É importante adotar métodos(s) adequado(s) para oferecer suporte à implantação automática por meio de ferramentas de automação e CI/CD.</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4508,7 +4508,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4516,7 +4516,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4527,27 +4527,27 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Revise as melhores práticas e considerações-chave para o dimensionamento do armazenamento</t>
+          <t>Ative VMs regularmente a cada 90 dias para atualização de token</t>
         </is>
       </c>
       <c r="D77" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Como estimativa geral, a ser validada em um ambiente de teste, para cada usuário 5 - 15 IOPS deve ser primeiro considerado, dependendo da carga de trabalho. Arquivos Azure: Premium max 100k IOPS por ação (máximo 100TB) e até 5Gbps com latência de 3ms. Esteja ciente de como os Arquivos Azure são provisionados, ou seja, o IOPS estritamente vinculado ao TAMANHO provisionado. Capacidade de dimensionamento de rajadas em alguns casos. Certifique-se de prover UPFRONT mais espaço do que o necessário para ter certeza de ter IOPS suficiente. NOTA: O Azure Premium talvez seja mais barato que o Standard porque você não paga transações, então detalhes importantes para ter em mente. Arquivos Azure NetApp: lembre-se no máximo 1000 IPs conectados, pode ajustar IOPS em tempo real, capacidade mínima de 4 TB provisionada. </t>
+          <t>Depois de registrar uma VM em um pool de hosts no serviço Área de Trabalho Virtual do Windows, o agente atualiza regularmente o token da VM sempre que a VM está ativa. O certificado para o token de registro é válido por 90 dias. Devido a esse limite de 90 dias, recomendamos que as VMs fiquem online por 20 minutos a cada 90 dias para que a máquina possa atualizar seus tokens e atualizar o agente e os componentes da pilha lado a lado.</t>
         </is>
       </c>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4558,7 +4558,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4577,27 +4577,27 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Verifique as práticas recomendadas para arquivos Azure (se usado)</t>
+          <t>Habilitar o Monitoramento do Azure para AVD</t>
         </is>
       </c>
       <c r="D78" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de verificar a lista de melhores práticas e recomendações descritas no artigo referenciado.</t>
+          <t>O Azure Monitor para Área de Trabalho Virtual do Windows é um painel criado em Pastas de Trabalho do Azure Monitor que ajuda os profissionais de TI a entender seus ambientes de Área de Trabalho Virtual do Windows. Leia o artigo referenciado para saber como configurar o Monitor do Azure para Área de Trabalho Virtual do Windows para monitorar seus ambientes de Área de Trabalho Virtual do Windows.</t>
         </is>
       </c>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4608,7 +4608,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/azure-monitor</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4627,22 +4627,22 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Verifique as práticas recomendadas de Arquivos NetApp (se usado)</t>
+          <t>Habilitar e redirecionar configurações de diagnóstico para Espaços de Trabalho, Pools de Hosts, Grupos de Aplicativos e VMs Host para o espaço de trabalho do Log Analytics</t>
         </is>
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de verificar a lista de melhores práticas e recomendações descritas no artigo referenciado.</t>
+          <t xml:space="preserve">A Área de Trabalho Virtual do Windows usa o Azure Monitor e o Log Analytics para monitoramento e alertas, como muitos outros serviços do Azure. Isso permite que os administradores identifiquem problemas por meio de uma única interface. O serviço cria logs de atividades para ações administrativas e de usuário.  Cada registro de atividades se enquadra nas seguintes categorias: Gerenciamento, Feed, Conexões, Registro de Host, Erros, Pontos de Verificação. </t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4658,7 +4658,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4666,7 +4666,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4677,27 +4677,27 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Revise e confirme o tamanho máximo do perfil configurado no FSLogix</t>
+          <t>Criar alertas no armazenamento de perfis a serem alertados em caso de alto uso e limitação</t>
         </is>
       </c>
       <c r="D80" s="22" t="inlineStr">
         <is>
-          <t>Os recipientes de perfil têm um tamanho máximo padrão de 30GB. Se grandes contêineres de perfil forem antecipados e os clientes quiserem tentar mantê-los pequenos, considere usar o OneDrive para hospedar arquivos do Office 365 fora do perfil FSLogix.</t>
+          <t xml:space="preserve">Consulte o artigo referenciado e este adicional para configurar o monitoramento e o alerta adequados para armazenamento: https://learn.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
         </is>
       </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4708,7 +4708,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4716,7 +4716,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4727,22 +4727,22 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Se o FSLogix Cloud Cache for usado, mova o diretório Cache para unidade temporária.</t>
+          <t xml:space="preserve">Configurar a Integridade do Serviço do Azure para alertas AVD </t>
         </is>
       </c>
       <c r="D81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Cloud Cache usa o disco local como cache e pode gerar muita pressão no disco VM. Recomendado para aproveitar a potência do disco VM temporário (e conectado localmente), se possível com base no VM SKU. </t>
+          <t>Você pode usar a Integridade do Serviço do Azure para monitorar problemas de serviço e avisos de integridade da Área de Trabalho Virtual do Windows. A Integridade do Serviço do Azure pode notificá-lo com diferentes tipos de alertas (por exemplo, email ou SMS), ajudá-lo a entender o efeito de um problema e mantê-lo atualizado à medida que o problema é resolvido.</t>
         </is>
       </c>
       <c r="E81" s="22" t="inlineStr">
@@ -4758,7 +4758,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4766,7 +4766,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4777,22 +4777,22 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Revise o uso do redirecionamento FSLogix.</t>
+          <t>Revisar a arquitetura de conectividade híbrida para ambiente local</t>
         </is>
       </c>
       <c r="D82" s="22" t="inlineStr">
         <is>
-          <t>REDIRECIONAMENTO.XML arquivo é usado para controlar quais pastas são redirecionadas do recipiente de perfil para a unidade C: As exclusões devem ser a exceção e nunca devem ser usadas a menos que a exclusão específica seja completamente compreendida pela pessoa que configura a exclusão. As exclusões devem ser sempre totalmente testadas no ambiente onde se destinam a ser implementadas. A configuração de exclusões pode afetar a funcionalidade, a estabilidade e o desempenho.</t>
+          <t>Que tipo de conectividade híbrida? Rota Expressa, VPN, NVA?</t>
         </is>
       </c>
       <c r="E82" s="22" t="inlineStr">
@@ -4808,7 +4808,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4816,7 +4816,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4827,27 +4827,27 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Se o armazenamento do Azure NetApp Files for usado, verifique a configuração do nome do Site de AD na conexão AD.</t>
+          <t>Avaliar quais recursos os usuários precisarão acessar dos Pools de Host do AVD para o local</t>
         </is>
       </c>
       <c r="D83" s="22" t="inlineStr">
         <is>
-          <t>Um Site de Diretório Ativo deve ser criado para o ambiente de rede virtual do Azure, onde a sub-rede ANF será criada, e esse nome do site deve ser especificado na propriedade de conexão ANF ao executar o procedimento de ação, conforme explicado no artigo de referência.</t>
+          <t xml:space="preserve">Avalie os requisitos de largura de banda, garanta que a largura de banda VPN/ER seja suficiente e a latência tolerável. </t>
         </is>
       </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4858,7 +4858,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4866,7 +4866,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4877,27 +4877,27 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que os usuários de AVD não terão privilégios de administração locais em hosts AVD. </t>
+          <t>Revise a topologia de rede da zona de aterrissagem para o serviço AVD</t>
         </is>
       </c>
       <c r="D84" s="22" t="inlineStr">
         <is>
-          <t>Recomendamos que você não conceda aos seus usuários acesso administrativo a desktops virtuais. Se você precisar de pacotes de software, recomendamos que os disponibilize através de utilitários de gerenciamento de configuração, como o Microsoft Endpoint Manager. Em um ambiente de várias sessões, recomendamos que você não deixe que os usuários instalem software diretamente.</t>
+          <t>Revise ou recomende um novo onde colocar os Pools de Host AVD com base no CAF (vWAN vs. Hub &amp; Spoke)</t>
         </is>
       </c>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4908,7 +4908,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4916,7 +4916,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4927,27 +4927,27 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que a solução antivírus e anti-malware seja usada</t>
+          <t>Avaliar o posicionamento da VNET e da sub-rede para vários pools de hosts</t>
         </is>
       </c>
       <c r="D85" s="22" t="inlineStr">
         <is>
-          <t>O Microsoft Defender for Endpoint agora suporta o Windows Virtual Desktop para multi-sessão do Windows 10 Enterprise. Verifique o artigo para dispositivos VDI (Virtual Desktop Infrastructure, infraestrutura de desktop virtual não persistente) de onboarding: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t xml:space="preserve">Verifique se cada sub-rede terá espaço suficiente para dimensionar o Pool de Hosts AVD. Para pools de hosts diferentes, é recomendável usar sub-redes separadas, se possível. </t>
         </is>
       </c>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4958,7 +4958,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4977,27 +4977,27 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que as exclusões de AV adequadas estejam no lugar</t>
+          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet para hosts AVD? </t>
         </is>
       </c>
       <c r="D86" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que as seguintes exclusões estão em vigor: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
+          <t>Várias opções estão disponíveis. Você pode usar o Firewall do Azure ou o Firewall NVA, o NSG e/ou o Proxy. O NSG não é capaz de ativar/desabilitar por URL, apenas portas e protocolos. O proxy deve ser usado apenas como configuração explícita no navegador do usuário. Os detalhes sobre como usar o Firewall do Azure Premium com AVD estão aqui no https://aka.ms/AVDfirewall e aqui https://learn.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Certifique-se de revisar a lista completa de requisitos para acesso a URLs AVD.</t>
         </is>
       </c>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5008,7 +5008,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://aka.ms/AVDfirewall</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -5016,7 +5016,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5027,27 +5027,27 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Avalie os requisitos de criptografia de disco para hosts AVD</t>
+          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet apenas para usuários em hosts AVD? </t>
         </is>
       </c>
       <c r="D87" s="22" t="inlineStr">
         <is>
-          <t>Os discos no Azure já estão criptografados em repouso por padrão com as chaves gerenciadas pela Microsoft. A criptografia de disco host VM OS é possível e suportada usando ADE e DES: dados de usuário sensíveis e peristent não devem ser armazenados no disco Session Host, então ele deve ser usado apenas se estritamente necessário por motivo de conformidade. A criptografia do armazenamento FSLogix usando arquivos Azure pode ser feita usando SSE no Azure Storage.For OneDrive encryption, consulte este artigo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
+          <t xml:space="preserve">Considere o uso do Ponto de Extremidade do Azure Defender para controlar a navegação na Web do usuário, consulte a seção Segurança para obter mais detalhes. </t>
         </is>
       </c>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5058,7 +5058,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5077,27 +5077,27 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Configuração do host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Precisa controlar/restringir a navegação do usuário na Internet dos hosts de sessões AVD?</t>
+          <t>Revise UDR para a sub-rede do Pool de Hosts AVD</t>
         </is>
       </c>
       <c r="D88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere o uso do Azure Defender Endpoint para controlar a navegação web do usuário. </t>
+          <t xml:space="preserve">A UDR personalizada pode ser aplicada à sub-rede do Pool de Hosts AVD, por exemplo, para redirecionar para o Firewall do Azure ou NVA. Neste caso, recomenda-se uma revisão cuidadosa para garantir que o caminho ideal para o tráfego de saída para o plano de controle AVD seja usado. As etiquetas de serviço agora podem ser usadas com UDR e, em seguida, o tráfego do avião de gerenciamento AVD pode ser facilmente colocado na lista de permissões. https://learn.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
         </is>
       </c>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://learn.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -5116,7 +5116,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5127,27 +5127,27 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso do Azure Security Center (ASC) para hosts de sessão AVD</t>
+          <t>Garantir que os endpoints do plano de controle AVD estejam acessíveis</t>
         </is>
       </c>
       <c r="D89" s="22" t="inlineStr">
         <is>
-          <t>Recomendamos que você habilite o Azure Security Center Standard para assinaturas, máquinas virtuais, cofres-chave e contas de armazenamento. Com o Azure Security Center Standard é possível avaliar e gerenciar vulnerabilidades, avaliar a conformidade com estruturas comuns como o PCI, fortalecer a segurança geral do seu ambiente AVD.</t>
+          <t>As URLs necessárias para o acesso ao plano de controle AVD por hosts de sessão estão documentadas aqui: https://learn.microsoft.com/azure/virtual-desktop/safe-url-list. Uma ferramenta de verificação está disponível para verificar a conectividade dos hosts de sessão: https://learn.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
         </is>
       </c>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5158,7 +5158,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -5166,7 +5166,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5177,27 +5177,27 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Revise gpos ativos do diretório para garantir sessões de RDP</t>
+          <t>Verifique a largura de banda de rede necessária para cada usuário e, no total, para a SKU da VM</t>
         </is>
       </c>
       <c r="D90" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deve ser usado, por exemplo, para impor bloqueio de desktop e término da sessão ociosa. Os GPOs existentes aplicados ao ambiente local devem ser revisados e eventualmente aplicados para garantir também hosts AVD. </t>
+          <t xml:space="preserve">Recomenda-se avaliar e revisar os requisitos de largura de banda de rede para os usuários, com base no tipo de carga de trabalho específico. O artigo referenciado fornece estimativas e recomendações gerais, mas medidas específicas são necessárias para o dimensionamento adequado. </t>
         </is>
       </c>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5208,7 +5208,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -5216,7 +5216,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5232,22 +5232,22 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso de MFA para usuários de AVD</t>
+          <t xml:space="preserve">Certifique-se de que os usuários do AVD não terão privilégios de administrador local nos hosts do AVD. </t>
         </is>
       </c>
       <c r="D91" s="22" t="inlineStr">
         <is>
-          <t>Para obter mais detalhes e insights, consulte este artigo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>Recomendamos que você não conceda aos usuários acesso de administrador a áreas de trabalho virtuais. Se você precisar de pacotes de software, recomendamos disponibilizá-los por meio de utilitários de gerenciamento de configuração, como o Microsoft Endpoint Manager. Em um ambiente de várias sessões, recomendamos que você não permita que os usuários instalem o software diretamente.</t>
         </is>
       </c>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5258,7 +5258,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5266,7 +5266,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5282,22 +5282,22 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Avalie o uso do Acesso Condicional para usuários</t>
+          <t>Certifique-se de que a solução antivírus e antimalware seja usada</t>
         </is>
       </c>
       <c r="D92" s="22" t="inlineStr">
         <is>
-          <t>A ativação do Acesso Condicional permite gerenciar riscos antes de conceder aos usuários acesso ao ambiente de desktop virtual do Windows. Ao decidir a quais usuários conceder acesso, recomendamos que você também considere quem é o usuário, como ele faz login e qual dispositivo eles estão usando.</t>
+          <t>O Microsoft Defender for Endpoint agora oferece suporte a várias sessões da Área de Trabalho Virtual do Windows para Windows 10 Enterprise. Consulte o artigo para integrar dispositivos VDI (infraestrutura de área de trabalho virtual) não persistentes: https://learn.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5308,7 +5308,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5316,7 +5316,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5332,22 +5332,22 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Habilite o login de diagnóstico e auditoria no espaço de trabalho central do Log Analytics</t>
+          <t>Certifique-se de que as exclusões AV adequadas estejam em vigor</t>
         </is>
       </c>
       <c r="D93" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A ativação da coleta de log de auditoria permite visualizar a atividade do usuário e do administrador relacionada ao Windows Virtual Desktop. Este também é um requisito para eanble e usar ferramenta de monitoramento AVD. Altamente recomendado para habilitar. </t>
+          <t>Certifique-se de que as seguintes exclusões estão em vigor: https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
         </is>
       </c>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avalie a exigência de usar funções de RBAC personalizadas para gerenciamento de AVD </t>
+          <t>Avaliar os requisitos de criptografia de disco para hosts AVD</t>
         </is>
       </c>
       <c r="D94" s="22" t="inlineStr">
         <is>
-          <t>O AVD usa controles de acesso baseados em funções do Azure (RBAC) para atribuir funções aos usuários e administradores. Essas funções dão permissão aos administradores para realizar determinadas tarefas. Se a separação de tarefas for necessária, o Windows Virtual Desktop tem funções adicionais que permitem separar funções de gerenciamento para pools de host, grupos de aplicativos e espaços de trabalho. Essa separação permite que você tenha mais controle granular sobre tarefas administrativas. Essas funções são nomeadas em conformidade com os papéis padrão do Azure e a metodologia de menor privilégio.</t>
+          <t>Os discos no Azure já são criptografados em repouso por padrão com chaves gerenciadas da Microsoft. A criptografia de disco do Host VM OS é possível e suportada usando ADE e DES: dados de usuário sensíveis e persistentes não devem ser armazenados no disco do Host da Sessão, então eles devem ser usados somente se estritamente necessário por motivo de conformidade. A criptografia do armazenamento FSLogix usando o Arquivos do Azure pode ser feita usando o SSE no Armazenamento do Azure.Para a criptografia do OneDrive, consulte este artigo: https://learn.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E94" s="22" t="inlineStr">
@@ -5408,7 +5408,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5416,7 +5416,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Configuração do host</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Revise todas as práticas recomendadas de segurança para o ambiente AVD</t>
+          <t>Precisa controlar/restringir a navegação do usuário na Internet a partir de hosts de sessão AVD?</t>
         </is>
       </c>
       <c r="D95" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Um conjunto abrangente de práticas e recomendações de segurança estão contidos no artigo referenciado, recomenda-se revisar. </t>
+          <t xml:space="preserve">Considere o uso do Ponto de Extremidade do Azure Defender para controlar a navegação na Web do usuário. </t>
         </is>
       </c>
       <c r="E95" s="22" t="inlineStr">
@@ -5458,7 +5458,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5466,7 +5466,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5477,27 +5477,27 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Habilite o monitoramento do Azure para AVD</t>
+          <t>Avaliar o uso da Central de Segurança do Azure (ASC) para hosts de sessão AVD</t>
         </is>
       </c>
       <c r="D96" s="22" t="inlineStr">
         <is>
-          <t>O Azure Monitor for Windows Virtual Desktop é um painel baseado em Workbooks do Monitor Azure que ajuda os profissionais de TI a entender seus ambientes de Desktop Virtual do Windows. Leia o artigo referenciado para saber como configurar o Azure Monitor for Windows Virtual Desktop para monitorar seus ambientes de desktop virtual do Windows.</t>
+          <t>Recomendamos que você habilite o Azure Security Center Standard para assinaturas, máquinas virtuais, cofres de chaves e contas de armazenamento. Com o Azure Security Center Standard é possível avaliar e gerenciar vulnerabilidades, avaliar a conformidade com estruturas comuns, como PCI, fortalecer a segurança geral do seu ambiente AVD.</t>
         </is>
       </c>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5508,7 +5508,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5516,7 +5516,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5527,22 +5527,22 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Habilite e redirecione as configurações de diagnóstico para espaços de trabalho, pools de host, grupos de aplicativos e VMs de host para log analytics espaço de trabalho</t>
+          <t>Revisar GPOs do Active Directory para proteger sessões RDP</t>
         </is>
       </c>
       <c r="D97" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Windows Virtual Desktop usa o Azure Monitor e o Log Analytics para monitoramento e alertas como muitos outros serviços do Azure. Isso permite que os administradores identifiquem problemas através de uma única interface. O serviço cria registros de atividades para ações tanto do usuário quanto administrativas.  Cada registro de atividade se enquadra nas seguintes categorias: Gerenciamento, Alimentação, Conexões, Registro de Host, Erros, Pontos de Verificação. </t>
+          <t xml:space="preserve">Deve ser usado, por exemplo, para impor bloqueio de área de trabalho e encerramento de sessão ociosa. Os GPOs existentes aplicados ao ambiente local devem ser revisados e, eventualmente, aplicados para proteger também os hosts AVD. </t>
         </is>
       </c>
       <c r="E97" s="22" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5566,7 +5566,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5577,27 +5577,27 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Crie alertas sobre o armazenamento do perfil para serem alertados em caso de alto uso e estrangulamento</t>
+          <t>Avaliar o uso de MFA para usuários de AVD</t>
         </is>
       </c>
       <c r="D98" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consulte o artigo referenciado e este adicional para configurar o monitoramento adequado e alerta para armazenamento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
+          <t>Para obter detalhes e insights adicionais, consulte este artigo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
         </is>
       </c>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5608,7 +5608,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5627,27 +5627,27 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configure a saúde do serviço Azure para alertas de AVD </t>
+          <t>Avaliar o uso do Acesso Condicional para usuários</t>
         </is>
       </c>
       <c r="D99" s="22" t="inlineStr">
         <is>
-          <t>Você pode usar o Azure Service Health para monitorar problemas de serviço e avisos de saúde para o Windows Virtual Desktop. O Azure Service Health pode notificá-lo com diferentes tipos de alertas (por exemplo, e-mail ou SMS), ajudá-lo a entender o efeito de um problema e mantê-lo atualizado à medida que o problema se resolve.</t>
+          <t>A habilitação do Acesso Condicional permite que você gerencie riscos antes de conceder aos usuários acesso ao seu ambiente de Área de Trabalho Virtual do Windows. Ao decidir a quais usuários conceder acesso, recomendamos que você também considere quem é o usuário, como ele entra e qual dispositivo está usando.</t>
         </is>
       </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5658,7 +5658,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5677,27 +5677,27 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Avalie o requisito para o recurso de dimensionamento automático do pool host</t>
+          <t>Habilitar o log de diagnóstico e auditoria no espaço de trabalho central do Log Analytics</t>
         </is>
       </c>
       <c r="D100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A ferramenta de dimensionamento oferece uma opção de automação de baixo custo para clientes que desejam otimizar os custos de VM do host de sessão. Você pode usar a ferramenta de dimensionamento para agendar VMs para iniciar e parar com base nos horários comerciais de Peak e Off-Peak, dimensionar VMs com base no número de sessões por núcleo de CPU, escalar em VMs durante o horário de off-Peak, deixando o número mínimo de VMs de hospedagem de sessão em execução. Ainda não está disponível para o tipo de Pool de Host Pessoal, recomendado ter uma configuração separada para cada pool de host. </t>
+          <t xml:space="preserve">A habilitação da coleta de logs de auditoria permite exibir a atividade do usuário e do administrador relacionada à Área de Trabalho Virtual do Windows. Este também é um requisito para habilitar e usar a ferramenta de Monitoramento AVD. Altamente recomendado para habilitar. </t>
         </is>
       </c>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5708,7 +5708,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5716,7 +5716,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5727,22 +5727,22 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Verifique periodicamente as recomendações do Azure Advisor para AVD</t>
+          <t xml:space="preserve">Avaliar o requisito de usar funções RBAC personalizadas para gerenciamento de AVD </t>
         </is>
       </c>
       <c r="D101" s="22" t="inlineStr">
         <is>
-          <t>O Azure Advisor analisa suas configurações e telemetria para oferecer recomendações personalizadas para resolver problemas comuns. Com essas recomendações, você pode otimizar seus recursos do Azure para confiabilidade, segurança, excelência operacional, desempenho e custo.</t>
+          <t>O AVD usa RBAC (controles de acesso baseados em função) do Azure para atribuir funções a usuários e administradores. Essas funções dão aos administradores permissão para executar determinadas tarefas. Se a separação de tarefas for necessária, a Área de Trabalho Virtual do Windows terá funções adicionais que permitem separar funções de gerenciamento para pools de hosts, grupos de aplicativos e espaços de trabalho. Essa separação permite que você tenha um controle mais granular sobre as tarefas administrativas. Essas funções são nomeadas em conformidade com as funções padrão do Azure e a metodologia de privilégios mínimos.</t>
         </is>
       </c>
       <c r="E101" s="22" t="inlineStr">
@@ -5758,7 +5758,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5766,7 +5766,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5777,22 +5777,22 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Plano para uma estratégia de gerenciamento de atualização de imagem dourada</t>
+          <t>Revise todas as práticas recomendadas de segurança para o ambiente AVD</t>
         </is>
       </c>
       <c r="D102" s="22" t="inlineStr">
         <is>
-          <t>Prepare uma estratégia para gerenciar atualizações para imagens douradas, por exemplo, para aplicar hotfixes de segurança e/ou atualizar aplicativos instalados dentro da imagem. O Azure Image Builder Service é uma solução de primeira parte para automatizar a compilação e personalização de modelos VMs.ARM pode ser usado para criar novos hosts, e então desativar os antigos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool Abordagem recomendada é criar uma nova piscina lado a lado, mais fácil de reverter, não utilizável para pool dedicadoRe-implantar e aumentar o número de VMs com o modelo ARM também é uma opção viável. Os clientes também podem querer usar métodos de distribuição de software existentes para atualizar a imagem sem reimplantura, para exames com SCCM ou similares.</t>
+          <t xml:space="preserve">Um conjunto abrangente de práticas recomendadas de segurança e recomendações estão contidas no artigo referenciado, recomenda-se revisar. </t>
         </is>
       </c>
       <c r="E102" s="22" t="inlineStr">
@@ -5808,7 +5808,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5827,27 +5827,27 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Planeje uma estratégia de patches e atualização do Host Session Host</t>
+          <t>Determinar qual solução de back-end de armazenamento será usada para FSLogix Profile e Office Containers</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os clientes podem ter várias opções:- Microsoft Endpoint Configuration Manager, este artigo explica como configurar o Microsoft Endpoint Configuration Manager para aplicar automaticamente atualizações em um host de desktop virtual do Windows executando multi-sessão do Windows 10 Enterprise: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)-  3ª Parte que lhe suporta OS.- Azure Update Management (Azure Automation), hoje não suportada para o SO do cliente: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt é recomendado para se afastar de uma estratégia de patches e passar para uma estratégia de re-imagem, se possível. </t>
+          <t xml:space="preserve">Arquivos NetApp do Azure, Arquivos do Azure, Servidor de Arquivos baseado em VM. Servidor de arquivos não recomendado. O Azure Files Premium normalmente é um bom ponto de partida. A NetApp geralmente só é necessária para ambientes de grande escala/alto desempenho. </t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5858,7 +5858,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5866,7 +5866,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5877,22 +5877,22 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Avalie a exigência de um ambiente canário de teste DE AVD</t>
+          <t>Avalie a possibilidade de separar os Contêineres de Perfil dos Contêineres do Office</t>
         </is>
       </c>
       <c r="D104" s="22" t="inlineStr">
         <is>
-          <t>Os grupos host são uma coleção de uma ou mais máquinas virtuais idênticas no ambiente Windows Virtual Desktop. Recomendamos que você crie um pool de host de validação onde as atualizações de serviço são aplicadas primeiro. Isso permite monitorar as atualizações de serviço antes que o serviço as aplique ao seu ambiente padrão ou não de validação.</t>
+          <t xml:space="preserve">A recomendação na Área de Trabalho Virtual do Windows é usar o Contêiner de Perfil sem o Contêiner do Office, a menos que você esteja planejando cenários específicos de BCDR (Business Continuity and Disaster Recovery), conforme descrito na seção Recuperação de Desastres abaixo. https://learn.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
         </is>
       </c>
       <c r="E104" s="22" t="inlineStr">
@@ -5908,7 +5908,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://learn.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5916,7 +5916,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5927,27 +5927,27 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Determine a estratégia de implantação do Host Pool</t>
+          <t>Verificar os limites de escalabilidade do armazenamento para dar suporte aos requisitos do Pool de Hosts</t>
         </is>
       </c>
       <c r="D105" s="22" t="inlineStr">
         <is>
-          <t>Um Pool de Host AVD pode ser implantado de várias maneiras: Portal Azure, modelos ARM, ferramenta Azure CLI, Powershell, criação manual de VM com token de registro, Terraform, etc. É importante adotar métodos/s adequados para suportar a implantação automática por meio de ferramentas de automação e CI/CD.</t>
+          <t>Como ponto de partida para estimar os requisitos de desempenho de armazenamento de contêiner de perfil, recomendamos assumir 10 IOPS por usuário no estado estacionário e 50 IOPS por usuário durante a entrada/saída.</t>
         </is>
       </c>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5958,7 +5958,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5966,7 +5966,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5977,22 +5977,22 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Ligue os VMs regularmente a cada 90 dias para atualização de token</t>
+          <t>Se o armazenamento do NetApp Files for usado, verifique a disponibilidade do serviço de armazenamento em sua região específica.</t>
         </is>
       </c>
       <c r="D106" s="22" t="inlineStr">
         <is>
-          <t>Depois de registrar um VM em um pool de host dentro do serviço Windows Virtual Desktop, o agente atualiza regularmente o token do VM sempre que o VM estiver ativo. O certificado para o token de registro é válido por 90 dias. Devido a este limite de 90 dias, recomendamos que os VMs fiquem on-line por 20 minutos a cada 90 dias para que a máquina possa atualizar seus tokens e atualizar o agente e os componentes da pilha lado a lado.</t>
+          <t>Se uma segunda região for necessária para fins de DR, verifique a disponibilidade da NetApp também.</t>
         </is>
       </c>
       <c r="E106" s="22" t="inlineStr">
@@ -6008,7 +6008,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -6016,7 +6016,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -6027,22 +6027,22 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Determine o SLA de alta disponibilidade esperado para aplicativos/desktops publicados através do AVD</t>
+          <t>Para obter o desempenho ideal, a solução de armazenamento e o contêiner de perfil FSLogix devem estar no mesmo local do data center.</t>
         </is>
       </c>
       <c r="D107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O plano de controle AVD não oferece um contrato de nível de serviço apoiado financeiramente. Nós nos esforçamos para alcançar pelo menos 99,9% de disponibilidade para os URLs do serviço windows virtual desktop. A disponibilidade das máquinas virtuais de hospedagem de sessão em sua assinatura é coberta pelo SLA de Máquinas Virtuais. Os recursos/serviços/serviços dependentes e a disponibilidade de infraestrutura também devem ser considerados para satisfazer adequadamente os requisitos globais de alta disponibilidade. </t>
+          <t>Evite introduzir latência e custos adicionais associados ao tráfego de rede entre regiões sempre que possível.</t>
         </is>
       </c>
       <c r="E107" s="22" t="inlineStr">
@@ -6058,7 +6058,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -6066,7 +6066,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6077,22 +6077,22 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Avalie a região de recuperação de desastres geo para piscinas de host AVD</t>
+          <t>Configure as exclusões antivírus recomendadas para o FSLogix (inclui não verificar arquivos VHD(x) na conexão).</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
         <is>
-          <t>O modelo Active-Active pode ser alcançado com vários grupos de host em diferentes regiões. Não é recomendado um único Host Pool com VMs de diferentes regiões. Se vários pools para mesmos usuários serão usados, o problema de como sincronizar/replicar perfis de usuários deve ser resolvido. O FSLogix Cloud Cache pode ser usado, mas precisa ser cuidadosamente revisado e planejado, ou os clientes podem decidir não sincronizar/replicar. 'Ativo-passivo' pode ser alcançado usando a implantação do Azure Site Recovery (ASR) ou do Pool sob demanda com mecanismo automatizado.</t>
+          <t>Certifique-se de configurar as seguintes exclusões de antivírus para discos rígidos virtuais FSLogix Profile Container, conforme documentado no artigo referenciado.</t>
         </is>
       </c>
       <c r="E108" s="22" t="inlineStr">
@@ -6108,7 +6108,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6127,27 +6127,27 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Aplicativos críticos separados em diferentes pools de host AVD</t>
+          <t>Revise as chaves do Registro FSLogix e determine quais devem ser aplicadas</t>
         </is>
       </c>
       <c r="D109" s="22" t="inlineStr">
         <is>
-          <t>Antes de abordar o planejamento e o design do BCDR do Windows Virtual Desktop, é importante considerar inicialmente quais aplicativos são consumidos através do AVD. Você pode querer separá-los de aplicativos não críticos e usar um Host Pool separado com uma abordagem e recursos diferentes de recuperação de desastres.</t>
+          <t xml:space="preserve">As configurações básicas e recomendadas padrão estão aqui: https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Veja aqui o conjunto principal: https://learn.microsoft.com/fslogix/configure-profile-container-tutorialSee aqui para referência completa: https://learn.microsoft.com/fslogix/profile-container-configuration-reference </t>
         </is>
       </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6158,7 +6158,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -6166,7 +6166,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6177,22 +6177,22 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Planeje a melhor opção de resiliência para implantação do POOL DE HOST AVD</t>
+          <t>Verificar o uso de conexões simultâneas ou múltiplas com o mesmo perfil</t>
         </is>
       </c>
       <c r="D110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">? Você selecionou o nível de resiliência adequado para seus VMs de Pool host (Availability Set vs. Availability Zones)?? Você está ciente das implicações no HA SLA e nos limites de escalabilidade que vêm com AS ou AZ? Atualmente, você pode implantar 399 VMs por implantação de modelo DE ARMA de desktop virtual do Windows sem conjuntos de disponibilidade ou 200 VMs por Conjunto de Disponibilidade.? Você pode aumentar o número de VMs por implantação desligando os Conjuntos de Disponibilidade no modelo ARM ou no registro do pool de host do portal Azure. Implantar AZ agora é possível, um AZ no momento, precisa criar manualmente uma fração de VMs em cada AZ desejado. </t>
+          <t>Conexões simultâneas ou múltiplas são desencorajadas na Área de Trabalho Virtual do Windows. A prática recomendada é criar um local de perfil diferente para cada sessão (como um pool de hosts).</t>
         </is>
       </c>
       <c r="E110" s="22" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6227,27 +6227,27 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Avalie a exigência de backup de hosts de sessão AVD</t>
+          <t>Revise as práticas recomendadas e as principais considerações para o dimensionamento do armazenamento</t>
         </is>
       </c>
       <c r="D111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Backup Azure também pode ser usado para proteger VMs do Host Pool, essa prática é suportada, mesmo que os VMs do Host Pool sejam apátridas. Esta opção pode ser considerada para piscinas de host pessoal. </t>
+          <t xml:space="preserve">Como uma estimativa geral, a ser validada em um ambiente de teste, para cada usuário 5 - 15 IOPS devem ser primeiro considerados, dependendo da carga de trabalho. Arquivos do Azure: IOPS máximo de 100k por compartilhamento Premium (máximo de 100TB) e até 5Gbps com latência de 3ms. Esteja ciente de como os Arquivos do Azure são provisionados, ou seja, IOPS estritamente vinculadas ao SIZE provisionado. Capacidade de dimensionamento de burst em alguns casos. Certifique-se de fornecer ao UPFRONT mais espaço do que o necessário para ter certeza de ter IOPS suficiente. NOTA: O Azure Premium talvez seja mais barato do que o Standard porque você não paga transações e, em seguida, detalhes importantes a serem lembrados. Arquivos NetApp do Azure: lembre-se de um máximo de 1000 IPs conectados, pode ajustar IOPS em tempo real, capacidade provisionada mínima de 4 TB. </t>
         </is>
       </c>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6258,14 +6258,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
+          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6276,22 +6276,22 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Avalie quais dados precisam ser protegidos dentro dos Contêineres de Perfil e Escritório</t>
+          <t>Verificar as práticas recomendadas para os Arquivos do Azure (se usados)</t>
         </is>
       </c>
       <c r="D112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nem todos os dados dentro dos perfis de usuários do FSLogix podem merecer proteção contra desastres. Além disso, se o armazenamento externo for usado, por exemplo, o OneDrive ou File Servers/Shares, o que permanece no perfil FSLogix é mínimo e pode ser perdido em algumas circunstâncias extremas. Em outros casos, os dados dentro do perfil podem ser reconstruídos a partir de outros armazenamentos (por exemplo, outlook inbox no modo em cache). </t>
+          <t>Certifique-se de verificar a lista de práticas recomendadas e recomendações descritas no artigo referenciado.</t>
         </is>
       </c>
       <c r="E112" s="22" t="inlineStr">
@@ -6307,7 +6307,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -6315,7 +6315,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6326,22 +6326,22 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Construa uma estratégia de proteção de backup para contêineres de perfil e escritório</t>
+          <t>Verificar as práticas recomendadas para o NetApp Files (se usado)</t>
         </is>
       </c>
       <c r="D113" s="22" t="inlineStr">
         <is>
-          <t>Prevenir a perda de dados para dados críticos do usuário é importante, o primeiro passo é avaliar quais dados precisam ser salvos e protegidos. Se usar o OneDrive ou outro armazenamento externo, salvar dados do Perfil do Usuário e/ou contêineres do Office talvez não seja necessário. O mecanismo apropriado deve ser considerado para fornecer proteção aos dados críticos do usuário. O serviço de backup Azure pode ser usado para proteger dados de contêineres de perfil e escritório quando armazenados nos níveis Padrão e Premium de Arquivos Azure. Instantâneos e políticas de arquivos do Azure NetApp podem ser usados para arquivos do Azure NetApp (todos os níveis).</t>
+          <t>Certifique-se de verificar a lista de práticas recomendadas e recomendações descritas no artigo referenciado.</t>
         </is>
       </c>
       <c r="E113" s="22" t="inlineStr">
@@ -6357,7 +6357,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -6365,7 +6365,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6376,27 +6376,27 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Avalie os requisitos de replicação de armazenamento de contêiner de perfil e a resiliência para fins do BCDR</t>
+          <t>Revise e confirme o tamanho máximo do perfil configurado no FSLogix</t>
         </is>
       </c>
       <c r="D114" s="22" t="inlineStr">
         <is>
-          <t>Em AVD, vários mecanismos e estratégias de replicação podem ser usados para dados de usuários residentes em contêineres FSLogix:? Padrão de perfil #1: Mecanismos nativos de replicação de armazenamento do Azure, por exemplo, replicação GRS padrão de arquivos Azure, replicação transversal de arquivos do Azure ou sincronização de arquivos Azure para servidores de arquivos baseados em VM? O ZRS (Zone Replicated Storage, armazenamento replicado na zona) ou o armazenamento geo replicado (GRS) para arquivos Azure é recomendado.? O LRS com resiliência local só pode ser usado se não for necessária proteção de zona/região.? NOTA: O Azure Files Share Standard é LRS/ZRS/GRS, mas com suporte de 100 TB habilitado apenas LRS/ZRS são suportados. ? Padrão de perfil #2: O FSLogix Cloud Cache é incorporado em mecanismo automático para replicar contêineres entre diferentes (até 4) contas de armazenamento. O Cloud Cache só deve ser usado quando:? O perfil do usuário ou os contêineres do Office necessários para a SLA de alta disponibilidade é fundamental e precisa ser resiliente à falha na região.? A opção de armazenamento selecionada não é capaz de satisfazer os requisitos do BCDR. Por exemplo, com o nível Azure File Share Premium ou o Azure File Share Standard com suporte de arquivo grande ativado, o GRS não está disponível.? Quando a replicação entre armazenamento díspare é necessária.? Padrão de perfil #3: Configure apenas a recuperação geofíslica de desastres para dados de aplicativos e não para dados/recipientes de perfil do usuário: armazene dados importantes de aplicativos em armazenamentos separados, como o OneDrive ou outro armazenamento externo com seu próprio mecanismo de DR incorporado.</t>
+          <t>Os contêineres de perfil têm um tamanho máximo padrão de 30 GB. Se os Contêineres de Perfil grandes estiverem previstos e os clientes quiserem tentar mantê-los pequenos, considere usar o OneDrive para hospedar arquivos do Office 365 fora do perfil FSLogic.</t>
         </is>
       </c>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6407,7 +6407,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09d</t>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6426,22 +6426,22 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Revise a estratégia de DR de arquivos do Azure NetApp</t>
+          <t>Se o FSLogix Cloud Cache for usado, mova o diretório Cache para a unidade temporária.</t>
         </is>
       </c>
       <c r="D115" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: Azure NetApp Files é essencialmente LRS (armazenamento replicado localmente), então você precisa arquitetar algo mais se quiser a replicação entre regiões. A recomendação para cross-region no momento é o NetApp Cloud Sync, replicando-se para outra região do Azure (e NetApp Volume). Backup: Os backups são manuseados por instantâneos, mas não são automáticos, precisam ser agendados usando políticas. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Há um limite máximo de instantâneos (255) por volume conforme documentado aqui: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
+          <t xml:space="preserve">O Cloud Cache usa o disco local como cache e pode gerar muita pressão sobre o disco da VM. Recomendado para aproveitar o poder do disco de VM temporário (e conectado localmente), se possível com base na SKU da VM. </t>
         </is>
       </c>
       <c r="E115" s="22" t="inlineStr">
@@ -6457,14 +6457,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://learn.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6475,22 +6475,22 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Revisar a estratégia de DR de arquivos Azure</t>
+          <t>Revise o uso do redirecionamento FSLogix.</t>
         </is>
       </c>
       <c r="D116" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: GRS for Azure Files só está disponível com SKU padrão e sem suporte a ações grandes, então não é adequado na maioria dos cenários de clientes. Se for necessária a replicação georreferida, ao usar o Azure File Share Premium, a replicação com o FSLogix Cloud Cache deve ser avaliada ou a resiliência da Zona de Disponibilidade (AZ) da região deve ser considerada. Backup: O Azure Backup suporta totalmente o Azure File Share all SKUs, e é a solução recomendada para proteger os contêineres de perfil. Se usar o OneDrive ou outro armazenamento externo, salvar dados do Perfil do Usuário e/ou contêineres do Office talvez não seja necessário.</t>
+          <t>REDIRECTION.XML arquivo é usado para controlar quais pastas são redirecionadas do contêiner de perfil para a unidade C:. As exclusões devem ser a exceção e nunca devem ser usadas, a menos que a exclusão específica seja completamente compreendida pela pessoa que configura a exclusão. As exclusões devem ser sempre totalmente testadas no ambiente em que se destinam a ser implementadas. A configuração de exclusões pode afetar a funcionalidade, a estabilidade e o desempenho.</t>
         </is>
       </c>
       <c r="E116" s="22" t="inlineStr">
@@ -6506,14 +6506,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
+          <t>https://learn.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6524,27 +6524,27 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Dependências</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Plano para disponibilidade entre regiões de imagem dourada</t>
+          <t>Se o armazenamento dos Arquivos NetApp do Azure for usado, marque a configuração do nome do Site do AD na Conexão do AD.</t>
         </is>
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>Se imagens personalizadas forem usadas para implantar VMs de Pool de Host, é importante garantir que esses artefatos estejam disponíveis em todas as regiões, mesmo que em caso de um grande desastre. O serviço Azure Compute Gallery pode ser usado para replicar imagens em todas as regiões onde um Host Pool é implantado, com armazenamento redundante e em várias cópias.</t>
+          <t>Um Site do Active Directory deve ser criado para o ambiente de rede virtual do Azure onde a sub-rede ANF será criada, e esse nome de site deve ser especificado na propriedade de conexão ANF ao executar o procedimento de associação, conforme explicado no artigo de referência.</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6555,14 +6555,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/create-active-directory-connections</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6573,22 +6573,22 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Dependências</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avaliar dependências de infraestrutura e aplicativos </t>
+          <t>Habilite o SMB multicanal ao usar um compartilhamento de arquivos premium para hospedar contêineres de perfil FSLogix.</t>
         </is>
       </c>
       <c r="D118" s="22" t="inlineStr">
         <is>
-          <t>Se os usuários da infraestrutura AVD precisarem de acesso aos recursos no local, a alta disponibilidade de infraestrutura de rede necessária para se conectar também é crítica e deve ser considerada. A resiliência da infraestrutura de autenticação precisa ser avaliada e avaliada. Os aspectos bcdr para aplicações dependentes e outros recursos precisam ser considerados para garantir a disponibilidade no local dr secundário.</t>
+          <t>O SMB Multichannel permite que os clientes usem várias conexões de rede que proporcionam maior desempenho e, ao mesmo tempo, reduzem o custo de propriedade. O desempenho maior é alcançado por meio da agregação de largura de banda em várias NICs e da utilização do suporte a RSS (Receive Side Scaling) para NICs para distribuir a carga de E/S entre várias CPUs.</t>
         </is>
       </c>
       <c r="E118" s="22" t="inlineStr">
@@ -6604,7 +6604,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-smb-multichannel-performance</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6612,7 +6612,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6623,41 +6623,45 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t xml:space="preserve">Host da Sessão </t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
-        </is>
-      </c>
-      <c r="D119" s="22" t="n"/>
+          <t xml:space="preserve">Determinar que tipo de disco gerenciado será usado para os hosts de sessão  </t>
+        </is>
+      </c>
+      <c r="D119" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HDD padrão, SSD padrão ou SSD Premium, discos efêmeros não são suportados, Ultra-Discos não recomendados. Recomendado para avaliar o disco Premium para OS se a densidade do usuário não for baixa e se você for usar o Cloud Cache. </t>
+        </is>
+      </c>
       <c r="E119" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6695,7 +6699,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6703,7 +6707,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6714,17 +6718,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6741,19 +6745,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6789,13 +6789,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6831,21 +6839,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6895,7 +6895,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6933,19 +6933,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6983,19 +6983,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7033,19 +7033,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7083,19 +7083,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7133,14 +7133,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7161,13 +7166,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7178,14 +7183,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7206,7 +7211,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7223,14 +7228,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7268,14 +7273,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7313,14 +7318,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7358,14 +7363,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7386,7 +7391,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7403,14 +7408,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7448,14 +7453,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7476,7 +7481,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7493,14 +7498,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7538,14 +7543,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7583,14 +7588,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7601,23 +7606,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7628,14 +7633,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7646,17 +7651,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7673,14 +7678,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7701,13 +7706,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7718,14 +7723,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7763,14 +7768,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7815,7 +7820,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7836,7 +7841,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7860,7 +7865,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7881,7 +7886,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7905,7 +7910,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7926,7 +7931,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7943,14 +7948,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7971,7 +7976,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7995,7 +8000,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8085,7 +8090,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8123,14 +8128,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8146,18 +8151,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8168,14 +8173,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8191,12 +8196,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8213,14 +8218,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8241,13 +8246,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8265,7 +8270,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8303,14 +8308,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8331,7 +8336,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8355,7 +8360,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8376,13 +8381,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8400,7 +8405,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8421,7 +8426,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8445,7 +8450,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8466,13 +8471,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8490,7 +8495,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8535,7 +8540,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8573,14 +8578,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8618,14 +8623,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8641,12 +8646,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8663,14 +8668,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8686,12 +8691,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8708,14 +8713,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8753,14 +8758,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8798,14 +8803,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8843,14 +8848,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8871,7 +8876,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8888,14 +8893,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8933,14 +8938,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8961,7 +8966,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8985,7 +8990,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -9023,14 +9028,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9039,360 +9044,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10950,7 +11675,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11034,7 +11759,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11090,26 +11815,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11220,7 +11963,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este cheque ainda não foi examinado.</t>
+          <t>Esta verificação ainda não foi analisada</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11257,7 +12000,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Há um item de ação associado a este cheque</t>
+          <t>Há um item de ação associado a essa verificação</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -11294,7 +12037,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta verificação foi verificada, e não há mais itens de ação associados a ele</t>
+          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11326,7 +12069,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
+          <t>Recomendação entendida, mas não necessária pelos requisitos atuais</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11358,7 +12101,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não é aplicável para o design atual</t>
+          <t>Não aplicável ao projeto atual</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -11392,7 +12135,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Monitoramento e Gestão</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
     </row>
